--- a/EC/Train Runs and Enforcements 2016-05-10.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wabtec\Documents\GitHub\eaglep3-reporting\EC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\GitHub\eaglep3-reporting\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="427">
   <si>
     <t>Train ID</t>
   </si>
@@ -1304,28 +1304,37 @@
     <t>202-10</t>
   </si>
   <si>
-    <t>Wimax maybe</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Engineer induced Emergency Wimax related maybe</t>
-  </si>
-  <si>
-    <t>Investigate onboard</t>
-  </si>
-  <si>
-    <t>GPS DUS</t>
-  </si>
-  <si>
     <t>TMC Entered Failed State</t>
   </si>
   <si>
-    <t>Routing at DUS 20S</t>
-  </si>
-  <si>
-    <t>GPS at DUS</t>
+    <t>Poor GPS signal caused navigation issues as train approached DUS</t>
+  </si>
+  <si>
+    <t>Ticket Needed</t>
+  </si>
+  <si>
+    <t>Premature downgrade, DUS Signal 20S</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Premature downgrade at signal EC1981RH 191-1T 1N</t>
+  </si>
+  <si>
+    <t>Poor GPS signal prevented track selection</t>
+  </si>
+  <si>
+    <t>TMC Entered Failed State because Departure Test was canceled (3 times)</t>
+  </si>
+  <si>
+    <t>Premature signal downgrade EC2174RH (CP 78TH AVENUE) Signal 2N</t>
+  </si>
+  <si>
+    <t>Emergency Braking Event, spent remainder of trip in ATC</t>
+  </si>
+  <si>
+    <t>Train didn't fully stop at Station, onboard flashed prompts. Train was probably cut out to avoid confusion.</t>
   </si>
 </sst>
 </file>
@@ -1815,338 +1824,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -2239,16 +1917,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2317,151 +1985,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2745,11 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:CK163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,7 +2467,7 @@
       <c r="CJ2" s="10"/>
       <c r="CK2" s="10"/>
     </row>
-    <row r="3" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>205</v>
       </c>
@@ -2977,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="61" t="str">
-        <f>IF(ISEVEN(B3),(B3-1)&amp;"/"&amp;B3,B3&amp;"/"&amp;(B3+1))</f>
+        <f t="shared" ref="K3:K34" si="0">IF(ISEVEN(B3),(B3-1)&amp;"/"&amp;B3,B3&amp;"/"&amp;(B3+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L3" s="61" t="str">
@@ -2985,7 +2507,7 @@
         <v>CHANDLER</v>
       </c>
       <c r="M3" s="12">
-        <f>I3-F3</f>
+        <f t="shared" ref="M3:M34" si="1">I3-F3</f>
         <v>2.9571759259852115E-2</v>
       </c>
       <c r="N3" s="13">
@@ -3026,7 +2548,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>201</v>
       </c>
@@ -3058,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="61" t="str">
-        <f>IF(ISEVEN(B4),(B4-1)&amp;"/"&amp;B4,B4&amp;"/"&amp;(B4+1))</f>
+        <f t="shared" si="0"/>
         <v>4011/4012</v>
       </c>
       <c r="L4" s="61" t="str">
@@ -3066,7 +2588,7 @@
         <v>CHANDLER</v>
       </c>
       <c r="M4" s="12">
-        <f>I4-F4</f>
+        <f t="shared" si="1"/>
         <v>2.7268518519122154E-2</v>
       </c>
       <c r="N4" s="13">
@@ -3132,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="61" t="str">
-        <f>IF(ISEVEN(B5),(B5-1)&amp;"/"&amp;B5,B5&amp;"/"&amp;(B5+1))</f>
+        <f t="shared" si="0"/>
         <v>4023/4024</v>
       </c>
       <c r="L5" s="61" t="str">
@@ -3140,7 +2662,7 @@
         <v>STARKS</v>
       </c>
       <c r="M5" s="12" t="e">
-        <f>I5-F5</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="N5" s="13"/>
@@ -3148,12 +2670,16 @@
       <c r="P5" s="13">
         <v>0.1</v>
       </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
+      <c r="Q5" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="R5" s="62" t="s">
+        <v>423</v>
+      </c>
       <c r="T5" s="75"/>
       <c r="U5" s="75"/>
       <c r="V5" s="75">
-        <f t="shared" ref="V5:V6" si="0">VALUE(LEFT(A5,3))-VALUE(LEFT(A4,3))</f>
+        <f t="shared" ref="V5:V6" si="2">VALUE(LEFT(A5,3))-VALUE(LEFT(A4,3))</f>
         <v>1</v>
       </c>
       <c r="W5" s="75"/>
@@ -3162,7 +2688,7 @@
       <c r="Z5" s="76"/>
       <c r="AA5" s="76"/>
     </row>
-    <row r="6" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>198</v>
       </c>
@@ -3194,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="61" t="str">
-        <f>IF(ISEVEN(B6),(B6-1)&amp;"/"&amp;B6,B6&amp;"/"&amp;(B6+1))</f>
+        <f t="shared" si="0"/>
         <v>4007/4008</v>
       </c>
       <c r="L6" s="61" t="str">
@@ -3202,11 +2728,11 @@
         <v>STARKS</v>
       </c>
       <c r="M6" s="12">
-        <f>I6-F6</f>
+        <f t="shared" si="1"/>
         <v>0.11630787036847323</v>
       </c>
       <c r="N6" s="13">
-        <f>$M6*24*60</f>
+        <f t="shared" ref="N6:N40" si="3">$M6*24*60</f>
         <v>167.48333333060145</v>
       </c>
       <c r="O6" s="13"/>
@@ -3214,27 +2740,27 @@
       <c r="Q6" s="62"/>
       <c r="R6" s="62"/>
       <c r="T6" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E6-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I6+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B6&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T6:T37" si="4">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E6-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I6+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B6&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 04:33:02-0600',mode:absolute,to:'2016-05-10 07:24:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U6" s="75" t="str">
-        <f>IF(Y6&lt;23,"Y","N")</f>
+        <f t="shared" ref="U6:U37" si="5">IF(Y6&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V6" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W6" s="75">
-        <f>RIGHT(D6,LEN(D6)-4)/10000</f>
+        <f t="shared" ref="W6:W37" si="6">RIGHT(D6,LEN(D6)-4)/10000</f>
         <v>23.267900000000001</v>
       </c>
       <c r="X6" s="75">
-        <f>RIGHT(H6,LEN(H6)-4)/10000</f>
+        <f t="shared" ref="X6:X22" si="7">RIGHT(H6,LEN(H6)-4)/10000</f>
         <v>1.32E-2</v>
       </c>
       <c r="Y6" s="75">
-        <f>ABS(X6-W6)</f>
+        <f t="shared" ref="Y6:Y37" si="8">ABS(X6-W6)</f>
         <v>23.2547</v>
       </c>
       <c r="Z6" s="76">
@@ -3246,7 +2772,7 @@
         <v>GRADE CROSSING</v>
       </c>
     </row>
-    <row r="7" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>179</v>
       </c>
@@ -3278,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="61" t="str">
-        <f>IF(ISEVEN(B7),(B7-1)&amp;"/"&amp;B7,B7&amp;"/"&amp;(B7+1))</f>
+        <f t="shared" si="0"/>
         <v>4015/4016</v>
       </c>
       <c r="L7" s="61" t="str">
@@ -3286,11 +2812,11 @@
         <v>NEWELL</v>
       </c>
       <c r="M7" s="12">
-        <f>I7-F7</f>
+        <f t="shared" si="1"/>
         <v>3.2546296301006805E-2</v>
       </c>
       <c r="N7" s="13">
-        <f>$M7*24*60</f>
+        <f t="shared" si="3"/>
         <v>46.866666673449799</v>
       </c>
       <c r="O7" s="13"/>
@@ -3298,27 +2824,27 @@
       <c r="Q7" s="62"/>
       <c r="R7" s="62"/>
       <c r="T7" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E7-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I7+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B7&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 04:01:26-0600',mode:absolute,to:'2016-05-10 04:51:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U7" s="75" t="str">
-        <f>IF(Y7&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V7" s="75">
-        <f>VALUE(LEFT(A7,3))-VALUE(LEFT(A6,3))</f>
+        <f t="shared" ref="V7:V45" si="9">VALUE(LEFT(A7,3))-VALUE(LEFT(A6,3))</f>
         <v>1</v>
       </c>
       <c r="W7" s="75">
-        <f>RIGHT(D7,LEN(D7)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>7.6100000000000001E-2</v>
       </c>
       <c r="X7" s="75">
-        <f>RIGHT(H7,LEN(H7)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>23.328800000000001</v>
       </c>
       <c r="Y7" s="75">
-        <f>ABS(X7-W7)</f>
+        <f t="shared" si="8"/>
         <v>23.252700000000001</v>
       </c>
       <c r="Z7" s="76" t="e">
@@ -3330,7 +2856,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>184</v>
       </c>
@@ -3362,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="61" t="str">
-        <f>IF(ISEVEN(B8),(B8-1)&amp;"/"&amp;B8,B8&amp;"/"&amp;(B8+1))</f>
+        <f t="shared" si="0"/>
         <v>4031/4032</v>
       </c>
       <c r="L8" s="61" t="str">
@@ -3370,11 +2896,11 @@
         <v>NEWELL</v>
       </c>
       <c r="M8" s="12">
-        <f>I8-F8</f>
+        <f t="shared" si="1"/>
         <v>3.1550925923511386E-2</v>
       </c>
       <c r="N8" s="13">
-        <f>$M8*24*60</f>
+        <f t="shared" si="3"/>
         <v>45.433333329856396</v>
       </c>
       <c r="O8" s="13"/>
@@ -3382,27 +2908,27 @@
       <c r="Q8" s="62"/>
       <c r="R8" s="62"/>
       <c r="T8" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E8-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I8+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B8&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 05:02:34-0600',mode:absolute,to:'2016-05-10 05:51:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U8" s="75" t="str">
-        <f>IF(Y8&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V8" s="75">
-        <f>VALUE(LEFT(A8,3))-VALUE(LEFT(A7,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W8" s="75">
-        <f>RIGHT(D8,LEN(D8)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.264600000000002</v>
       </c>
       <c r="X8" s="75">
-        <f>RIGHT(H8,LEN(H8)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>0.18579999999999999</v>
       </c>
       <c r="Y8" s="75">
-        <f>ABS(X8-W8)</f>
+        <f t="shared" si="8"/>
         <v>23.078800000000001</v>
       </c>
       <c r="Z8" s="76" t="e">
@@ -3414,7 +2940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>206</v>
       </c>
@@ -3446,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="61" t="str">
-        <f>IF(ISEVEN(B9),(B9-1)&amp;"/"&amp;B9,B9&amp;"/"&amp;(B9+1))</f>
+        <f t="shared" si="0"/>
         <v>4043/4044</v>
       </c>
       <c r="L9" s="61" t="str">
@@ -3454,11 +2980,11 @@
         <v>YORK</v>
       </c>
       <c r="M9" s="12">
-        <f>I9-F9</f>
+        <f t="shared" si="1"/>
         <v>3.4270833333721384E-2</v>
       </c>
       <c r="N9" s="13">
-        <f>$M9*24*60</f>
+        <f t="shared" si="3"/>
         <v>49.350000000558794</v>
       </c>
       <c r="O9" s="13"/>
@@ -3466,27 +2992,27 @@
       <c r="Q9" s="62"/>
       <c r="R9" s="62"/>
       <c r="T9" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E9-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I9+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B9&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 04:15:31-0600',mode:absolute,to:'2016-05-10 05:08:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U9" s="75" t="str">
-        <f>IF(Y9&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V9" s="75">
-        <f>VALUE(LEFT(A9,3))-VALUE(LEFT(A8,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W9" s="75">
-        <f>RIGHT(D9,LEN(D9)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X9" s="75">
-        <f>RIGHT(H9,LEN(H9)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y9" s="75">
-        <f>ABS(X9-W9)</f>
+        <f t="shared" si="8"/>
         <v>23.285</v>
       </c>
       <c r="Z9" s="76">
@@ -3498,7 +3024,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="10" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>202</v>
       </c>
@@ -3530,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="61" t="str">
-        <f>IF(ISEVEN(B10),(B10-1)&amp;"/"&amp;B10,B10&amp;"/"&amp;(B10+1))</f>
+        <f t="shared" si="0"/>
         <v>4043/4044</v>
       </c>
       <c r="L10" s="61" t="str">
@@ -3538,11 +3064,11 @@
         <v>YORK</v>
       </c>
       <c r="M10" s="12">
-        <f>I10-F10</f>
+        <f t="shared" si="1"/>
         <v>3.4502314811106771E-2</v>
       </c>
       <c r="N10" s="13">
-        <f>$M10*24*60</f>
+        <f t="shared" si="3"/>
         <v>49.683333327993751</v>
       </c>
       <c r="O10" s="13"/>
@@ -3550,27 +3076,27 @@
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
       <c r="T10" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E10-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I10+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B10&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 05:14:12-0600',mode:absolute,to:'2016-05-10 06:08:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U10" s="75" t="str">
-        <f>IF(Y10&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V10" s="75">
-        <f>VALUE(LEFT(A10,3))-VALUE(LEFT(A9,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W10" s="75">
-        <f>RIGHT(D10,LEN(D10)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.3002</v>
       </c>
       <c r="X10" s="75">
-        <f>RIGHT(H10,LEN(H10)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y10" s="75">
-        <f>ABS(X10-W10)</f>
+        <f t="shared" si="8"/>
         <v>23.2852</v>
       </c>
       <c r="Z10" s="76" t="e">
@@ -3582,7 +3108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>193</v>
       </c>
@@ -3614,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="61" t="str">
-        <f>IF(ISEVEN(B11),(B11-1)&amp;"/"&amp;B11,B11&amp;"/"&amp;(B11+1))</f>
+        <f t="shared" si="0"/>
         <v>4009/4010</v>
       </c>
       <c r="L11" s="61" t="str">
@@ -3622,11 +3148,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M11" s="12">
-        <f>I11-F11</f>
+        <f t="shared" si="1"/>
         <v>2.6956018518831115E-2</v>
       </c>
       <c r="N11" s="13">
-        <f>$M11*24*60</f>
+        <f t="shared" si="3"/>
         <v>38.816666667116806</v>
       </c>
       <c r="O11" s="13"/>
@@ -3634,27 +3160,27 @@
       <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
       <c r="T11" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E11-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I11+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B11&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 04:39:42-0600',mode:absolute,to:'2016-05-10 05:22:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U11" s="75" t="str">
-        <f>IF(Y11&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V11" s="75">
-        <f>VALUE(LEFT(A11,3))-VALUE(LEFT(A10,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W11" s="75">
-        <f>RIGHT(D11,LEN(D11)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="X11" s="75">
-        <f>RIGHT(H11,LEN(H11)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>23.328600000000002</v>
       </c>
       <c r="Y11" s="75">
-        <f>ABS(X11-W11)</f>
+        <f t="shared" si="8"/>
         <v>23.284200000000002</v>
       </c>
       <c r="Z11" s="76" t="e">
@@ -3666,7 +3192,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>197</v>
       </c>
@@ -3698,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="61" t="str">
-        <f>IF(ISEVEN(B12),(B12-1)&amp;"/"&amp;B12,B12&amp;"/"&amp;(B12+1))</f>
+        <f t="shared" si="0"/>
         <v>4009/4010</v>
       </c>
       <c r="L12" s="61" t="str">
@@ -3706,11 +3232,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M12" s="12">
-        <f>I12-F12</f>
+        <f t="shared" si="1"/>
         <v>3.219907407037681E-2</v>
       </c>
       <c r="N12" s="13">
-        <f>$M12*24*60</f>
+        <f t="shared" si="3"/>
         <v>46.366666661342606</v>
       </c>
       <c r="O12" s="13"/>
@@ -3718,27 +3244,27 @@
       <c r="Q12" s="62"/>
       <c r="R12" s="62"/>
       <c r="T12" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E12-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I12+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B12&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 05:33:32-0600',mode:absolute,to:'2016-05-10 06:23:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U12" s="75" t="str">
-        <f>IF(Y12&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V12" s="75">
-        <f>VALUE(LEFT(A12,3))-VALUE(LEFT(A11,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W12" s="75">
-        <f>RIGHT(D12,LEN(D12)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.2971</v>
       </c>
       <c r="X12" s="75">
-        <f>RIGHT(H12,LEN(H12)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>1.29E-2</v>
       </c>
       <c r="Y12" s="75">
-        <f>ABS(X12-W12)</f>
+        <f t="shared" si="8"/>
         <v>23.284200000000002</v>
       </c>
       <c r="Z12" s="76" t="e">
@@ -3750,7 +3276,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>195</v>
       </c>
@@ -3782,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="61" t="str">
-        <f>IF(ISEVEN(B13),(B13-1)&amp;"/"&amp;B13,B13&amp;"/"&amp;(B13+1))</f>
+        <f t="shared" si="0"/>
         <v>4019/4020</v>
       </c>
       <c r="L13" s="61" t="str">
@@ -3790,11 +3316,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M13" s="12">
-        <f>I13-F13</f>
+        <f t="shared" si="1"/>
         <v>2.5972222225391306E-2</v>
       </c>
       <c r="N13" s="13">
-        <f>$M13*24*60</f>
+        <f t="shared" si="3"/>
         <v>37.400000004563481</v>
       </c>
       <c r="O13" s="13"/>
@@ -3802,27 +3328,27 @@
       <c r="Q13" s="62"/>
       <c r="R13" s="62"/>
       <c r="T13" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E13-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I13+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B13&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 05:01:43-0600',mode:absolute,to:'2016-05-10 05:43:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U13" s="75" t="str">
-        <f>IF(Y13&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V13" s="75">
-        <f>VALUE(LEFT(A13,3))-VALUE(LEFT(A12,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W13" s="75">
-        <f>RIGHT(D13,LEN(D13)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="X13" s="75">
-        <f>RIGHT(H13,LEN(H13)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y13" s="75">
-        <f>ABS(X13-W13)</f>
+        <f t="shared" si="8"/>
         <v>23.255299999999998</v>
       </c>
       <c r="Z13" s="76" t="e">
@@ -3834,7 +3360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>190</v>
       </c>
@@ -3866,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="61" t="str">
-        <f>IF(ISEVEN(B14),(B14-1)&amp;"/"&amp;B14,B14&amp;"/"&amp;(B14+1))</f>
+        <f t="shared" si="0"/>
         <v>4019/4020</v>
       </c>
       <c r="L14" s="61" t="str">
@@ -3874,11 +3400,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M14" s="12">
-        <f>I14-F14</f>
+        <f t="shared" si="1"/>
         <v>2.9687499998544808E-2</v>
       </c>
       <c r="N14" s="13">
-        <f>$M14*24*60</f>
+        <f t="shared" si="3"/>
         <v>42.749999997904524</v>
       </c>
       <c r="O14" s="13"/>
@@ -3886,27 +3412,27 @@
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
       <c r="T14" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E14-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I14+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B14&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 05:53:42-0600',mode:absolute,to:'2016-05-10 06:40:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U14" s="75" t="str">
-        <f>IF(Y14&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V14" s="75">
-        <f>VALUE(LEFT(A14,3))-VALUE(LEFT(A13,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W14" s="75">
-        <f>RIGHT(D14,LEN(D14)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X14" s="75">
-        <f>RIGHT(H14,LEN(H14)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y14" s="75">
-        <f>ABS(X14-W14)</f>
+        <f t="shared" si="8"/>
         <v>23.284099999999999</v>
       </c>
       <c r="Z14" s="76" t="e">
@@ -3918,7 +3444,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>187</v>
       </c>
@@ -3950,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="61" t="str">
-        <f>IF(ISEVEN(B15),(B15-1)&amp;"/"&amp;B15,B15&amp;"/"&amp;(B15+1))</f>
+        <f t="shared" si="0"/>
         <v>4011/4012</v>
       </c>
       <c r="L15" s="61" t="str">
@@ -3958,11 +3484,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M15" s="12">
-        <f>I15-F15</f>
+        <f t="shared" si="1"/>
         <v>3.2708333332266193E-2</v>
       </c>
       <c r="N15" s="13">
-        <f>$M15*24*60</f>
+        <f t="shared" si="3"/>
         <v>47.099999998463318</v>
       </c>
       <c r="O15" s="13"/>
@@ -3970,27 +3496,27 @@
       <c r="Q15" s="62"/>
       <c r="R15" s="62"/>
       <c r="T15" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E15-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I15+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B15&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 05:04:54-0600',mode:absolute,to:'2016-05-10 05:56:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U15" s="75" t="str">
-        <f>IF(Y15&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V15" s="75">
-        <f>VALUE(LEFT(A15,3))-VALUE(LEFT(A14,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W15" s="75">
-        <f>RIGHT(D15,LEN(D15)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X15" s="75">
-        <f>RIGHT(H15,LEN(H15)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>23.328199999999999</v>
       </c>
       <c r="Y15" s="75">
-        <f>ABS(X15-W15)</f>
+        <f t="shared" si="8"/>
         <v>23.283300000000001</v>
       </c>
       <c r="Z15" s="76" t="e">
@@ -4002,7 +3528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
         <v>173</v>
       </c>
@@ -4034,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="61" t="str">
-        <f>IF(ISEVEN(B16),(B16-1)&amp;"/"&amp;B16,B16&amp;"/"&amp;(B16+1))</f>
+        <f t="shared" si="0"/>
         <v>4011/4012</v>
       </c>
       <c r="L16" s="61" t="str">
@@ -4042,11 +3568,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M16" s="12">
-        <f>I16-F16</f>
+        <f t="shared" si="1"/>
         <v>3.1493055554165039E-2</v>
       </c>
       <c r="N16" s="13">
-        <f>$M16*24*60</f>
+        <f t="shared" si="3"/>
         <v>45.349999997997656</v>
       </c>
       <c r="O16" s="13"/>
@@ -4054,27 +3580,27 @@
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
       <c r="T16" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E16-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I16+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B16&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 06:09:36-0600',mode:absolute,to:'2016-05-10 06:58:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U16" s="75" t="str">
-        <f>IF(Y16&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V16" s="75">
-        <f>VALUE(LEFT(A16,3))-VALUE(LEFT(A15,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W16" s="75">
-        <f>RIGHT(D16,LEN(D16)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.296299999999999</v>
       </c>
       <c r="X16" s="75">
-        <f>RIGHT(H16,LEN(H16)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>3.85E-2</v>
       </c>
       <c r="Y16" s="75">
-        <f>ABS(X16-W16)</f>
+        <f t="shared" si="8"/>
         <v>23.2578</v>
       </c>
       <c r="Z16" s="76" t="e">
@@ -4086,7 +3612,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>203</v>
       </c>
@@ -4118,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="61" t="str">
-        <f>IF(ISEVEN(B17),(B17-1)&amp;"/"&amp;B17,B17&amp;"/"&amp;(B17+1))</f>
+        <f t="shared" si="0"/>
         <v>4023/4024</v>
       </c>
       <c r="L17" s="61" t="str">
@@ -4126,11 +3652,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M17" s="12">
-        <f>I17-F17</f>
+        <f t="shared" si="1"/>
         <v>2.8472222220443655E-2</v>
       </c>
       <c r="N17" s="13">
-        <f>$M17*24*60</f>
+        <f t="shared" si="3"/>
         <v>40.999999997438863</v>
       </c>
       <c r="O17" s="13"/>
@@ -4138,27 +3664,27 @@
       <c r="Q17" s="62"/>
       <c r="R17" s="62"/>
       <c r="T17" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E17-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I17+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B17&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 05:27:37-0600',mode:absolute,to:'2016-05-10 06:12:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U17" s="75" t="str">
-        <f>IF(Y17&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V17" s="75">
-        <f>VALUE(LEFT(A17,3))-VALUE(LEFT(A16,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W17" s="75">
-        <f>RIGHT(D17,LEN(D17)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="X17" s="75">
-        <f>RIGHT(H17,LEN(H17)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>23.331900000000001</v>
       </c>
       <c r="Y17" s="75">
-        <f>ABS(X17-W17)</f>
+        <f t="shared" si="8"/>
         <v>23.2529</v>
       </c>
       <c r="Z17" s="76" t="e">
@@ -4170,7 +3696,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>196</v>
       </c>
@@ -4202,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="61" t="str">
-        <f>IF(ISEVEN(B18),(B18-1)&amp;"/"&amp;B18,B18&amp;"/"&amp;(B18+1))</f>
+        <f t="shared" si="0"/>
         <v>4023/4024</v>
       </c>
       <c r="L18" s="61" t="str">
@@ -4210,11 +3736,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M18" s="12">
-        <f>I18-F18</f>
+        <f t="shared" si="1"/>
         <v>3.0011574068339542E-2</v>
       </c>
       <c r="N18" s="13">
-        <f>$M18*24*60</f>
+        <f t="shared" si="3"/>
         <v>43.21666665840894</v>
       </c>
       <c r="O18" s="13"/>
@@ -4222,27 +3748,27 @@
       <c r="Q18" s="62"/>
       <c r="R18" s="62"/>
       <c r="T18" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E18-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I18+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B18&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 06:19:48-0600',mode:absolute,to:'2016-05-10 07:06:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U18" s="75" t="str">
-        <f>IF(Y18&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V18" s="75">
-        <f>VALUE(LEFT(A18,3))-VALUE(LEFT(A17,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W18" s="75">
-        <f>RIGHT(D18,LEN(D18)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.299399999999999</v>
       </c>
       <c r="X18" s="75">
-        <f>RIGHT(H18,LEN(H18)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>1.32E-2</v>
       </c>
       <c r="Y18" s="75">
-        <f>ABS(X18-W18)</f>
+        <f t="shared" si="8"/>
         <v>23.286199999999997</v>
       </c>
       <c r="Z18" s="76" t="e">
@@ -4254,7 +3780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>185</v>
       </c>
@@ -4286,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="61" t="str">
-        <f>IF(ISEVEN(B19),(B19-1)&amp;"/"&amp;B19,B19&amp;"/"&amp;(B19+1))</f>
+        <f t="shared" si="0"/>
         <v>4007/4008</v>
       </c>
       <c r="L19" s="61" t="str">
@@ -4294,11 +3820,11 @@
         <v>STARKS</v>
       </c>
       <c r="M19" s="12">
-        <f>I19-F19</f>
+        <f t="shared" si="1"/>
         <v>2.9108796297805384E-2</v>
       </c>
       <c r="N19" s="13">
-        <f>$M19*24*60</f>
+        <f t="shared" si="3"/>
         <v>41.916666668839753</v>
       </c>
       <c r="O19" s="13"/>
@@ -4306,27 +3832,27 @@
       <c r="Q19" s="62"/>
       <c r="R19" s="62"/>
       <c r="T19" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E19-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I19+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B19&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 05:40:43-0600',mode:absolute,to:'2016-05-10 06:26:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U19" s="75" t="str">
-        <f>IF(Y19&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V19" s="75">
-        <f>VALUE(LEFT(A19,3))-VALUE(LEFT(A18,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W19" s="75">
-        <f>RIGHT(D19,LEN(D19)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>5.2400000000000002E-2</v>
       </c>
       <c r="X19" s="75">
-        <f>RIGHT(H19,LEN(H19)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>23.3249</v>
       </c>
       <c r="Y19" s="75">
-        <f>ABS(X19-W19)</f>
+        <f t="shared" si="8"/>
         <v>23.272500000000001</v>
       </c>
       <c r="Z19" s="76" t="e">
@@ -4338,7 +3864,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>194</v>
       </c>
@@ -4370,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="61" t="str">
-        <f>IF(ISEVEN(B20),(B20-1)&amp;"/"&amp;B20,B20&amp;"/"&amp;(B20+1))</f>
+        <f t="shared" si="0"/>
         <v>4007/4008</v>
       </c>
       <c r="L20" s="61" t="str">
@@ -4378,11 +3904,11 @@
         <v>STARKS</v>
       </c>
       <c r="M20" s="12">
-        <f>I20-F20</f>
+        <f t="shared" si="1"/>
         <v>2.8854166666860692E-2</v>
       </c>
       <c r="N20" s="13">
-        <f>$M20*24*60</f>
+        <f t="shared" si="3"/>
         <v>41.550000000279397</v>
       </c>
       <c r="O20" s="13"/>
@@ -4390,27 +3916,27 @@
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
       <c r="T20" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E20-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I20+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B20&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 06:37:33-0600',mode:absolute,to:'2016-05-10 07:24:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U20" s="75" t="str">
-        <f>IF(Y20&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V20" s="75">
-        <f>VALUE(LEFT(A20,3))-VALUE(LEFT(A19,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W20" s="75">
-        <f>RIGHT(D20,LEN(D20)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.291499999999999</v>
       </c>
       <c r="X20" s="75">
-        <f>RIGHT(H20,LEN(H20)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>1.32E-2</v>
       </c>
       <c r="Y20" s="75">
-        <f>ABS(X20-W20)</f>
+        <f t="shared" si="8"/>
         <v>23.278299999999998</v>
       </c>
       <c r="Z20" s="76" t="e">
@@ -4422,7 +3948,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>204</v>
       </c>
@@ -4454,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="61" t="str">
-        <f>IF(ISEVEN(B21),(B21-1)&amp;"/"&amp;B21,B21&amp;"/"&amp;(B21+1))</f>
+        <f t="shared" si="0"/>
         <v>4015/4016</v>
       </c>
       <c r="L21" s="61" t="str">
@@ -4462,11 +3988,11 @@
         <v>NEWELL</v>
       </c>
       <c r="M21" s="12">
-        <f>I21-F21</f>
+        <f t="shared" si="1"/>
         <v>2.7523148150066845E-2</v>
       </c>
       <c r="N21" s="13">
-        <f>$M21*24*60</f>
+        <f t="shared" si="3"/>
         <v>39.633333336096257</v>
       </c>
       <c r="O21" s="13"/>
@@ -4474,27 +4000,27 @@
       <c r="Q21" s="62"/>
       <c r="R21" s="62"/>
       <c r="T21" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E21-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I21+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B21&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 05:57:15-0600',mode:absolute,to:'2016-05-10 06:40:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U21" s="75" t="str">
-        <f>IF(Y21&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V21" s="75">
-        <f>VALUE(LEFT(A21,3))-VALUE(LEFT(A20,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W21" s="75">
-        <f>RIGHT(D21,LEN(D21)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>0.14749999999999999</v>
       </c>
       <c r="X21" s="75">
-        <f>RIGHT(H21,LEN(H21)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>23.334199999999999</v>
       </c>
       <c r="Y21" s="75">
-        <f>ABS(X21-W21)</f>
+        <f t="shared" si="8"/>
         <v>23.186699999999998</v>
       </c>
       <c r="Z21" s="76" t="e">
@@ -4506,7 +4032,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>199</v>
       </c>
@@ -4538,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="61" t="str">
-        <f>IF(ISEVEN(B22),(B22-1)&amp;"/"&amp;B22,B22&amp;"/"&amp;(B22+1))</f>
+        <f t="shared" si="0"/>
         <v>4015/4016</v>
       </c>
       <c r="L22" s="61" t="str">
@@ -4546,11 +4072,11 @@
         <v>NEWELL</v>
       </c>
       <c r="M22" s="12">
-        <f>I22-F22</f>
+        <f t="shared" si="1"/>
         <v>3.2303240746841766E-2</v>
       </c>
       <c r="N22" s="13">
-        <f>$M22*24*60</f>
+        <f t="shared" si="3"/>
         <v>46.516666675452143</v>
       </c>
       <c r="O22" s="13"/>
@@ -4558,27 +4084,27 @@
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
       <c r="T22" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E22-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I22+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B22&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 06:43:27-0600',mode:absolute,to:'2016-05-10 07:33:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U22" s="75" t="str">
-        <f>IF(Y22&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V22" s="75">
-        <f>VALUE(LEFT(A22,3))-VALUE(LEFT(A21,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W22" s="75">
-        <f>RIGHT(D22,LEN(D22)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.299800000000001</v>
       </c>
       <c r="X22" s="75">
-        <f>RIGHT(H22,LEN(H22)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>1.6E-2</v>
       </c>
       <c r="Y22" s="75">
-        <f>ABS(X22-W22)</f>
+        <f t="shared" si="8"/>
         <v>23.283800000000003</v>
       </c>
       <c r="Z22" s="76" t="e">
@@ -4590,7 +4116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>182</v>
       </c>
@@ -4622,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="61" t="str">
-        <f>IF(ISEVEN(B23),(B23-1)&amp;"/"&amp;B23,B23&amp;"/"&amp;(B23+1))</f>
+        <f t="shared" si="0"/>
         <v>4043/4044</v>
       </c>
       <c r="L23" s="61" t="str">
@@ -4630,11 +4156,11 @@
         <v>YORK</v>
       </c>
       <c r="M23" s="12">
-        <f>I23-F23</f>
+        <f t="shared" si="1"/>
         <v>2.9270833336340729E-2</v>
       </c>
       <c r="N23" s="13">
-        <f>$M23*24*60</f>
+        <f t="shared" si="3"/>
         <v>42.15000000433065</v>
       </c>
       <c r="O23" s="13"/>
@@ -4642,26 +4168,26 @@
       <c r="Q23" s="62"/>
       <c r="R23" s="62"/>
       <c r="T23" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E23-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I23+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B23&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 06:09:06-0600',mode:absolute,to:'2016-05-10 06:54:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U23" s="75" t="str">
-        <f>IF(Y23&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V23" s="75">
-        <f>VALUE(LEFT(A23,3))-VALUE(LEFT(A22,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W23" s="75">
-        <f>RIGHT(D23,LEN(D23)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X23" s="75">
         <v>23.3</v>
       </c>
       <c r="Y23" s="75">
-        <f>ABS(X23-W23)</f>
+        <f t="shared" si="8"/>
         <v>23.2529</v>
       </c>
       <c r="Z23" s="76" t="e">
@@ -4673,7 +4199,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>226</v>
       </c>
@@ -4705,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="61" t="str">
-        <f>IF(ISEVEN(B24),(B24-1)&amp;"/"&amp;B24,B24&amp;"/"&amp;(B24+1))</f>
+        <f t="shared" si="0"/>
         <v>4043/4044</v>
       </c>
       <c r="L24" s="61" t="str">
@@ -4713,11 +4239,11 @@
         <v>YORK</v>
       </c>
       <c r="M24" s="12">
-        <f>I24-F24</f>
+        <f t="shared" si="1"/>
         <v>2.9432870367600117E-2</v>
       </c>
       <c r="N24" s="13">
-        <f>$M24*24*60</f>
+        <f t="shared" si="3"/>
         <v>42.383333329344168</v>
       </c>
       <c r="O24" s="13"/>
@@ -4725,27 +4251,27 @@
       <c r="Q24" s="62"/>
       <c r="R24" s="62"/>
       <c r="T24" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E24-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I24+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B24&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 07:03:09-0600',mode:absolute,to:'2016-05-10 07:49:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U24" s="75" t="str">
-        <f>IF(Y24&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V24" s="75">
-        <f>VALUE(LEFT(A24,3))-VALUE(LEFT(A23,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W24" s="75">
-        <f>RIGHT(D24,LEN(D24)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X24" s="75">
-        <f>RIGHT(H24,LEN(H24)-4)/10000</f>
+        <f t="shared" ref="X24:X68" si="10">RIGHT(H24,LEN(H24)-4)/10000</f>
         <v>1.49E-2</v>
       </c>
       <c r="Y24" s="75">
-        <f>ABS(X24-W24)</f>
+        <f t="shared" si="8"/>
         <v>23.282799999999998</v>
       </c>
       <c r="Z24" s="76" t="e">
@@ -4757,7 +4283,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>181</v>
       </c>
@@ -4789,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="61" t="str">
-        <f>IF(ISEVEN(B25),(B25-1)&amp;"/"&amp;B25,B25&amp;"/"&amp;(B25+1))</f>
+        <f t="shared" si="0"/>
         <v>4009/4010</v>
       </c>
       <c r="L25" s="61" t="str">
@@ -4797,11 +4323,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M25" s="12">
-        <f>I25-F25</f>
+        <f t="shared" si="1"/>
         <v>2.6666666664823424E-2</v>
       </c>
       <c r="N25" s="13">
-        <f>$M25*24*60</f>
+        <f t="shared" si="3"/>
         <v>38.399999997345731</v>
       </c>
       <c r="O25" s="13"/>
@@ -4809,27 +4335,27 @@
       <c r="Q25" s="62"/>
       <c r="R25" s="62"/>
       <c r="T25" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E25-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I25+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B25&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 06:25:11-0600',mode:absolute,to:'2016-05-10 07:07:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U25" s="75" t="str">
-        <f>IF(Y25&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V25" s="75">
-        <f>VALUE(LEFT(A25,3))-VALUE(LEFT(A24,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W25" s="75">
-        <f>RIGHT(D25,LEN(D25)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="X25" s="75">
-        <f>RIGHT(H25,LEN(H25)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.330400000000001</v>
       </c>
       <c r="Y25" s="75">
-        <f>ABS(X25-W25)</f>
+        <f t="shared" si="8"/>
         <v>23.286000000000001</v>
       </c>
       <c r="Z25" s="76" t="e">
@@ -4841,7 +4367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>227</v>
       </c>
@@ -4873,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="K26" s="61" t="str">
-        <f>IF(ISEVEN(B26),(B26-1)&amp;"/"&amp;B26,B26&amp;"/"&amp;(B26+1))</f>
+        <f t="shared" si="0"/>
         <v>4009/4010</v>
       </c>
       <c r="L26" s="61" t="str">
@@ -4881,11 +4407,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M26" s="12">
-        <f>I26-F26</f>
+        <f t="shared" si="1"/>
         <v>3.0300925922347233E-2</v>
       </c>
       <c r="N26" s="13">
-        <f>$M26*24*60</f>
+        <f t="shared" si="3"/>
         <v>43.633333328180015</v>
       </c>
       <c r="O26" s="13"/>
@@ -4893,27 +4419,27 @@
       <c r="Q26" s="62"/>
       <c r="R26" s="62"/>
       <c r="T26" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E26-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I26+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B26&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 07:17:38-0600',mode:absolute,to:'2016-05-10 08:04:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U26" s="75" t="str">
-        <f>IF(Y26&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V26" s="75">
-        <f>VALUE(LEFT(A26,3))-VALUE(LEFT(A25,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W26" s="75">
-        <f>RIGHT(D26,LEN(D26)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.2987</v>
       </c>
       <c r="X26" s="75">
-        <f>RIGHT(H26,LEN(H26)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.34E-2</v>
       </c>
       <c r="Y26" s="75">
-        <f>ABS(X26-W26)</f>
+        <f t="shared" si="8"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z26" s="76" t="e">
@@ -4925,7 +4451,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>200</v>
       </c>
@@ -4957,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="61" t="str">
-        <f>IF(ISEVEN(B27),(B27-1)&amp;"/"&amp;B27,B27&amp;"/"&amp;(B27+1))</f>
+        <f t="shared" si="0"/>
         <v>4019/4020</v>
       </c>
       <c r="L27" s="61" t="str">
@@ -4965,11 +4491,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M27" s="12">
-        <f>I27-F27</f>
+        <f t="shared" si="1"/>
         <v>2.6180555556493346E-2</v>
       </c>
       <c r="N27" s="13">
-        <f>$M27*24*60</f>
+        <f t="shared" si="3"/>
         <v>37.700000001350418</v>
       </c>
       <c r="O27" s="13"/>
@@ -4977,27 +4503,27 @@
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
       <c r="T27" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E27-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I27+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B27&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 06:40:21-0600',mode:absolute,to:'2016-05-10 07:21:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U27" s="75" t="str">
-        <f>IF(Y27&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V27" s="75">
-        <f>VALUE(LEFT(A27,3))-VALUE(LEFT(A26,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W27" s="75">
-        <f>RIGHT(D27,LEN(D27)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X27" s="75">
-        <f>RIGHT(H27,LEN(H27)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.330300000000001</v>
       </c>
       <c r="Y27" s="75">
-        <f>ABS(X27-W27)</f>
+        <f t="shared" si="8"/>
         <v>23.286300000000001</v>
       </c>
       <c r="Z27" s="76" t="e">
@@ -5009,7 +4535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>229</v>
       </c>
@@ -5041,7 +4567,7 @@
         <v>2</v>
       </c>
       <c r="K28" s="61" t="str">
-        <f>IF(ISEVEN(B28),(B28-1)&amp;"/"&amp;B28,B28&amp;"/"&amp;(B28+1))</f>
+        <f t="shared" si="0"/>
         <v>4019/4020</v>
       </c>
       <c r="L28" s="61" t="str">
@@ -5049,11 +4575,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M28" s="12">
-        <f>I28-F28</f>
+        <f t="shared" si="1"/>
         <v>2.5706018517666962E-2</v>
       </c>
       <c r="N28" s="13">
-        <f>$M28*24*60</f>
+        <f t="shared" si="3"/>
         <v>37.016666665440425</v>
       </c>
       <c r="O28" s="13"/>
@@ -5061,27 +4587,27 @@
       <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
       <c r="T28" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E28-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I28+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B28&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 07:38:00-0600',mode:absolute,to:'2016-05-10 08:18:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U28" s="75" t="str">
-        <f>IF(Y28&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V28" s="75">
-        <f>VALUE(LEFT(A28,3))-VALUE(LEFT(A27,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W28" s="75">
-        <f>RIGHT(D28,LEN(D28)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.297999999999998</v>
       </c>
       <c r="X28" s="75">
-        <f>RIGHT(H28,LEN(H28)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y28" s="75">
-        <f>ABS(X28-W28)</f>
+        <f t="shared" si="8"/>
         <v>23.284199999999998</v>
       </c>
       <c r="Z28" s="76">
@@ -5093,7 +4619,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>207</v>
       </c>
@@ -5125,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="61" t="str">
-        <f>IF(ISEVEN(B29),(B29-1)&amp;"/"&amp;B29,B29&amp;"/"&amp;(B29+1))</f>
+        <f t="shared" si="0"/>
         <v>4011/4012</v>
       </c>
       <c r="L29" s="61" t="str">
@@ -5133,11 +4659,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M29" s="12">
-        <f>I29-F29</f>
+        <f t="shared" si="1"/>
         <v>2.4293981477967463E-2</v>
       </c>
       <c r="N29" s="13">
-        <f>$M29*24*60</f>
+        <f t="shared" si="3"/>
         <v>34.983333328273147</v>
       </c>
       <c r="O29" s="13"/>
@@ -5145,27 +4671,27 @@
       <c r="Q29" s="62"/>
       <c r="R29" s="62"/>
       <c r="T29" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E29-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I29+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B29&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 06:58:44-0600',mode:absolute,to:'2016-05-10 07:37:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U29" s="75" t="str">
-        <f>IF(Y29&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V29" s="75">
-        <f>VALUE(LEFT(A29,3))-VALUE(LEFT(A28,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W29" s="75">
-        <f>RIGHT(D29,LEN(D29)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="X29" s="75">
-        <f>RIGHT(H29,LEN(H29)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.330400000000001</v>
       </c>
       <c r="Y29" s="75">
-        <f>ABS(X29-W29)</f>
+        <f t="shared" si="8"/>
         <v>23.279500000000002</v>
       </c>
       <c r="Z29" s="76" t="e">
@@ -5177,7 +4703,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
         <v>232</v>
       </c>
@@ -5209,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="61" t="str">
-        <f>IF(ISEVEN(B30),(B30-1)&amp;"/"&amp;B30,B30&amp;"/"&amp;(B30+1))</f>
+        <f t="shared" si="0"/>
         <v>4011/4012</v>
       </c>
       <c r="L30" s="61" t="str">
@@ -5217,11 +4743,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M30" s="12">
-        <f>I30-F30</f>
+        <f t="shared" si="1"/>
         <v>2.9710648144828156E-2</v>
       </c>
       <c r="N30" s="13">
-        <f>$M30*24*60</f>
+        <f t="shared" si="3"/>
         <v>42.783333328552544</v>
       </c>
       <c r="O30" s="13"/>
@@ -5229,27 +4755,27 @@
       <c r="Q30" s="62"/>
       <c r="R30" s="62"/>
       <c r="T30" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E30-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I30+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B30&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 07:48:22-0600',mode:absolute,to:'2016-05-10 08:34:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U30" s="75" t="str">
-        <f>IF(Y30&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V30" s="75">
-        <f>VALUE(LEFT(A30,3))-VALUE(LEFT(A29,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W30" s="75">
-        <f>RIGHT(D30,LEN(D30)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.298100000000002</v>
       </c>
       <c r="X30" s="75">
-        <f>RIGHT(H30,LEN(H30)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y30" s="75">
-        <f>ABS(X30-W30)</f>
+        <f t="shared" si="8"/>
         <v>23.2834</v>
       </c>
       <c r="Z30" s="76" t="e">
@@ -5261,7 +4787,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>233</v>
       </c>
@@ -5293,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="61" t="str">
-        <f>IF(ISEVEN(B31),(B31-1)&amp;"/"&amp;B31,B31&amp;"/"&amp;(B31+1))</f>
+        <f t="shared" si="0"/>
         <v>4023/4024</v>
       </c>
       <c r="L31" s="61" t="str">
@@ -5301,11 +4827,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M31" s="12">
-        <f>I31-F31</f>
+        <f t="shared" si="1"/>
         <v>2.8252314812561963E-2</v>
       </c>
       <c r="N31" s="13">
-        <f>$M31*24*60</f>
+        <f t="shared" si="3"/>
         <v>40.683333330089226</v>
       </c>
       <c r="O31" s="13"/>
@@ -5313,27 +4839,27 @@
       <c r="Q31" s="62"/>
       <c r="R31" s="62"/>
       <c r="T31" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E31-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I31+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B31&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 07:09:16-0600',mode:absolute,to:'2016-05-10 07:53:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U31" s="75" t="str">
-        <f>IF(Y31&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V31" s="75">
-        <f>VALUE(LEFT(A31,3))-VALUE(LEFT(A30,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W31" s="75">
-        <f>RIGHT(D31,LEN(D31)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X31" s="75">
-        <f>RIGHT(H31,LEN(H31)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.331600000000002</v>
       </c>
       <c r="Y31" s="75">
-        <f>ABS(X31-W31)</f>
+        <f t="shared" si="8"/>
         <v>23.285600000000002</v>
       </c>
       <c r="Z31" s="76" t="e">
@@ -5345,7 +4871,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>235</v>
       </c>
@@ -5377,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="61" t="str">
-        <f>IF(ISEVEN(B32),(B32-1)&amp;"/"&amp;B32,B32&amp;"/"&amp;(B32+1))</f>
+        <f t="shared" si="0"/>
         <v>4023/4024</v>
       </c>
       <c r="L32" s="61" t="str">
@@ -5385,11 +4911,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M32" s="12">
-        <f>I32-F32</f>
+        <f t="shared" si="1"/>
         <v>3.5289351850224193E-2</v>
       </c>
       <c r="N32" s="13">
-        <f>$M32*24*60</f>
+        <f t="shared" si="3"/>
         <v>50.816666664322838</v>
       </c>
       <c r="O32" s="13"/>
@@ -5397,27 +4923,27 @@
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
       <c r="T32" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E32-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I32+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B32&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 07:57:44-0600',mode:absolute,to:'2016-05-10 08:51:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U32" s="75" t="str">
-        <f>IF(Y32&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V32" s="75">
-        <f>VALUE(LEFT(A32,3))-VALUE(LEFT(A31,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W32" s="75">
-        <f>RIGHT(D32,LEN(D32)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X32" s="75">
-        <f>RIGHT(H32,LEN(H32)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y32" s="75">
-        <f>ABS(X32-W32)</f>
+        <f t="shared" si="8"/>
         <v>23.285700000000002</v>
       </c>
       <c r="Z32" s="76">
@@ -5429,7 +4955,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>237</v>
       </c>
@@ -5461,7 +4987,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="61" t="str">
-        <f>IF(ISEVEN(B33),(B33-1)&amp;"/"&amp;B33,B33&amp;"/"&amp;(B33+1))</f>
+        <f t="shared" si="0"/>
         <v>4007/4008</v>
       </c>
       <c r="L33" s="61" t="str">
@@ -5469,11 +4995,11 @@
         <v>STARKS</v>
       </c>
       <c r="M33" s="12">
-        <f>I33-F33</f>
+        <f t="shared" si="1"/>
         <v>2.7268518519122154E-2</v>
       </c>
       <c r="N33" s="13">
-        <f>$M33*24*60</f>
+        <f t="shared" si="3"/>
         <v>39.266666667535901</v>
       </c>
       <c r="O33" s="13"/>
@@ -5481,27 +5007,27 @@
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="T33" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E33-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I33+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B33&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 07:26:15-0600',mode:absolute,to:'2016-05-10 08:09:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U33" s="75" t="str">
-        <f>IF(Y33&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V33" s="75">
-        <f>VALUE(LEFT(A33,3))-VALUE(LEFT(A32,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W33" s="75">
-        <f>RIGHT(D33,LEN(D33)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="X33" s="75">
-        <f>RIGHT(H33,LEN(H33)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.333600000000001</v>
       </c>
       <c r="Y33" s="75">
-        <f>ABS(X33-W33)</f>
+        <f t="shared" si="8"/>
         <v>23.290300000000002</v>
       </c>
       <c r="Z33" s="76">
@@ -5513,7 +5039,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>239</v>
       </c>
@@ -5545,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="61" t="str">
-        <f>IF(ISEVEN(B34),(B34-1)&amp;"/"&amp;B34,B34&amp;"/"&amp;(B34+1))</f>
+        <f t="shared" si="0"/>
         <v>4007/4008</v>
       </c>
       <c r="L34" s="61" t="str">
@@ -5553,11 +5079,11 @@
         <v>STARKS</v>
       </c>
       <c r="M34" s="12">
-        <f>I34-F34</f>
+        <f t="shared" si="1"/>
         <v>2.7673611111822538E-2</v>
       </c>
       <c r="N34" s="13">
-        <f>$M34*24*60</f>
+        <f t="shared" si="3"/>
         <v>39.850000001024455</v>
       </c>
       <c r="O34" s="13"/>
@@ -5565,27 +5091,27 @@
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
       <c r="T34" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E34-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I34+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B34&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 08:22:19-0600',mode:absolute,to:'2016-05-10 09:05:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U34" s="75" t="str">
-        <f>IF(Y34&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V34" s="75">
-        <f>VALUE(LEFT(A34,3))-VALUE(LEFT(A33,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W34" s="75">
-        <f>RIGHT(D34,LEN(D34)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.302499999999998</v>
       </c>
       <c r="X34" s="75">
-        <f>RIGHT(H34,LEN(H34)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y34" s="75">
-        <f>ABS(X34-W34)</f>
+        <f t="shared" si="8"/>
         <v>23.288699999999999</v>
       </c>
       <c r="Z34" s="76" t="e">
@@ -5597,7 +5123,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>241</v>
       </c>
@@ -5629,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="61" t="str">
-        <f>IF(ISEVEN(B35),(B35-1)&amp;"/"&amp;B35,B35&amp;"/"&amp;(B35+1))</f>
+        <f t="shared" ref="K35:K66" si="11">IF(ISEVEN(B35),(B35-1)&amp;"/"&amp;B35,B35&amp;"/"&amp;(B35+1))</f>
         <v>4015/4016</v>
       </c>
       <c r="L35" s="61" t="str">
@@ -5637,11 +5163,11 @@
         <v>NEWELL</v>
       </c>
       <c r="M35" s="12">
-        <f>I35-F35</f>
+        <f t="shared" ref="M35:M66" si="12">I35-F35</f>
         <v>2.849537037400296E-2</v>
       </c>
       <c r="N35" s="13">
-        <f>$M35*24*60</f>
+        <f t="shared" si="3"/>
         <v>41.033333338564262</v>
       </c>
       <c r="O35" s="13"/>
@@ -5649,27 +5175,27 @@
       <c r="Q35" s="62"/>
       <c r="R35" s="62"/>
       <c r="T35" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E35-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I35+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B35&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 07:36:13-0600',mode:absolute,to:'2016-05-10 08:21:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U35" s="75" t="str">
-        <f>IF(Y35&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V35" s="75">
-        <f>VALUE(LEFT(A35,3))-VALUE(LEFT(A34,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W35" s="75">
-        <f>RIGHT(D35,LEN(D35)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X35" s="75">
-        <f>RIGHT(H35,LEN(H35)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.329899999999999</v>
       </c>
       <c r="Y35" s="75">
-        <f>ABS(X35-W35)</f>
+        <f t="shared" si="8"/>
         <v>23.283899999999999</v>
       </c>
       <c r="Z35" s="76" t="e">
@@ -5681,7 +5207,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>242</v>
       </c>
@@ -5713,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="61" t="str">
-        <f>IF(ISEVEN(B36),(B36-1)&amp;"/"&amp;B36,B36&amp;"/"&amp;(B36+1))</f>
+        <f t="shared" si="11"/>
         <v>4015/4016</v>
       </c>
       <c r="L36" s="61" t="str">
@@ -5721,11 +5247,11 @@
         <v>NEWELL</v>
       </c>
       <c r="M36" s="12">
-        <f>I36-F36</f>
+        <f t="shared" si="12"/>
         <v>3.5949074073869269E-2</v>
       </c>
       <c r="N36" s="13">
-        <f>$M36*24*60</f>
+        <f t="shared" si="3"/>
         <v>51.766666666371748</v>
       </c>
       <c r="O36" s="13"/>
@@ -5733,27 +5259,27 @@
       <c r="Q36" s="62"/>
       <c r="R36" s="62"/>
       <c r="T36" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E36-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I36+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B36&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 08:24:06-0600',mode:absolute,to:'2016-05-10 09:19:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U36" s="75" t="str">
-        <f>IF(Y36&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V36" s="75">
-        <f>VALUE(LEFT(A36,3))-VALUE(LEFT(A35,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W36" s="75">
-        <f>RIGHT(D36,LEN(D36)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.297999999999998</v>
       </c>
       <c r="X36" s="75">
-        <f>RIGHT(H36,LEN(H36)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.61E-2</v>
       </c>
       <c r="Y36" s="75">
-        <f>ABS(X36-W36)</f>
+        <f t="shared" si="8"/>
         <v>23.281899999999997</v>
       </c>
       <c r="Z36" s="76" t="e">
@@ -5765,7 +5291,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>243</v>
       </c>
@@ -5797,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="61" t="str">
-        <f>IF(ISEVEN(B37),(B37-1)&amp;"/"&amp;B37,B37&amp;"/"&amp;(B37+1))</f>
+        <f t="shared" si="11"/>
         <v>4043/4044</v>
       </c>
       <c r="L37" s="61" t="str">
@@ -5805,11 +5331,11 @@
         <v>YORK</v>
       </c>
       <c r="M37" s="12">
-        <f>I37-F37</f>
+        <f t="shared" si="12"/>
         <v>2.9664351852261461E-2</v>
       </c>
       <c r="N37" s="13">
-        <f>$M37*24*60</f>
+        <f t="shared" si="3"/>
         <v>42.716666667256504</v>
       </c>
       <c r="O37" s="13"/>
@@ -5817,27 +5343,27 @@
       <c r="Q37" s="62"/>
       <c r="R37" s="62"/>
       <c r="T37" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E37-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I37+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B37&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="4"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 07:50:56-0600',mode:absolute,to:'2016-05-10 08:36:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U37" s="75" t="str">
-        <f>IF(Y37&lt;23,"Y","N")</f>
+        <f t="shared" si="5"/>
         <v>N</v>
       </c>
       <c r="V37" s="75">
-        <f>VALUE(LEFT(A37,3))-VALUE(LEFT(A36,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W37" s="75">
-        <f>RIGHT(D37,LEN(D37)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X37" s="75">
-        <f>RIGHT(H37,LEN(H37)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.331</v>
       </c>
       <c r="Y37" s="75">
-        <f>ABS(X37-W37)</f>
+        <f t="shared" si="8"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z37" s="76" t="e">
@@ -5849,7 +5375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>244</v>
       </c>
@@ -5881,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="61" t="str">
-        <f>IF(ISEVEN(B38),(B38-1)&amp;"/"&amp;B38,B38&amp;"/"&amp;(B38+1))</f>
+        <f t="shared" si="11"/>
         <v>4043/4044</v>
       </c>
       <c r="L38" s="61" t="str">
@@ -5889,11 +5415,11 @@
         <v>YORK</v>
       </c>
       <c r="M38" s="12">
-        <f>I38-F38</f>
+        <f t="shared" si="12"/>
         <v>3.4409722218697425E-2</v>
       </c>
       <c r="N38" s="13">
-        <f>$M38*24*60</f>
+        <f t="shared" si="3"/>
         <v>49.549999994924292</v>
       </c>
       <c r="O38" s="13"/>
@@ -5901,27 +5427,27 @@
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
       <c r="T38" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E38-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I38+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B38&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T38:T69" si="13">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E38-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I38+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B38&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 08:41:56-0600',mode:absolute,to:'2016-05-10 09:35:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U38" s="75" t="str">
-        <f>IF(Y38&lt;23,"Y","N")</f>
+        <f t="shared" ref="U38:U69" si="14">IF(Y38&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V38" s="75">
-        <f>VALUE(LEFT(A38,3))-VALUE(LEFT(A37,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W38" s="75">
-        <f>RIGHT(D38,LEN(D38)-4)/10000</f>
+        <f t="shared" ref="W38:W69" si="15">RIGHT(D38,LEN(D38)-4)/10000</f>
         <v>23.299800000000001</v>
       </c>
       <c r="X38" s="75">
-        <f>RIGHT(H38,LEN(H38)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y38" s="75">
-        <f>ABS(X38-W38)</f>
+        <f t="shared" ref="Y38:Y69" si="16">ABS(X38-W38)</f>
         <v>23.284400000000002</v>
       </c>
       <c r="Z38" s="76" t="e">
@@ -5933,7 +5459,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>245</v>
       </c>
@@ -5965,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="61" t="str">
-        <f>IF(ISEVEN(B39),(B39-1)&amp;"/"&amp;B39,B39&amp;"/"&amp;(B39+1))</f>
+        <f t="shared" si="11"/>
         <v>4009/4010</v>
       </c>
       <c r="L39" s="61" t="str">
@@ -5973,11 +5499,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M39" s="12">
-        <f>I39-F39</f>
+        <f t="shared" si="12"/>
         <v>2.9166666667151731E-2</v>
       </c>
       <c r="N39" s="13">
-        <f>$M39*24*60</f>
+        <f t="shared" si="3"/>
         <v>42.000000000698492</v>
       </c>
       <c r="O39" s="13"/>
@@ -5985,27 +5511,27 @@
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
       <c r="T39" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E39-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I39+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B39&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 08:06:13-0600',mode:absolute,to:'2016-05-10 08:51:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U39" s="75" t="str">
-        <f>IF(Y39&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V39" s="75">
-        <f>VALUE(LEFT(A39,3))-VALUE(LEFT(A38,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W39" s="75">
-        <f>RIGHT(D39,LEN(D39)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="X39" s="75">
-        <f>RIGHT(H39,LEN(H39)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.328199999999999</v>
       </c>
       <c r="Y39" s="75">
-        <f>ABS(X39-W39)</f>
+        <f t="shared" si="16"/>
         <v>23.2836</v>
       </c>
       <c r="Z39" s="76" t="e">
@@ -6017,7 +5543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>246</v>
       </c>
@@ -6049,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="61" t="str">
-        <f>IF(ISEVEN(B40),(B40-1)&amp;"/"&amp;B40,B40&amp;"/"&amp;(B40+1))</f>
+        <f t="shared" si="11"/>
         <v>4009/4010</v>
       </c>
       <c r="L40" s="61" t="str">
@@ -6057,11 +5583,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M40" s="12">
-        <f>I40-F40</f>
+        <f t="shared" si="12"/>
         <v>3.0185185183654539E-2</v>
       </c>
       <c r="N40" s="13">
-        <f>$M40*24*60</f>
+        <f t="shared" si="3"/>
         <v>43.466666664462537</v>
       </c>
       <c r="O40" s="13"/>
@@ -6069,27 +5595,27 @@
       <c r="Q40" s="62"/>
       <c r="R40" s="62"/>
       <c r="T40" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E40-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I40+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B40&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 09:02:06-0600',mode:absolute,to:'2016-05-10 09:49:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U40" s="75" t="str">
-        <f>IF(Y40&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V40" s="75">
-        <f>VALUE(LEFT(A40,3))-VALUE(LEFT(A39,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W40" s="75">
-        <f>RIGHT(D40,LEN(D40)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.2973</v>
       </c>
       <c r="X40" s="75">
-        <f>RIGHT(H40,LEN(H40)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.34E-2</v>
       </c>
       <c r="Y40" s="75">
-        <f>ABS(X40-W40)</f>
+        <f t="shared" si="16"/>
         <v>23.283899999999999</v>
       </c>
       <c r="Z40" s="76" t="e">
@@ -6133,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="61" t="str">
-        <f>IF(ISEVEN(B41),(B41-1)&amp;"/"&amp;B41,B41&amp;"/"&amp;(B41+1))</f>
+        <f t="shared" si="11"/>
         <v>4019/4020</v>
       </c>
       <c r="L41" s="61" t="str">
@@ -6141,7 +5667,7 @@
         <v>CANFIELD</v>
       </c>
       <c r="M41" s="12">
-        <f>I41-F41</f>
+        <f t="shared" si="12"/>
         <v>3.0127314814308193E-2</v>
       </c>
       <c r="N41" s="13"/>
@@ -6150,33 +5676,33 @@
         <v>43</v>
       </c>
       <c r="Q41" s="62" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="R41" s="62" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="T41" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E41-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I41+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B41&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 08:18:25-0600',mode:absolute,to:'2016-05-10 09:05:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U41" s="75" t="str">
-        <f>IF(Y41&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>Y</v>
       </c>
       <c r="V41" s="75">
-        <f>VALUE(LEFT(A41,3))-VALUE(LEFT(A40,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W41" s="75">
-        <f>RIGHT(D41,LEN(D41)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="X41" s="75">
-        <f>RIGHT(H41,LEN(H41)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>22.011900000000001</v>
       </c>
       <c r="Y41" s="75">
-        <f>ABS(X41-W41)</f>
+        <f t="shared" si="16"/>
         <v>21.964600000000001</v>
       </c>
       <c r="Z41" s="76">
@@ -6188,7 +5714,7 @@
         <v>SIGNAL</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>249</v>
       </c>
@@ -6220,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="61" t="str">
-        <f>IF(ISEVEN(B42),(B42-1)&amp;"/"&amp;B42,B42&amp;"/"&amp;(B42+1))</f>
+        <f t="shared" si="11"/>
         <v>4019/4020</v>
       </c>
       <c r="L42" s="61" t="str">
@@ -6228,11 +5754,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M42" s="12">
-        <f>I42-F42</f>
+        <f t="shared" si="12"/>
         <v>2.9120370367309079E-2</v>
       </c>
       <c r="N42" s="13">
-        <f>$M42*24*60</f>
+        <f t="shared" ref="N42:N58" si="17">$M42*24*60</f>
         <v>41.933333328925073</v>
       </c>
       <c r="O42" s="13"/>
@@ -6240,27 +5766,27 @@
       <c r="Q42" s="62"/>
       <c r="R42" s="62"/>
       <c r="T42" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E42-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I42+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B42&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 09:18:37-0600',mode:absolute,to:'2016-05-10 10:04:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U42" s="75" t="str">
-        <f>IF(Y42&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V42" s="75">
-        <f>VALUE(LEFT(A42,3))-VALUE(LEFT(A41,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W42" s="75">
-        <f>RIGHT(D42,LEN(D42)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.2987</v>
       </c>
       <c r="X42" s="75">
-        <f>RIGHT(H42,LEN(H42)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y42" s="75">
-        <f>ABS(X42-W42)</f>
+        <f t="shared" si="16"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z42" s="76" t="e">
@@ -6272,7 +5798,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>250</v>
       </c>
@@ -6304,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="61" t="str">
-        <f>IF(ISEVEN(B43),(B43-1)&amp;"/"&amp;B43,B43&amp;"/"&amp;(B43+1))</f>
+        <f t="shared" si="11"/>
         <v>4011/4012</v>
       </c>
       <c r="L43" s="61" t="str">
@@ -6312,11 +5838,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M43" s="12">
-        <f>I43-F43</f>
+        <f t="shared" si="12"/>
         <v>3.0428240737819578E-2</v>
       </c>
       <c r="N43" s="13">
-        <f>$M43*24*60</f>
+        <f t="shared" si="17"/>
         <v>43.816666662460193</v>
       </c>
       <c r="O43" s="13"/>
@@ -6324,27 +5850,27 @@
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
       <c r="T43" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E43-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I43+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B43&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 08:35:22-0600',mode:absolute,to:'2016-05-10 09:23:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U43" s="75" t="str">
-        <f>IF(Y43&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V43" s="75">
-        <f>VALUE(LEFT(A43,3))-VALUE(LEFT(A42,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W43" s="75">
-        <f>RIGHT(D43,LEN(D43)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.53E-2</v>
       </c>
       <c r="X43" s="75">
-        <f>RIGHT(H43,LEN(H43)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.3293</v>
       </c>
       <c r="Y43" s="75">
-        <f>ABS(X43-W43)</f>
+        <f t="shared" si="16"/>
         <v>23.283999999999999</v>
       </c>
       <c r="Z43" s="76" t="e">
@@ -6356,7 +5882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>251</v>
       </c>
@@ -6388,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="61" t="str">
-        <f>IF(ISEVEN(B44),(B44-1)&amp;"/"&amp;B44,B44&amp;"/"&amp;(B44+1))</f>
+        <f t="shared" si="11"/>
         <v>4011/4012</v>
       </c>
       <c r="L44" s="61" t="str">
@@ -6396,11 +5922,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M44" s="12">
-        <f>I44-F44</f>
+        <f t="shared" si="12"/>
         <v>3.0231481483497191E-2</v>
       </c>
       <c r="N44" s="13">
-        <f>$M44*24*60</f>
+        <f t="shared" si="17"/>
         <v>43.533333336235955</v>
       </c>
       <c r="O44" s="13"/>
@@ -6408,27 +5934,27 @@
       <c r="Q44" s="62"/>
       <c r="R44" s="62"/>
       <c r="T44" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E44-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I44+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B44&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 09:34:15-0600',mode:absolute,to:'2016-05-10 10:21:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U44" s="75" t="str">
-        <f>IF(Y44&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V44" s="75">
-        <f>VALUE(LEFT(A44,3))-VALUE(LEFT(A43,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W44" s="75">
-        <f>RIGHT(D44,LEN(D44)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X44" s="75">
-        <f>RIGHT(H44,LEN(H44)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="Y44" s="75">
-        <f>ABS(X44-W44)</f>
+        <f t="shared" si="16"/>
         <v>23.276399999999999</v>
       </c>
       <c r="Z44" s="76" t="e">
@@ -6440,7 +5966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>253</v>
       </c>
@@ -6472,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="61" t="str">
-        <f>IF(ISEVEN(B45),(B45-1)&amp;"/"&amp;B45,B45&amp;"/"&amp;(B45+1))</f>
+        <f t="shared" si="11"/>
         <v>4023/4024</v>
       </c>
       <c r="L45" s="61" t="str">
@@ -6480,11 +6006,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M45" s="12">
-        <f>I45-F45</f>
+        <f t="shared" si="12"/>
         <v>2.5868055556202307E-2</v>
       </c>
       <c r="N45" s="13">
-        <f>$M45*24*60</f>
+        <f t="shared" si="17"/>
         <v>37.250000000931323</v>
       </c>
       <c r="O45" s="13"/>
@@ -6492,27 +6018,27 @@
       <c r="Q45" s="62"/>
       <c r="R45" s="62"/>
       <c r="T45" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E45-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I45+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B45&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 08:56:45-0600',mode:absolute,to:'2016-05-10 09:37:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U45" s="75" t="str">
-        <f>IF(Y45&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V45" s="75">
-        <f>VALUE(LEFT(A45,3))-VALUE(LEFT(A44,3))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W45" s="75">
-        <f>RIGHT(D45,LEN(D45)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.0899999999999999E-2</v>
       </c>
       <c r="X45" s="75">
-        <f>RIGHT(H45,LEN(H45)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.3323</v>
       </c>
       <c r="Y45" s="75">
-        <f>ABS(X45-W45)</f>
+        <f t="shared" si="16"/>
         <v>23.291399999999999</v>
       </c>
       <c r="Z45" s="76" t="e">
@@ -6524,7 +6050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>407</v>
       </c>
@@ -6550,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="61" t="str">
-        <f>IF(ISEVEN(B46),(B46-1)&amp;"/"&amp;B46,B46&amp;"/"&amp;(B46+1))</f>
+        <f t="shared" si="11"/>
         <v>4023/4024</v>
       </c>
       <c r="L46" s="61" t="str">
@@ -6558,11 +6084,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M46" s="12">
-        <f>I46-F46</f>
+        <f t="shared" si="12"/>
         <v>2.5023148147738539E-2</v>
       </c>
       <c r="N46" s="13">
-        <f>$M46*24*60</f>
+        <f t="shared" si="17"/>
         <v>36.033333332743496</v>
       </c>
       <c r="O46" s="13"/>
@@ -6570,27 +6096,27 @@
       <c r="Q46" s="62"/>
       <c r="R46" s="62"/>
       <c r="T46" s="75" t="e">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E46-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I46+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B46&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="U46" s="75" t="e">
-        <f>IF(Y46&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="V46" s="75">
-        <f t="shared" ref="V46:V48" si="1">VALUE(LEFT(A46,3))-VALUE(LEFT(A45,3))</f>
+        <f t="shared" ref="V46:V48" si="18">VALUE(LEFT(A46,3))-VALUE(LEFT(A45,3))</f>
         <v>1</v>
       </c>
       <c r="W46" s="75" t="e">
-        <f>RIGHT(D46,LEN(D46)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="X46" s="75">
-        <f>RIGHT(H46,LEN(H46)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>2.4138888888999998E-4</v>
       </c>
       <c r="Y46" s="75" t="e">
-        <f>ABS(X46-W46)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z46" s="76" t="e">
@@ -6602,7 +6128,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>255</v>
       </c>
@@ -6634,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="61" t="str">
-        <f>IF(ISEVEN(B47),(B47-1)&amp;"/"&amp;B47,B47&amp;"/"&amp;(B47+1))</f>
+        <f t="shared" si="11"/>
         <v>4007/4008</v>
       </c>
       <c r="L47" s="61" t="str">
@@ -6642,11 +6168,11 @@
         <v>STARKS</v>
       </c>
       <c r="M47" s="12">
-        <f>I47-F47</f>
+        <f t="shared" si="12"/>
         <v>2.7083333334303461E-2</v>
       </c>
       <c r="N47" s="13">
-        <f>$M47*24*60</f>
+        <f t="shared" si="17"/>
         <v>39.000000001396984</v>
       </c>
       <c r="O47" s="13"/>
@@ -6654,27 +6180,27 @@
       <c r="Q47" s="62"/>
       <c r="R47" s="62"/>
       <c r="T47" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E47-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I47+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B47&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 09:11:15-0600',mode:absolute,to:'2016-05-10 09:53:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U47" s="75" t="str">
-        <f>IF(Y47&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V47" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W47" s="75">
-        <f>RIGHT(D47,LEN(D47)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="X47" s="75">
-        <f>RIGHT(H47,LEN(H47)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.334099999999999</v>
       </c>
       <c r="Y47" s="75">
-        <f>ABS(X47-W47)</f>
+        <f t="shared" si="16"/>
         <v>23.290299999999998</v>
       </c>
       <c r="Z47" s="76" t="e">
@@ -6686,7 +6212,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>257</v>
       </c>
@@ -6718,7 +6244,7 @@
         <v>4</v>
       </c>
       <c r="K48" s="61" t="str">
-        <f>IF(ISEVEN(B48),(B48-1)&amp;"/"&amp;B48,B48&amp;"/"&amp;(B48+1))</f>
+        <f t="shared" si="11"/>
         <v>4007/4008</v>
       </c>
       <c r="L48" s="61" t="str">
@@ -6726,11 +6252,11 @@
         <v>STARKS</v>
       </c>
       <c r="M48" s="12">
-        <f>I48-F48</f>
+        <f t="shared" si="12"/>
         <v>2.7870370373420883E-2</v>
       </c>
       <c r="N48" s="13">
-        <f>$M48*24*60</f>
+        <f t="shared" si="17"/>
         <v>40.133333337726071</v>
       </c>
       <c r="O48" s="13"/>
@@ -6738,27 +6264,27 @@
       <c r="Q48" s="62"/>
       <c r="R48" s="62"/>
       <c r="T48" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E48-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I48+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B48&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 10:06:29-0600',mode:absolute,to:'2016-05-10 10:53:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U48" s="75" t="str">
-        <f>IF(Y48&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V48" s="75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W48" s="75">
-        <f>RIGHT(D48,LEN(D48)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.302099999999999</v>
       </c>
       <c r="X48" s="75">
-        <f>RIGHT(H48,LEN(H48)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y48" s="75">
-        <f>ABS(X48-W48)</f>
+        <f t="shared" si="16"/>
         <v>23.2883</v>
       </c>
       <c r="Z48" s="76">
@@ -6770,7 +6296,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>259</v>
       </c>
@@ -6802,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="61" t="str">
-        <f>IF(ISEVEN(B49),(B49-1)&amp;"/"&amp;B49,B49&amp;"/"&amp;(B49+1))</f>
+        <f t="shared" si="11"/>
         <v>4015/4016</v>
       </c>
       <c r="L49" s="61" t="str">
@@ -6810,11 +6336,11 @@
         <v>NEWELL</v>
       </c>
       <c r="M49" s="12">
-        <f>I49-F49</f>
+        <f t="shared" si="12"/>
         <v>3.1215277776937E-2</v>
       </c>
       <c r="N49" s="13">
-        <f>$M49*24*60</f>
+        <f t="shared" si="17"/>
         <v>44.949999998789281</v>
       </c>
       <c r="O49" s="13"/>
@@ -6822,27 +6348,27 @@
       <c r="Q49" s="62"/>
       <c r="R49" s="62"/>
       <c r="T49" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E49-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I49+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B49&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 09:18:51-0600',mode:absolute,to:'2016-05-10 10:07:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U49" s="75" t="str">
-        <f>IF(Y49&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V49" s="75">
-        <f>VALUE(LEFT(A49,3))-VALUE(LEFT(A48,3))</f>
+        <f t="shared" ref="V49:V90" si="19">VALUE(LEFT(A49,3))-VALUE(LEFT(A48,3))</f>
         <v>1</v>
       </c>
       <c r="W49" s="75">
-        <f>RIGHT(D49,LEN(D49)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="X49" s="75">
-        <f>RIGHT(H49,LEN(H49)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.3323</v>
       </c>
       <c r="Y49" s="75">
-        <f>ABS(X49-W49)</f>
+        <f t="shared" si="16"/>
         <v>23.287700000000001</v>
       </c>
       <c r="Z49" s="76" t="e">
@@ -6854,7 +6380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>260</v>
       </c>
@@ -6886,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="61" t="str">
-        <f>IF(ISEVEN(B50),(B50-1)&amp;"/"&amp;B50,B50&amp;"/"&amp;(B50+1))</f>
+        <f t="shared" si="11"/>
         <v>4015/4016</v>
       </c>
       <c r="L50" s="61" t="str">
@@ -6894,11 +6420,11 @@
         <v>NEWELL</v>
       </c>
       <c r="M50" s="12">
-        <f>I50-F50</f>
+        <f t="shared" si="12"/>
         <v>2.6076388887304347E-2</v>
       </c>
       <c r="N50" s="13">
-        <f>$M50*24*60</f>
+        <f t="shared" si="17"/>
         <v>37.54999999771826</v>
       </c>
       <c r="O50" s="13"/>
@@ -6906,27 +6432,27 @@
       <c r="Q50" s="62"/>
       <c r="R50" s="62"/>
       <c r="T50" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E50-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I50+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B50&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 10:22:37-0600',mode:absolute,to:'2016-05-10 11:03:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U50" s="75" t="str">
-        <f>IF(Y50&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V50" s="75">
-        <f>VALUE(LEFT(A50,3))-VALUE(LEFT(A49,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W50" s="75">
-        <f>RIGHT(D50,LEN(D50)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.299399999999999</v>
       </c>
       <c r="X50" s="75">
-        <f>RIGHT(H50,LEN(H50)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.43E-2</v>
       </c>
       <c r="Y50" s="75">
-        <f>ABS(X50-W50)</f>
+        <f t="shared" si="16"/>
         <v>23.2851</v>
       </c>
       <c r="Z50" s="76" t="e">
@@ -6938,7 +6464,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
         <v>261</v>
       </c>
@@ -6970,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="61" t="str">
-        <f>IF(ISEVEN(B51),(B51-1)&amp;"/"&amp;B51,B51&amp;"/"&amp;(B51+1))</f>
+        <f t="shared" si="11"/>
         <v>4043/4044</v>
       </c>
       <c r="L51" s="61" t="str">
@@ -6978,11 +6504,11 @@
         <v>YORK</v>
       </c>
       <c r="M51" s="12">
-        <f>I51-F51</f>
+        <f t="shared" si="12"/>
         <v>2.7627314811979886E-2</v>
       </c>
       <c r="N51" s="13">
-        <f>$M51*24*60</f>
+        <f t="shared" si="17"/>
         <v>39.783333329251036</v>
       </c>
       <c r="O51" s="13"/>
@@ -6990,27 +6516,27 @@
       <c r="Q51" s="62"/>
       <c r="R51" s="62"/>
       <c r="T51" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E51-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I51+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B51&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 09:38:49-0600',mode:absolute,to:'2016-05-10 10:21:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U51" s="75" t="str">
-        <f>IF(Y51&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V51" s="75">
-        <f>VALUE(LEFT(A51,3))-VALUE(LEFT(A50,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W51" s="75">
-        <f>RIGHT(D51,LEN(D51)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X51" s="75">
-        <f>RIGHT(H51,LEN(H51)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.330100000000002</v>
       </c>
       <c r="Y51" s="75">
-        <f>ABS(X51-W51)</f>
+        <f t="shared" si="16"/>
         <v>23.284100000000002</v>
       </c>
       <c r="Z51" s="76" t="e">
@@ -7022,7 +6548,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>263</v>
       </c>
@@ -7054,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="61" t="str">
-        <f>IF(ISEVEN(B52),(B52-1)&amp;"/"&amp;B52,B52&amp;"/"&amp;(B52+1))</f>
+        <f t="shared" si="11"/>
         <v>4043/4044</v>
       </c>
       <c r="L52" s="61" t="str">
@@ -7062,11 +6588,11 @@
         <v>YORK</v>
       </c>
       <c r="M52" s="12">
-        <f>I52-F52</f>
+        <f t="shared" si="12"/>
         <v>3.309027777868323E-2</v>
       </c>
       <c r="N52" s="13">
-        <f>$M52*24*60</f>
+        <f t="shared" si="17"/>
         <v>47.650000001303852</v>
       </c>
       <c r="O52" s="13"/>
@@ -7074,27 +6600,27 @@
       <c r="Q52" s="62"/>
       <c r="R52" s="62"/>
       <c r="T52" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E52-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I52+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B52&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 10:28:32-0600',mode:absolute,to:'2016-05-10 11:19:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U52" s="75" t="str">
-        <f>IF(Y52&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V52" s="75">
-        <f>VALUE(LEFT(A52,3))-VALUE(LEFT(A51,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W52" s="75">
-        <f>RIGHT(D52,LEN(D52)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.298999999999999</v>
       </c>
       <c r="X52" s="75">
-        <f>RIGHT(H52,LEN(H52)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.43E-2</v>
       </c>
       <c r="Y52" s="75">
-        <f>ABS(X52-W52)</f>
+        <f t="shared" si="16"/>
         <v>23.284700000000001</v>
       </c>
       <c r="Z52" s="76" t="e">
@@ -7106,7 +6632,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>264</v>
       </c>
@@ -7138,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="61" t="str">
-        <f>IF(ISEVEN(B53),(B53-1)&amp;"/"&amp;B53,B53&amp;"/"&amp;(B53+1))</f>
+        <f t="shared" si="11"/>
         <v>4009/4010</v>
       </c>
       <c r="L53" s="61" t="str">
@@ -7146,11 +6672,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M53" s="12">
-        <f>I53-F53</f>
+        <f t="shared" si="12"/>
         <v>2.9293981482624076E-2</v>
       </c>
       <c r="N53" s="13">
-        <f>$M53*24*60</f>
+        <f t="shared" si="17"/>
         <v>42.18333333497867</v>
       </c>
       <c r="O53" s="13"/>
@@ -7158,27 +6684,27 @@
       <c r="Q53" s="62"/>
       <c r="R53" s="62"/>
       <c r="T53" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E53-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I53+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B53&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 09:51:22-0600',mode:absolute,to:'2016-05-10 10:37:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U53" s="75" t="str">
-        <f>IF(Y53&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V53" s="75">
-        <f>VALUE(LEFT(A53,3))-VALUE(LEFT(A52,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W53" s="75">
-        <f>RIGHT(D53,LEN(D53)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="X53" s="75">
-        <f>RIGHT(H53,LEN(H53)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.331499999999998</v>
       </c>
       <c r="Y53" s="75">
-        <f>ABS(X53-W53)</f>
+        <f t="shared" si="16"/>
         <v>23.287699999999997</v>
       </c>
       <c r="Z53" s="76" t="e">
@@ -7190,7 +6716,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>265</v>
       </c>
@@ -7222,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="61" t="str">
-        <f>IF(ISEVEN(B54),(B54-1)&amp;"/"&amp;B54,B54&amp;"/"&amp;(B54+1))</f>
+        <f t="shared" si="11"/>
         <v>4009/4010</v>
       </c>
       <c r="L54" s="61" t="str">
@@ -7230,11 +6756,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M54" s="12">
-        <f>I54-F54</f>
+        <f t="shared" si="12"/>
         <v>3.1666666662204079E-2</v>
       </c>
       <c r="N54" s="13">
-        <f>$M54*24*60</f>
+        <f t="shared" si="17"/>
         <v>45.599999993573874</v>
       </c>
       <c r="O54" s="13"/>
@@ -7242,27 +6768,27 @@
       <c r="Q54" s="62"/>
       <c r="R54" s="62"/>
       <c r="T54" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E54-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I54+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B54&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 10:48:09-0600',mode:absolute,to:'2016-05-10 11:37:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U54" s="75" t="str">
-        <f>IF(Y54&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V54" s="75">
-        <f>VALUE(LEFT(A54,3))-VALUE(LEFT(A53,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W54" s="75">
-        <f>RIGHT(D54,LEN(D54)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.297599999999999</v>
       </c>
       <c r="X54" s="75">
-        <f>RIGHT(H54,LEN(H54)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y54" s="75">
-        <f>ABS(X54-W54)</f>
+        <f t="shared" si="16"/>
         <v>23.2818</v>
       </c>
       <c r="Z54" s="76" t="e">
@@ -7274,7 +6800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>267</v>
       </c>
@@ -7306,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="61" t="str">
-        <f>IF(ISEVEN(B55),(B55-1)&amp;"/"&amp;B55,B55&amp;"/"&amp;(B55+1))</f>
+        <f t="shared" si="11"/>
         <v>4019/4020</v>
       </c>
       <c r="L55" s="61" t="str">
@@ -7314,11 +6840,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M55" s="12">
-        <f>I55-F55</f>
+        <f t="shared" si="12"/>
         <v>2.9270833329064772E-2</v>
       </c>
       <c r="N55" s="13">
-        <f>$M55*24*60</f>
+        <f t="shared" si="17"/>
         <v>42.149999993853271</v>
       </c>
       <c r="O55" s="13"/>
@@ -7326,27 +6852,27 @@
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
       <c r="T55" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E55-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I55+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B55&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 10:06:44-0600',mode:absolute,to:'2016-05-10 10:52:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U55" s="75" t="str">
-        <f>IF(Y55&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V55" s="75">
-        <f>VALUE(LEFT(A55,3))-VALUE(LEFT(A54,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W55" s="75">
-        <f>RIGHT(D55,LEN(D55)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X55" s="75">
-        <f>RIGHT(H55,LEN(H55)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.3276</v>
       </c>
       <c r="Y55" s="75">
-        <f>ABS(X55-W55)</f>
+        <f t="shared" si="16"/>
         <v>23.281400000000001</v>
       </c>
       <c r="Z55" s="76" t="e">
@@ -7358,7 +6884,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
         <v>269</v>
       </c>
@@ -7390,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="61" t="str">
-        <f>IF(ISEVEN(B56),(B56-1)&amp;"/"&amp;B56,B56&amp;"/"&amp;(B56+1))</f>
+        <f t="shared" si="11"/>
         <v>4019/4020</v>
       </c>
       <c r="L56" s="61" t="str">
@@ -7398,11 +6924,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M56" s="12">
-        <f>I56-F56</f>
+        <f t="shared" si="12"/>
         <v>2.7777777781011537E-2</v>
       </c>
       <c r="N56" s="13">
-        <f>$M56*24*60</f>
+        <f t="shared" si="17"/>
         <v>40.000000004656613</v>
       </c>
       <c r="O56" s="13"/>
@@ -7410,27 +6936,27 @@
       <c r="Q56" s="62"/>
       <c r="R56" s="62"/>
       <c r="T56" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E56-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I56+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B56&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 11:05:09-0600',mode:absolute,to:'2016-05-10 11:49:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U56" s="75" t="str">
-        <f>IF(Y56&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V56" s="75">
-        <f>VALUE(LEFT(A56,3))-VALUE(LEFT(A55,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W56" s="75">
-        <f>RIGHT(D56,LEN(D56)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.297499999999999</v>
       </c>
       <c r="X56" s="75">
-        <f>RIGHT(H56,LEN(H56)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y56" s="75">
-        <f>ABS(X56-W56)</f>
+        <f t="shared" si="16"/>
         <v>23.2837</v>
       </c>
       <c r="Z56" s="76" t="e">
@@ -7442,7 +6968,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="s">
         <v>270</v>
       </c>
@@ -7474,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="61" t="str">
-        <f>IF(ISEVEN(B57),(B57-1)&amp;"/"&amp;B57,B57&amp;"/"&amp;(B57+1))</f>
+        <f t="shared" si="11"/>
         <v>4011/4012</v>
       </c>
       <c r="L57" s="61" t="str">
@@ -7482,11 +7008,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M57" s="12">
-        <f>I57-F57</f>
+        <f t="shared" si="12"/>
         <v>2.5509259256068617E-2</v>
       </c>
       <c r="N57" s="13">
-        <f>$M57*24*60</f>
+        <f t="shared" si="17"/>
         <v>36.733333328738809</v>
       </c>
       <c r="O57" s="13"/>
@@ -7494,27 +7020,27 @@
       <c r="Q57" s="62"/>
       <c r="R57" s="62"/>
       <c r="T57" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E57-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I57+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B57&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 10:22:56-0600',mode:absolute,to:'2016-05-10 11:08:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U57" s="75" t="str">
-        <f>IF(Y57&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V57" s="75">
-        <f>VALUE(LEFT(A57,3))-VALUE(LEFT(A56,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W57" s="75">
-        <f>RIGHT(D57,LEN(D57)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="X57" s="75">
-        <f>RIGHT(H57,LEN(H57)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.331</v>
       </c>
       <c r="Y57" s="75">
-        <f>ABS(X57-W57)</f>
+        <f t="shared" si="16"/>
         <v>23.281299999999998</v>
       </c>
       <c r="Z57" s="76" t="e">
@@ -7526,7 +7052,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="61" t="s">
         <v>272</v>
       </c>
@@ -7558,7 +7084,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="61" t="str">
-        <f>IF(ISEVEN(B58),(B58-1)&amp;"/"&amp;B58,B58&amp;"/"&amp;(B58+1))</f>
+        <f t="shared" si="11"/>
         <v>4011/4012</v>
       </c>
       <c r="L58" s="61" t="str">
@@ -7566,11 +7092,11 @@
         <v>CANFIELD</v>
       </c>
       <c r="M58" s="12">
-        <f>I58-F58</f>
+        <f t="shared" si="12"/>
         <v>3.142361110803904E-2</v>
       </c>
       <c r="N58" s="13">
-        <f>$M58*24*60</f>
+        <f t="shared" si="17"/>
         <v>45.249999995576218</v>
       </c>
       <c r="O58" s="13"/>
@@ -7578,27 +7104,27 @@
       <c r="Q58" s="62"/>
       <c r="R58" s="62"/>
       <c r="T58" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E58-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I58+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B58&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 11:15:03-0600',mode:absolute,to:'2016-05-10 12:04:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U58" s="75" t="str">
-        <f>IF(Y58&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V58" s="75">
-        <f>VALUE(LEFT(A58,3))-VALUE(LEFT(A57,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W58" s="75">
-        <f>RIGHT(D58,LEN(D58)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.2989</v>
       </c>
       <c r="X58" s="75">
-        <f>RIGHT(H58,LEN(H58)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="Y58" s="75">
-        <f>ABS(X58-W58)</f>
+        <f t="shared" si="16"/>
         <v>23.236799999999999</v>
       </c>
       <c r="Z58" s="76">
@@ -7610,7 +7136,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
         <v>274</v>
       </c>
@@ -7642,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="61" t="str">
-        <f>IF(ISEVEN(B59),(B59-1)&amp;"/"&amp;B59,B59&amp;"/"&amp;(B59+1))</f>
+        <f t="shared" si="11"/>
         <v>4023/4024</v>
       </c>
       <c r="L59" s="61" t="str">
@@ -7650,7 +7176,7 @@
         <v>STORY</v>
       </c>
       <c r="M59" s="12">
-        <f>I59-F59</f>
+        <f t="shared" si="12"/>
         <v>1.1817129627161194E-2</v>
       </c>
       <c r="N59" s="13"/>
@@ -7659,27 +7185,27 @@
       <c r="Q59" s="62"/>
       <c r="R59" s="62"/>
       <c r="T59" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E59-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I59+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B59&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 11:12:28-0600',mode:absolute,to:'2016-05-10 11:32:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U59" s="75" t="str">
-        <f>IF(Y59&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>Y</v>
       </c>
       <c r="V59" s="75">
-        <f>VALUE(LEFT(A59,3))-VALUE(LEFT(A58,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W59" s="75">
-        <f>RIGHT(D59,LEN(D59)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>12.827400000000001</v>
       </c>
       <c r="X59" s="75">
-        <f>RIGHT(H59,LEN(H59)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.331099999999999</v>
       </c>
       <c r="Y59" s="75">
-        <f>ABS(X59-W59)</f>
+        <f t="shared" si="16"/>
         <v>10.503699999999998</v>
       </c>
       <c r="Z59" s="76" t="e">
@@ -7723,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="61" t="str">
-        <f>IF(ISEVEN(B60),(B60-1)&amp;"/"&amp;B60,B60&amp;"/"&amp;(B60+1))</f>
+        <f t="shared" si="11"/>
         <v>4023/4024</v>
       </c>
       <c r="L60" s="61" t="str">
@@ -7731,7 +7257,7 @@
         <v>STORY</v>
       </c>
       <c r="M60" s="12">
-        <f>I60-F60</f>
+        <f t="shared" si="12"/>
         <v>1.7372685178997926E-2</v>
       </c>
       <c r="N60" s="13"/>
@@ -7741,33 +7267,33 @@
         <v>42.033333320869133</v>
       </c>
       <c r="Q60" s="62" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="R60" s="62" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="T60" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E60-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I60+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B60&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 10:33:38-0600',mode:absolute,to:'2016-05-10 11:07:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U60" s="75" t="str">
-        <f>IF(Y60&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>Y</v>
       </c>
       <c r="V60" s="75">
-        <f>VALUE(LEFT(A60,3))-VALUE(LEFT(A59,3))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W60" s="75">
-        <f>RIGHT(D60,LEN(D60)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X60" s="75">
-        <f>RIGHT(H60,LEN(H60)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>10.287800000000001</v>
       </c>
       <c r="Y60" s="75">
-        <f>ABS(X60-W60)</f>
+        <f t="shared" si="16"/>
         <v>10.241200000000001</v>
       </c>
       <c r="Z60" s="76" t="e">
@@ -7779,7 +7305,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
         <v>277</v>
       </c>
@@ -7811,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="61" t="str">
-        <f>IF(ISEVEN(B61),(B61-1)&amp;"/"&amp;B61,B61&amp;"/"&amp;(B61+1))</f>
+        <f t="shared" si="11"/>
         <v>4023/4024</v>
       </c>
       <c r="L61" s="61" t="str">
@@ -7819,7 +7345,7 @@
         <v>STORY</v>
       </c>
       <c r="M61" s="12">
-        <f>I61-F61</f>
+        <f t="shared" si="12"/>
         <v>2.8564814820128959E-2</v>
       </c>
       <c r="N61" s="13">
@@ -7831,27 +7357,27 @@
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
       <c r="T61" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E61-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I61+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B61&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 11:33:53-0600',mode:absolute,to:'2016-05-10 12:19:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U61" s="75" t="str">
-        <f>IF(Y61&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V61" s="75">
-        <f>VALUE(LEFT(A61,3))-VALUE(LEFT(A60,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W61" s="75">
-        <f>RIGHT(D61,LEN(D61)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.298400000000001</v>
       </c>
       <c r="X61" s="75">
-        <f>RIGHT(H61,LEN(H61)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y61" s="75">
-        <f>ABS(X61-W61)</f>
+        <f t="shared" si="16"/>
         <v>23.2834</v>
       </c>
       <c r="Z61" s="76" t="e">
@@ -7863,7 +7389,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>279</v>
       </c>
@@ -7895,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="61" t="str">
-        <f>IF(ISEVEN(B62),(B62-1)&amp;"/"&amp;B62,B62&amp;"/"&amp;(B62+1))</f>
+        <f t="shared" si="11"/>
         <v>4007/4008</v>
       </c>
       <c r="L62" s="61" t="str">
@@ -7903,7 +7429,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M62" s="12">
-        <f>I62-F62</f>
+        <f t="shared" si="12"/>
         <v>1.2129629627452232E-2</v>
       </c>
       <c r="N62" s="13"/>
@@ -7912,27 +7438,27 @@
       <c r="Q62" s="62"/>
       <c r="R62" s="62"/>
       <c r="T62" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E62-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I62+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B62&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 10:57:00-0600',mode:absolute,to:'2016-05-10 11:17:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U62" s="75" t="str">
-        <f>IF(Y62&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>Y</v>
       </c>
       <c r="V62" s="75">
-        <f>VALUE(LEFT(A62,3))-VALUE(LEFT(A61,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W62" s="75">
-        <f>RIGHT(D62,LEN(D62)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X62" s="75">
-        <f>RIGHT(H62,LEN(H62)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>6.4710000000000001</v>
       </c>
       <c r="Y62" s="75">
-        <f>ABS(X62-W62)</f>
+        <f t="shared" si="16"/>
         <v>6.4260999999999999</v>
       </c>
       <c r="Z62" s="76">
@@ -7976,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="61" t="str">
-        <f>IF(ISEVEN(B63),(B63-1)&amp;"/"&amp;B63,B63&amp;"/"&amp;(B63+1))</f>
+        <f t="shared" si="11"/>
         <v>4007/4008</v>
       </c>
       <c r="L63" s="61" t="str">
@@ -7984,7 +7510,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M63" s="12">
-        <f>I63-F63</f>
+        <f t="shared" si="12"/>
         <v>1.5081018515047617E-2</v>
       </c>
       <c r="N63" s="13"/>
@@ -7994,33 +7520,33 @@
         <v>39.183333325199783</v>
       </c>
       <c r="Q63" s="62" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="R63" s="62" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="T63" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E63-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I63+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B63&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 11:24:04-0600',mode:absolute,to:'2016-05-10 11:48:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U63" s="75" t="str">
-        <f>IF(Y63&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>Y</v>
       </c>
       <c r="V63" s="75">
-        <f>VALUE(LEFT(A63,3))-VALUE(LEFT(A62,3))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W63" s="75">
-        <f>RIGHT(D63,LEN(D63)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>8.6374999999999993</v>
       </c>
       <c r="X63" s="75">
-        <f>RIGHT(H63,LEN(H63)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.331700000000001</v>
       </c>
       <c r="Y63" s="75">
-        <f>ABS(X63-W63)</f>
+        <f t="shared" si="16"/>
         <v>14.694200000000002</v>
       </c>
       <c r="Z63" s="76">
@@ -8032,7 +7558,7 @@
         <v>SIGNAL</v>
       </c>
     </row>
-    <row r="64" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="61" t="s">
         <v>282</v>
       </c>
@@ -8064,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="61" t="str">
-        <f>IF(ISEVEN(B64),(B64-1)&amp;"/"&amp;B64,B64&amp;"/"&amp;(B64+1))</f>
+        <f t="shared" si="11"/>
         <v>4007/4008</v>
       </c>
       <c r="L64" s="61" t="str">
@@ -8072,11 +7598,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M64" s="12">
-        <f>I64-F64</f>
+        <f t="shared" si="12"/>
         <v>2.6851851856918074E-2</v>
       </c>
       <c r="N64" s="13">
-        <f>$M64*24*60</f>
+        <f t="shared" ref="N64:N72" si="20">$M64*24*60</f>
         <v>38.666666673962027</v>
       </c>
       <c r="O64" s="13"/>
@@ -8084,27 +7610,27 @@
       <c r="Q64" s="62"/>
       <c r="R64" s="62"/>
       <c r="T64" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E64-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I64+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B64&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 11:52:12-0600',mode:absolute,to:'2016-05-10 12:34:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U64" s="75" t="str">
-        <f>IF(Y64&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V64" s="75">
-        <f>VALUE(LEFT(A64,3))-VALUE(LEFT(A63,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W64" s="75">
-        <f>RIGHT(D64,LEN(D64)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.299800000000001</v>
       </c>
       <c r="X64" s="75">
-        <f>RIGHT(H64,LEN(H64)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y64" s="75">
-        <f>ABS(X64-W64)</f>
+        <f t="shared" si="16"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z64" s="76" t="e">
@@ -8116,7 +7642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="s">
         <v>283</v>
       </c>
@@ -8148,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="61" t="str">
-        <f>IF(ISEVEN(B65),(B65-1)&amp;"/"&amp;B65,B65&amp;"/"&amp;(B65+1))</f>
+        <f t="shared" si="11"/>
         <v>4015/4016</v>
       </c>
       <c r="L65" s="61" t="str">
@@ -8156,11 +7682,11 @@
         <v>ADANE</v>
       </c>
       <c r="M65" s="12">
-        <f>I65-F65</f>
+        <f t="shared" si="12"/>
         <v>2.6273148148902692E-2</v>
       </c>
       <c r="N65" s="13">
-        <f>$M65*24*60</f>
+        <f t="shared" si="20"/>
         <v>37.833333334419876</v>
       </c>
       <c r="O65" s="13"/>
@@ -8168,27 +7694,27 @@
       <c r="Q65" s="62"/>
       <c r="R65" s="62"/>
       <c r="T65" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E65-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I65+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B65&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 11:10:43-0600',mode:absolute,to:'2016-05-10 11:52:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U65" s="75" t="str">
-        <f>IF(Y65&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V65" s="75">
-        <f>VALUE(LEFT(A65,3))-VALUE(LEFT(A64,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W65" s="75">
-        <f>RIGHT(D65,LEN(D65)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X65" s="75">
-        <f>RIGHT(H65,LEN(H65)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.331099999999999</v>
       </c>
       <c r="Y65" s="75">
-        <f>ABS(X65-W65)</f>
+        <f t="shared" si="16"/>
         <v>23.284499999999998</v>
       </c>
       <c r="Z65" s="76" t="e">
@@ -8200,7 +7726,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
         <v>284</v>
       </c>
@@ -8232,7 +7758,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="61" t="str">
-        <f>IF(ISEVEN(B66),(B66-1)&amp;"/"&amp;B66,B66&amp;"/"&amp;(B66+1))</f>
+        <f t="shared" si="11"/>
         <v>4015/4016</v>
       </c>
       <c r="L66" s="61" t="str">
@@ -8240,11 +7766,11 @@
         <v>ADANE</v>
       </c>
       <c r="M66" s="12">
-        <f>I66-F66</f>
+        <f t="shared" si="12"/>
         <v>2.700231481139781E-2</v>
       </c>
       <c r="N66" s="13">
-        <f>$M66*24*60</f>
+        <f t="shared" si="20"/>
         <v>38.883333328412846</v>
       </c>
       <c r="O66" s="13"/>
@@ -8252,27 +7778,27 @@
       <c r="Q66" s="62"/>
       <c r="R66" s="62"/>
       <c r="T66" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E66-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I66+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B66&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 12:07:01-0600',mode:absolute,to:'2016-05-10 12:49:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U66" s="75" t="str">
-        <f>IF(Y66&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V66" s="75">
-        <f>VALUE(LEFT(A66,3))-VALUE(LEFT(A65,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W66" s="75">
-        <f>RIGHT(D66,LEN(D66)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.2986</v>
       </c>
       <c r="X66" s="75">
-        <f>RIGHT(H66,LEN(H66)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y66" s="75">
-        <f>ABS(X66-W66)</f>
+        <f t="shared" si="16"/>
         <v>23.284099999999999</v>
       </c>
       <c r="Z66" s="76" t="e">
@@ -8284,7 +7810,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="61" t="s">
         <v>285</v>
       </c>
@@ -8316,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="61" t="str">
-        <f>IF(ISEVEN(B67),(B67-1)&amp;"/"&amp;B67,B67&amp;"/"&amp;(B67+1))</f>
+        <f t="shared" ref="K67:K98" si="21">IF(ISEVEN(B67),(B67-1)&amp;"/"&amp;B67,B67&amp;"/"&amp;(B67+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L67" s="61" t="str">
@@ -8324,11 +7850,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M67" s="12">
-        <f>I67-F67</f>
+        <f t="shared" ref="M67:M90" si="22">I67-F67</f>
         <v>2.8958333328773733E-2</v>
       </c>
       <c r="N67" s="13">
-        <f>$M67*24*60</f>
+        <f t="shared" si="20"/>
         <v>41.699999993434176</v>
       </c>
       <c r="O67" s="13"/>
@@ -8336,27 +7862,27 @@
       <c r="Q67" s="62"/>
       <c r="R67" s="62"/>
       <c r="T67" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E67-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I67+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B67&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 11:21:12-0600',mode:absolute,to:'2016-05-10 12:06:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U67" s="75" t="str">
-        <f>IF(Y67&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V67" s="75">
-        <f>VALUE(LEFT(A67,3))-VALUE(LEFT(A66,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W67" s="75">
-        <f>RIGHT(D67,LEN(D67)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X67" s="75">
-        <f>RIGHT(H67,LEN(H67)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.331900000000001</v>
       </c>
       <c r="Y67" s="75">
-        <f>ABS(X67-W67)</f>
+        <f t="shared" si="16"/>
         <v>23.286200000000001</v>
       </c>
       <c r="Z67" s="76" t="e">
@@ -8368,7 +7894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>286</v>
       </c>
@@ -8400,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="61" t="str">
-        <f>IF(ISEVEN(B68),(B68-1)&amp;"/"&amp;B68,B68&amp;"/"&amp;(B68+1))</f>
+        <f t="shared" si="21"/>
         <v>4043/4044</v>
       </c>
       <c r="L68" s="61" t="str">
@@ -8408,11 +7934,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M68" s="12">
-        <f>I68-F68</f>
+        <f t="shared" si="22"/>
         <v>3.2488425931660458E-2</v>
       </c>
       <c r="N68" s="13">
-        <f>$M68*24*60</f>
+        <f t="shared" si="20"/>
         <v>46.78333334159106</v>
       </c>
       <c r="O68" s="13"/>
@@ -8420,27 +7946,27 @@
       <c r="Q68" s="62"/>
       <c r="R68" s="62"/>
       <c r="T68" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E68-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I68+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B68&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 12:13:32-0600',mode:absolute,to:'2016-05-10 13:04:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U68" s="75" t="str">
-        <f>IF(Y68&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V68" s="75">
-        <f>VALUE(LEFT(A68,3))-VALUE(LEFT(A67,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W68" s="75">
-        <f>RIGHT(D68,LEN(D68)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>23.3017</v>
       </c>
       <c r="X68" s="75">
-        <f>RIGHT(H68,LEN(H68)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>1.32E-2</v>
       </c>
       <c r="Y68" s="75">
-        <f>ABS(X68-W68)</f>
+        <f t="shared" si="16"/>
         <v>23.288499999999999</v>
       </c>
       <c r="Z68" s="76" t="e">
@@ -8452,7 +7978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>288</v>
       </c>
@@ -8484,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="61" t="str">
-        <f>IF(ISEVEN(B69),(B69-1)&amp;"/"&amp;B69,B69&amp;"/"&amp;(B69+1))</f>
+        <f t="shared" si="21"/>
         <v>4009/4010</v>
       </c>
       <c r="L69" s="61" t="str">
@@ -8492,11 +8018,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M69" s="12">
-        <f>I69-F69</f>
+        <f t="shared" si="22"/>
         <v>2.7280092595901806E-2</v>
       </c>
       <c r="N69" s="13">
-        <f>$M69*24*60</f>
+        <f t="shared" si="20"/>
         <v>39.283333338098601</v>
       </c>
       <c r="O69" s="13"/>
@@ -8504,26 +8030,26 @@
       <c r="Q69" s="62"/>
       <c r="R69" s="62"/>
       <c r="T69" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E69-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I69+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B69&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="13"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 11:39:38-0600',mode:absolute,to:'2016-05-10 12:22:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U69" s="75" t="str">
-        <f>IF(Y69&lt;23,"Y","N")</f>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
       <c r="V69" s="75">
-        <f>VALUE(LEFT(A69,3))-VALUE(LEFT(A68,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W69" s="75">
-        <f>RIGHT(D69,LEN(D69)-4)/10000</f>
+        <f t="shared" si="15"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X69" s="75">
         <v>23.3491</v>
       </c>
       <c r="Y69" s="75">
-        <f>ABS(X69-W69)</f>
+        <f t="shared" si="16"/>
         <v>23.304200000000002</v>
       </c>
       <c r="Z69" s="76" t="e">
@@ -8535,7 +8061,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
         <v>290</v>
       </c>
@@ -8567,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="61" t="str">
-        <f>IF(ISEVEN(B70),(B70-1)&amp;"/"&amp;B70,B70&amp;"/"&amp;(B70+1))</f>
+        <f t="shared" si="21"/>
         <v>4009/4010</v>
       </c>
       <c r="L70" s="61" t="str">
@@ -8575,11 +8101,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M70" s="12">
-        <f>I70-F70</f>
+        <f t="shared" si="22"/>
         <v>3.0763888884393964E-2</v>
       </c>
       <c r="N70" s="13">
-        <f>$M70*24*60</f>
+        <f t="shared" si="20"/>
         <v>44.299999993527308</v>
       </c>
       <c r="O70" s="13"/>
@@ -8587,27 +8113,27 @@
       <c r="Q70" s="62"/>
       <c r="R70" s="62"/>
       <c r="T70" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E70-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I70+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B70&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T70:T90" si="23">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E70-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I70+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B70&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 12:33:16-0600',mode:absolute,to:'2016-05-10 13:21:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U70" s="75" t="str">
-        <f>IF(Y70&lt;23,"Y","N")</f>
+        <f t="shared" ref="U70:U90" si="24">IF(Y70&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V70" s="75">
-        <f>VALUE(LEFT(A70,3))-VALUE(LEFT(A69,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W70" s="75">
-        <f>RIGHT(D70,LEN(D70)-4)/10000</f>
+        <f t="shared" ref="W70:W90" si="25">RIGHT(D70,LEN(D70)-4)/10000</f>
         <v>23.2957</v>
       </c>
       <c r="X70" s="75">
-        <f>RIGHT(H70,LEN(H70)-4)/10000</f>
+        <f t="shared" ref="X70:X85" si="26">RIGHT(H70,LEN(H70)-4)/10000</f>
         <v>1.6E-2</v>
       </c>
       <c r="Y70" s="75">
-        <f>ABS(X70-W70)</f>
+        <f t="shared" ref="Y70:Y101" si="27">ABS(X70-W70)</f>
         <v>23.279700000000002</v>
       </c>
       <c r="Z70" s="76" t="e">
@@ -8619,7 +8145,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
         <v>292</v>
       </c>
@@ -8651,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="61" t="str">
-        <f>IF(ISEVEN(B71),(B71-1)&amp;"/"&amp;B71,B71&amp;"/"&amp;(B71+1))</f>
+        <f t="shared" si="21"/>
         <v>4019/4020</v>
       </c>
       <c r="L71" s="61" t="str">
@@ -8659,11 +8185,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M71" s="12">
-        <f>I71-F71</f>
+        <f t="shared" si="22"/>
         <v>2.8946759259270038E-2</v>
       </c>
       <c r="N71" s="13">
-        <f>$M71*24*60</f>
+        <f t="shared" si="20"/>
         <v>41.683333333348855</v>
       </c>
       <c r="O71" s="13"/>
@@ -8671,27 +8197,27 @@
       <c r="Q71" s="62"/>
       <c r="R71" s="62"/>
       <c r="T71" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E71-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I71+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B71&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 11:51:58-0600',mode:absolute,to:'2016-05-10 12:37:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U71" s="75" t="str">
-        <f>IF(Y71&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V71" s="75">
-        <f>VALUE(LEFT(A71,3))-VALUE(LEFT(A70,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W71" s="75">
-        <f>RIGHT(D71,LEN(D71)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X71" s="75">
-        <f>RIGHT(H71,LEN(H71)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>23.333100000000002</v>
       </c>
       <c r="Y71" s="75">
-        <f>ABS(X71-W71)</f>
+        <f t="shared" si="27"/>
         <v>23.288400000000003</v>
       </c>
       <c r="Z71" s="76" t="e">
@@ -8703,7 +8229,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="61" t="s">
         <v>293</v>
       </c>
@@ -8735,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="61" t="str">
-        <f>IF(ISEVEN(B72),(B72-1)&amp;"/"&amp;B72,B72&amp;"/"&amp;(B72+1))</f>
+        <f t="shared" si="21"/>
         <v>4019/4020</v>
       </c>
       <c r="L72" s="61" t="str">
@@ -8743,11 +8269,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M72" s="12">
-        <f>I72-F72</f>
+        <f t="shared" si="22"/>
         <v>2.9074074074742384E-2</v>
       </c>
       <c r="N72" s="13">
-        <f>$M72*24*60</f>
+        <f t="shared" si="20"/>
         <v>41.866666667629033</v>
       </c>
       <c r="O72" s="13"/>
@@ -8755,27 +8281,27 @@
       <c r="Q72" s="62"/>
       <c r="R72" s="62"/>
       <c r="T72" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E72-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I72+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B72&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 12:49:12-0600',mode:absolute,to:'2016-05-10 13:34:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U72" s="75" t="str">
-        <f>IF(Y72&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V72" s="75">
-        <f>VALUE(LEFT(A72,3))-VALUE(LEFT(A71,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W72" s="75">
-        <f>RIGHT(D72,LEN(D72)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.302099999999999</v>
       </c>
       <c r="X72" s="75">
-        <f>RIGHT(H72,LEN(H72)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>1.6E-2</v>
       </c>
       <c r="Y72" s="75">
-        <f>ABS(X72-W72)</f>
+        <f t="shared" si="27"/>
         <v>23.286100000000001</v>
       </c>
       <c r="Z72" s="76" t="e">
@@ -8819,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="61" t="str">
-        <f>IF(ISEVEN(B73),(B73-1)&amp;"/"&amp;B73,B73&amp;"/"&amp;(B73+1))</f>
+        <f t="shared" si="21"/>
         <v>4011/4012</v>
       </c>
       <c r="L73" s="61" t="str">
@@ -8827,7 +8353,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M73" s="12">
-        <f>I73-F73</f>
+        <f t="shared" si="22"/>
         <v>2.2314814814308193E-2</v>
       </c>
       <c r="N73" s="13"/>
@@ -8836,32 +8362,34 @@
         <f>$M73*24*60</f>
         <v>32.133333332603797</v>
       </c>
-      <c r="Q73" s="62"/>
+      <c r="Q73" s="62" t="s">
+        <v>420</v>
+      </c>
       <c r="R73" s="62" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="T73" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E73-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I73+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B73&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 12:19:42-0600',mode:absolute,to:'2016-05-10 12:55:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U73" s="75" t="str">
-        <f>IF(Y73&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>Y</v>
       </c>
       <c r="V73" s="75">
-        <f>VALUE(LEFT(A73,3))-VALUE(LEFT(A72,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W73" s="75">
-        <f>RIGHT(D73,LEN(D73)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>1.9134</v>
       </c>
       <c r="X73" s="75">
-        <f>RIGHT(H73,LEN(H73)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y73" s="75">
-        <f>ABS(X73-W73)</f>
+        <f t="shared" si="27"/>
         <v>21.4163</v>
       </c>
       <c r="Z73" s="76" t="e">
@@ -8873,7 +8401,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
         <v>296</v>
       </c>
@@ -8905,7 +8433,7 @@
         <v>2</v>
       </c>
       <c r="K74" s="61" t="str">
-        <f>IF(ISEVEN(B74),(B74-1)&amp;"/"&amp;B74,B74&amp;"/"&amp;(B74+1))</f>
+        <f t="shared" si="21"/>
         <v>4011/4012</v>
       </c>
       <c r="L74" s="61" t="str">
@@ -8913,11 +8441,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M74" s="12">
-        <f>I74-F74</f>
+        <f t="shared" si="22"/>
         <v>3.457175925723277E-2</v>
       </c>
       <c r="N74" s="13">
-        <f>$M74*24*60</f>
+        <f t="shared" ref="N74:N86" si="28">$M74*24*60</f>
         <v>49.783333330415189</v>
       </c>
       <c r="O74" s="13"/>
@@ -8925,27 +8453,27 @@
       <c r="Q74" s="62"/>
       <c r="R74" s="62"/>
       <c r="T74" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E74-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I74+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B74&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 12:57:36-0600',mode:absolute,to:'2016-05-10 13:52:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U74" s="75" t="str">
-        <f>IF(Y74&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V74" s="75">
-        <f>VALUE(LEFT(A74,3))-VALUE(LEFT(A73,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W74" s="75">
-        <f>RIGHT(D74,LEN(D74)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.298200000000001</v>
       </c>
       <c r="X74" s="75">
-        <f>RIGHT(H74,LEN(H74)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>0.04</v>
       </c>
       <c r="Y74" s="75">
-        <f>ABS(X74-W74)</f>
+        <f t="shared" si="27"/>
         <v>23.258200000000002</v>
       </c>
       <c r="Z74" s="76">
@@ -8957,7 +8485,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="75" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
         <v>298</v>
       </c>
@@ -8989,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="61" t="str">
-        <f>IF(ISEVEN(B75),(B75-1)&amp;"/"&amp;B75,B75&amp;"/"&amp;(B75+1))</f>
+        <f t="shared" si="21"/>
         <v>4023/4024</v>
       </c>
       <c r="L75" s="61" t="str">
@@ -8997,11 +8525,11 @@
         <v>STORY</v>
       </c>
       <c r="M75" s="12">
-        <f>I75-F75</f>
+        <f t="shared" si="22"/>
         <v>3.0497685183945578E-2</v>
       </c>
       <c r="N75" s="13">
-        <f>$M75*24*60</f>
+        <f t="shared" si="28"/>
         <v>43.916666664881632</v>
       </c>
       <c r="O75" s="13"/>
@@ -9009,27 +8537,27 @@
       <c r="Q75" s="62"/>
       <c r="R75" s="62"/>
       <c r="T75" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E75-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I75+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B75&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 12:19:26-0600',mode:absolute,to:'2016-05-10 13:06:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U75" s="75" t="str">
-        <f>IF(Y75&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V75" s="75">
-        <f>VALUE(LEFT(A75,3))-VALUE(LEFT(A74,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W75" s="75">
-        <f>RIGHT(D75,LEN(D75)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X75" s="75">
-        <f>RIGHT(H75,LEN(H75)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y75" s="75">
-        <f>ABS(X75-W75)</f>
+        <f t="shared" si="27"/>
         <v>23.285399999999999</v>
       </c>
       <c r="Z75" s="76" t="e">
@@ -9041,7 +8569,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
         <v>299</v>
       </c>
@@ -9073,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="61" t="str">
-        <f>IF(ISEVEN(B76),(B76-1)&amp;"/"&amp;B76,B76&amp;"/"&amp;(B76+1))</f>
+        <f t="shared" si="21"/>
         <v>4023/4024</v>
       </c>
       <c r="L76" s="61" t="str">
@@ -9081,11 +8609,11 @@
         <v>STORY</v>
       </c>
       <c r="M76" s="12">
-        <f>I76-F76</f>
+        <f t="shared" si="22"/>
         <v>3.4583333334012423E-2</v>
       </c>
       <c r="N76" s="13">
-        <f>$M76*24*60</f>
+        <f t="shared" si="28"/>
         <v>49.800000000977889</v>
       </c>
       <c r="O76" s="13"/>
@@ -9093,27 +8621,27 @@
       <c r="Q76" s="62"/>
       <c r="R76" s="62"/>
       <c r="T76" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E76-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I76+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B76&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 13:10:11-0600',mode:absolute,to:'2016-05-10 14:03:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U76" s="75" t="str">
-        <f>IF(Y76&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V76" s="75">
-        <f>VALUE(LEFT(A76,3))-VALUE(LEFT(A75,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W76" s="75">
-        <f>RIGHT(D76,LEN(D76)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X76" s="75">
-        <f>RIGHT(H76,LEN(H76)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y76" s="75">
-        <f>ABS(X76-W76)</f>
+        <f t="shared" si="27"/>
         <v>23.284600000000001</v>
       </c>
       <c r="Z76" s="76" t="e">
@@ -9125,7 +8653,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>300</v>
       </c>
@@ -9157,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="61" t="str">
-        <f>IF(ISEVEN(B77),(B77-1)&amp;"/"&amp;B77,B77&amp;"/"&amp;(B77+1))</f>
+        <f t="shared" si="21"/>
         <v>4007/4008</v>
       </c>
       <c r="L77" s="61" t="str">
@@ -9165,11 +8693,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M77" s="12">
-        <f>I77-F77</f>
+        <f t="shared" si="22"/>
         <v>2.8275462966121268E-2</v>
       </c>
       <c r="N77" s="13">
-        <f>$M77*24*60</f>
+        <f t="shared" si="28"/>
         <v>40.716666671214625</v>
       </c>
       <c r="O77" s="13"/>
@@ -9177,27 +8705,27 @@
       <c r="Q77" s="62"/>
       <c r="R77" s="62"/>
       <c r="T77" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E77-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I77+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B77&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 12:37:46-0600',mode:absolute,to:'2016-05-10 13:22:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U77" s="75" t="str">
-        <f>IF(Y77&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V77" s="75">
-        <f>VALUE(LEFT(A77,3))-VALUE(LEFT(A76,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W77" s="75">
-        <f>RIGHT(D77,LEN(D77)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X77" s="75">
-        <f>RIGHT(H77,LEN(H77)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>23.328900000000001</v>
       </c>
       <c r="Y77" s="75">
-        <f>ABS(X77-W77)</f>
+        <f t="shared" si="27"/>
         <v>23.282299999999999</v>
       </c>
       <c r="Z77" s="76" t="e">
@@ -9209,7 +8737,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>301</v>
       </c>
@@ -9241,7 +8769,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="61" t="str">
-        <f>IF(ISEVEN(B78),(B78-1)&amp;"/"&amp;B78,B78&amp;"/"&amp;(B78+1))</f>
+        <f t="shared" si="21"/>
         <v>4007/4008</v>
       </c>
       <c r="L78" s="61" t="str">
@@ -9249,11 +8777,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M78" s="12">
-        <f>I78-F78</f>
+        <f t="shared" si="22"/>
         <v>3.2824074070958886E-2</v>
       </c>
       <c r="N78" s="13">
-        <f>$M78*24*60</f>
+        <f t="shared" si="28"/>
         <v>47.266666662180796</v>
       </c>
       <c r="O78" s="13"/>
@@ -9261,27 +8789,27 @@
       <c r="Q78" s="62"/>
       <c r="R78" s="62"/>
       <c r="T78" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E78-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I78+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B78&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 13:28:31-0600',mode:absolute,to:'2016-05-10 14:19:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U78" s="75" t="str">
-        <f>IF(Y78&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V78" s="75">
-        <f>VALUE(LEFT(A78,3))-VALUE(LEFT(A77,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W78" s="75">
-        <f>RIGHT(D78,LEN(D78)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.2971</v>
       </c>
       <c r="X78" s="75">
-        <f>RIGHT(H78,LEN(H78)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="Y78" s="75">
-        <f>ABS(X78-W78)</f>
+        <f t="shared" si="27"/>
         <v>23.280200000000001</v>
       </c>
       <c r="Z78" s="76" t="e">
@@ -9293,7 +8821,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
         <v>303</v>
       </c>
@@ -9325,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="61" t="str">
-        <f>IF(ISEVEN(B79),(B79-1)&amp;"/"&amp;B79,B79&amp;"/"&amp;(B79+1))</f>
+        <f t="shared" si="21"/>
         <v>4015/4016</v>
       </c>
       <c r="L79" s="61" t="str">
@@ -9333,11 +8861,11 @@
         <v>ADANE</v>
       </c>
       <c r="M79" s="12">
-        <f>I79-F79</f>
+        <f t="shared" si="22"/>
         <v>2.6388888894871343E-2</v>
       </c>
       <c r="N79" s="13">
-        <f>$M79*24*60</f>
+        <f t="shared" si="28"/>
         <v>38.000000008614734</v>
       </c>
       <c r="O79" s="13"/>
@@ -9345,27 +8873,27 @@
       <c r="Q79" s="62"/>
       <c r="R79" s="62"/>
       <c r="T79" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E79-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I79+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B79&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 12:54:25-0600',mode:absolute,to:'2016-05-10 13:36:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U79" s="75" t="str">
-        <f>IF(Y79&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V79" s="75">
-        <f>VALUE(LEFT(A79,3))-VALUE(LEFT(A78,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W79" s="75">
-        <f>RIGHT(D79,LEN(D79)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X79" s="75">
-        <f>RIGHT(H79,LEN(H79)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>23.3323</v>
       </c>
       <c r="Y79" s="75">
-        <f>ABS(X79-W79)</f>
+        <f t="shared" si="27"/>
         <v>23.2866</v>
       </c>
       <c r="Z79" s="76" t="e">
@@ -9377,7 +8905,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
         <v>304</v>
       </c>
@@ -9409,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="61" t="str">
-        <f>IF(ISEVEN(B80),(B80-1)&amp;"/"&amp;B80,B80&amp;"/"&amp;(B80+1))</f>
+        <f t="shared" si="21"/>
         <v>4015/4016</v>
       </c>
       <c r="L80" s="61" t="str">
@@ -9417,11 +8945,11 @@
         <v>ADANE</v>
       </c>
       <c r="M80" s="12">
-        <f>I80-F80</f>
+        <f t="shared" si="22"/>
         <v>2.662037037225673E-2</v>
       </c>
       <c r="N80" s="13">
-        <f>$M80*24*60</f>
+        <f t="shared" si="28"/>
         <v>38.333333336049691</v>
       </c>
       <c r="O80" s="13"/>
@@ -9429,27 +8957,27 @@
       <c r="Q80" s="62"/>
       <c r="R80" s="62"/>
       <c r="T80" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E80-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I80+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B80&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 13:50:45-0600',mode:absolute,to:'2016-05-10 14:33:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U80" s="75" t="str">
-        <f>IF(Y80&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V80" s="75">
-        <f>VALUE(LEFT(A80,3))-VALUE(LEFT(A79,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W80" s="75">
-        <f>RIGHT(D80,LEN(D80)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.3019</v>
       </c>
       <c r="X80" s="75">
-        <f>RIGHT(H80,LEN(H80)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y80" s="75">
-        <f>ABS(X80-W80)</f>
+        <f t="shared" si="27"/>
         <v>23.287800000000001</v>
       </c>
       <c r="Z80" s="76" t="e">
@@ -9461,7 +8989,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
         <v>305</v>
       </c>
@@ -9493,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="61" t="str">
-        <f>IF(ISEVEN(B81),(B81-1)&amp;"/"&amp;B81,B81&amp;"/"&amp;(B81+1))</f>
+        <f t="shared" si="21"/>
         <v>4043/4044</v>
       </c>
       <c r="L81" s="61" t="str">
@@ -9501,11 +9029,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M81" s="12">
-        <f>I81-F81</f>
+        <f t="shared" si="22"/>
         <v>2.8530092597065959E-2</v>
       </c>
       <c r="N81" s="13">
-        <f>$M81*24*60</f>
+        <f t="shared" si="28"/>
         <v>41.083333339774981</v>
       </c>
       <c r="O81" s="13"/>
@@ -9513,27 +9041,27 @@
       <c r="Q81" s="62"/>
       <c r="R81" s="62"/>
       <c r="T81" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E81-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I81+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B81&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 13:06:18-0600',mode:absolute,to:'2016-05-10 13:51:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U81" s="75" t="str">
-        <f>IF(Y81&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V81" s="75">
-        <f>VALUE(LEFT(A81,3))-VALUE(LEFT(A80,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W81" s="75">
-        <f>RIGHT(D81,LEN(D81)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="X81" s="75">
-        <f>RIGHT(H81,LEN(H81)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>23.330500000000001</v>
       </c>
       <c r="Y81" s="75">
-        <f>ABS(X81-W81)</f>
+        <f t="shared" si="27"/>
         <v>23.287400000000002</v>
       </c>
       <c r="Z81" s="76" t="e">
@@ -9545,7 +9073,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
         <v>306</v>
       </c>
@@ -9577,7 +9105,7 @@
         <v>2</v>
       </c>
       <c r="K82" s="61" t="str">
-        <f>IF(ISEVEN(B82),(B82-1)&amp;"/"&amp;B82,B82&amp;"/"&amp;(B82+1))</f>
+        <f t="shared" si="21"/>
         <v>4043/4044</v>
       </c>
       <c r="L82" s="61" t="str">
@@ -9585,11 +9113,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M82" s="12">
-        <f>I82-F82</f>
+        <f t="shared" si="22"/>
         <v>3.2060185178124812E-2</v>
       </c>
       <c r="N82" s="13">
-        <f>$M82*24*60</f>
+        <f t="shared" si="28"/>
         <v>46.166666656499729</v>
       </c>
       <c r="O82" s="13"/>
@@ -9597,27 +9125,27 @@
       <c r="Q82" s="62"/>
       <c r="R82" s="62"/>
       <c r="T82" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E82-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I82+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B82&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 13:59:40-0600',mode:absolute,to:'2016-05-10 14:48:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U82" s="75" t="str">
-        <f>IF(Y82&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V82" s="75">
-        <f>VALUE(LEFT(A82,3))-VALUE(LEFT(A81,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W82" s="75">
-        <f>RIGHT(D82,LEN(D82)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.298999999999999</v>
       </c>
       <c r="X82" s="75">
-        <f>RIGHT(H82,LEN(H82)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y82" s="75">
-        <f>ABS(X82-W82)</f>
+        <f t="shared" si="27"/>
         <v>23.2836</v>
       </c>
       <c r="Z82" s="76">
@@ -9629,7 +9157,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
         <v>307</v>
       </c>
@@ -9661,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="61" t="str">
-        <f>IF(ISEVEN(B83),(B83-1)&amp;"/"&amp;B83,B83&amp;"/"&amp;(B83+1))</f>
+        <f t="shared" si="21"/>
         <v>4009/4010</v>
       </c>
       <c r="L83" s="61" t="str">
@@ -9669,11 +9197,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M83" s="12">
-        <f>I83-F83</f>
+        <f t="shared" si="22"/>
         <v>2.923611111327773E-2</v>
       </c>
       <c r="N83" s="13">
-        <f>$M83*24*60</f>
+        <f t="shared" si="28"/>
         <v>42.100000003119931</v>
       </c>
       <c r="O83" s="13"/>
@@ -9681,27 +9209,27 @@
       <c r="Q83" s="62"/>
       <c r="R83" s="62"/>
       <c r="T83" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E83-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I83+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B83&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 13:22:11-0600',mode:absolute,to:'2016-05-10 14:07:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U83" s="75" t="str">
-        <f>IF(Y83&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V83" s="75">
-        <f>VALUE(LEFT(A83,3))-VALUE(LEFT(A82,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W83" s="75">
-        <f>RIGHT(D83,LEN(D83)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X83" s="75">
-        <f>RIGHT(H83,LEN(H83)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>23.332100000000001</v>
       </c>
       <c r="Y83" s="75">
-        <f>ABS(X83-W83)</f>
+        <f t="shared" si="27"/>
         <v>23.285700000000002</v>
       </c>
       <c r="Z83" s="76" t="e">
@@ -9713,7 +9241,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
         <v>308</v>
       </c>
@@ -9745,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="61" t="str">
-        <f>IF(ISEVEN(B84),(B84-1)&amp;"/"&amp;B84,B84&amp;"/"&amp;(B84+1))</f>
+        <f t="shared" si="21"/>
         <v>4009/4010</v>
       </c>
       <c r="L84" s="61" t="str">
@@ -9753,11 +9281,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M84" s="12">
-        <f>I84-F84</f>
+        <f t="shared" si="22"/>
         <v>3.030092592962319E-2</v>
       </c>
       <c r="N84" s="13">
-        <f>$M84*24*60</f>
+        <f t="shared" si="28"/>
         <v>43.633333338657394</v>
       </c>
       <c r="O84" s="13"/>
@@ -9765,27 +9293,27 @@
       <c r="Q84" s="62"/>
       <c r="R84" s="62"/>
       <c r="T84" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E84-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I84+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B84&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 14:16:55-0600',mode:absolute,to:'2016-05-10 15:04:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U84" s="75" t="str">
-        <f>IF(Y84&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V84" s="75">
-        <f>VALUE(LEFT(A84,3))-VALUE(LEFT(A83,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W84" s="75">
-        <f>RIGHT(D84,LEN(D84)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.299399999999999</v>
       </c>
       <c r="X84" s="75">
-        <f>RIGHT(H84,LEN(H84)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y84" s="75">
-        <f>ABS(X84-W84)</f>
+        <f t="shared" si="27"/>
         <v>23.284399999999998</v>
       </c>
       <c r="Z84" s="76" t="e">
@@ -9797,7 +9325,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="61" t="s">
         <v>309</v>
       </c>
@@ -9829,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="61" t="str">
-        <f>IF(ISEVEN(B85),(B85-1)&amp;"/"&amp;B85,B85&amp;"/"&amp;(B85+1))</f>
+        <f t="shared" si="21"/>
         <v>4019/4020</v>
       </c>
       <c r="L85" s="61" t="str">
@@ -9837,11 +9365,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M85" s="12">
-        <f>I85-F85</f>
+        <f t="shared" si="22"/>
         <v>2.7986111112113576E-2</v>
       </c>
       <c r="N85" s="13">
-        <f>$M85*24*60</f>
+        <f t="shared" si="28"/>
         <v>40.30000000144355</v>
       </c>
       <c r="O85" s="13"/>
@@ -9849,27 +9377,27 @@
       <c r="Q85" s="62"/>
       <c r="R85" s="62"/>
       <c r="T85" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E85-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I85+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B85&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 13:38:21-0600',mode:absolute,to:'2016-05-10 14:21:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U85" s="75" t="str">
-        <f>IF(Y85&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V85" s="75">
-        <f>VALUE(LEFT(A85,3))-VALUE(LEFT(A84,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W85" s="75">
-        <f>RIGHT(D85,LEN(D85)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="X85" s="75">
-        <f>RIGHT(H85,LEN(H85)-4)/10000</f>
+        <f t="shared" si="26"/>
         <v>23.330500000000001</v>
       </c>
       <c r="Y85" s="75">
-        <f>ABS(X85-W85)</f>
+        <f t="shared" si="27"/>
         <v>23.286100000000001</v>
       </c>
       <c r="Z85" s="76" t="e">
@@ -9881,7 +9409,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="61" t="s">
         <v>310</v>
       </c>
@@ -9913,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="61" t="str">
-        <f>IF(ISEVEN(B86),(B86-1)&amp;"/"&amp;B86,B86&amp;"/"&amp;(B86+1))</f>
+        <f t="shared" si="21"/>
         <v>4019/4020</v>
       </c>
       <c r="L86" s="61" t="str">
@@ -9921,11 +9449,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M86" s="12">
-        <f>I86-F86</f>
+        <f t="shared" si="22"/>
         <v>3.0694444445543922E-2</v>
       </c>
       <c r="N86" s="13">
-        <f>$M86*24*60</f>
+        <f t="shared" si="28"/>
         <v>44.200000001583248</v>
       </c>
       <c r="O86" s="13"/>
@@ -9933,26 +9461,26 @@
       <c r="Q86" s="62"/>
       <c r="R86" s="62"/>
       <c r="T86" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E86-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I86+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B86&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 14:32:01-0600',mode:absolute,to:'2016-05-10 15:20:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U86" s="75" t="str">
-        <f>IF(Y86&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V86" s="75">
-        <f>VALUE(LEFT(A86,3))-VALUE(LEFT(A85,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W86" s="75">
-        <f>RIGHT(D86,LEN(D86)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.299399999999999</v>
       </c>
       <c r="X86" s="75">
         <v>0.19420000000000001</v>
       </c>
       <c r="Y86" s="75">
-        <f>ABS(X86-W86)</f>
+        <f t="shared" si="27"/>
         <v>23.1052</v>
       </c>
       <c r="Z86" s="76" t="e">
@@ -9996,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="61" t="str">
-        <f>IF(ISEVEN(B87),(B87-1)&amp;"/"&amp;B87,B87&amp;"/"&amp;(B87+1))</f>
+        <f t="shared" si="21"/>
         <v>4011/4012</v>
       </c>
       <c r="L87" s="61" t="str">
@@ -10004,7 +9532,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M87" s="12">
-        <f>I87-F87</f>
+        <f t="shared" si="22"/>
         <v>2.5023148147738539E-2</v>
       </c>
       <c r="N87" s="13"/>
@@ -10013,24 +9541,26 @@
         <f>$M87*24*60</f>
         <v>36.033333332743496</v>
       </c>
-      <c r="Q87" s="62"/>
+      <c r="Q87" s="62" t="s">
+        <v>420</v>
+      </c>
       <c r="R87" s="62" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="T87" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E87-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I87+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B87&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 13:54:17-0600',mode:absolute,to:'2016-05-10 14:34:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U87" s="75" t="str">
-        <f>IF(Y87&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>Y</v>
       </c>
       <c r="V87" s="75">
-        <f>VALUE(LEFT(A87,3))-VALUE(LEFT(A86,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W87" s="75">
-        <f>RIGHT(D87,LEN(D87)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="X87" s="75">
@@ -10038,7 +9568,7 @@
         <v>19.9876</v>
       </c>
       <c r="Y87" s="75">
-        <f>ABS(X87-W87)</f>
+        <f t="shared" si="27"/>
         <v>19.932500000000001</v>
       </c>
       <c r="Z87" s="76">
@@ -10050,7 +9580,7 @@
         <v>SIGNAL</v>
       </c>
     </row>
-    <row r="88" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="61" t="s">
         <v>315</v>
       </c>
@@ -10082,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="61" t="str">
-        <f>IF(ISEVEN(B88),(B88-1)&amp;"/"&amp;B88,B88&amp;"/"&amp;(B88+1))</f>
+        <f t="shared" si="21"/>
         <v>4011/4012</v>
       </c>
       <c r="L88" s="61" t="str">
@@ -10090,7 +9620,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M88" s="12">
-        <f>I88-F88</f>
+        <f t="shared" si="22"/>
         <v>3.1053240745677613E-2</v>
       </c>
       <c r="N88" s="13">
@@ -10102,19 +9632,19 @@
       <c r="Q88" s="62"/>
       <c r="R88" s="62"/>
       <c r="T88" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E88-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I88+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B88&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 14:48:01-0600',mode:absolute,to:'2016-05-10 15:36:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U88" s="75" t="str">
-        <f>IF(Y88&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V88" s="75">
-        <f>VALUE(LEFT(A88,3))-VALUE(LEFT(A87,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W88" s="75">
-        <f>RIGHT(D88,LEN(D88)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.300999999999998</v>
       </c>
       <c r="X88" s="75">
@@ -10122,7 +9652,7 @@
         <v>3.9100000000000003E-2</v>
       </c>
       <c r="Y88" s="75">
-        <f>ABS(X88-W88)</f>
+        <f t="shared" si="27"/>
         <v>23.261899999999997</v>
       </c>
       <c r="Z88" s="76" t="e">
@@ -10134,7 +9664,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
         <v>317</v>
       </c>
@@ -10166,7 +9696,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="61" t="str">
-        <f>IF(ISEVEN(B89),(B89-1)&amp;"/"&amp;B89,B89&amp;"/"&amp;(B89+1))</f>
+        <f t="shared" si="21"/>
         <v>4023/4024</v>
       </c>
       <c r="L89" s="61" t="str">
@@ -10174,7 +9704,7 @@
         <v>STORY</v>
       </c>
       <c r="M89" s="12">
-        <f>I89-F89</f>
+        <f t="shared" si="22"/>
         <v>3.2187500000873115E-2</v>
       </c>
       <c r="N89" s="13">
@@ -10186,19 +9716,19 @@
       <c r="Q89" s="62"/>
       <c r="R89" s="62"/>
       <c r="T89" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E89-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I89+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B89&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 14:04:20-0600',mode:absolute,to:'2016-05-10 14:54:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U89" s="75" t="str">
-        <f>IF(Y89&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V89" s="75">
-        <f>VALUE(LEFT(A89,3))-VALUE(LEFT(A88,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W89" s="75">
-        <f>RIGHT(D89,LEN(D89)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X89" s="75">
@@ -10206,7 +9736,7 @@
         <v>23.328399999999998</v>
       </c>
       <c r="Y89" s="75">
-        <f>ABS(X89-W89)</f>
+        <f t="shared" si="27"/>
         <v>23.282399999999999</v>
       </c>
       <c r="Z89" s="76" t="e">
@@ -10218,7 +9748,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
         <v>319</v>
       </c>
@@ -10250,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="61" t="str">
-        <f>IF(ISEVEN(B90),(B90-1)&amp;"/"&amp;B90,B90&amp;"/"&amp;(B90+1))</f>
+        <f t="shared" si="21"/>
         <v>4023/4024</v>
       </c>
       <c r="L90" s="61" t="str">
@@ -10258,7 +9788,7 @@
         <v>STORY</v>
       </c>
       <c r="M90" s="12">
-        <f>I90-F90</f>
+        <f t="shared" si="22"/>
         <v>3.4131944441469386E-2</v>
       </c>
       <c r="N90" s="13">
@@ -10270,19 +9800,19 @@
       <c r="Q90" s="62"/>
       <c r="R90" s="62"/>
       <c r="T90" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E90-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I90+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B90&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="23"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 14:56:52-0600',mode:absolute,to:'2016-05-10 15:49:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U90" s="75" t="str">
-        <f>IF(Y90&lt;23,"Y","N")</f>
+        <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="V90" s="75">
-        <f>VALUE(LEFT(A90,3))-VALUE(LEFT(A89,3))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W90" s="75">
-        <f>RIGHT(D90,LEN(D90)-4)/10000</f>
+        <f t="shared" si="25"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X90" s="75">
@@ -10290,7 +9820,7 @@
         <v>1.47E-2</v>
       </c>
       <c r="Y90" s="75">
-        <f>ABS(X90-W90)</f>
+        <f t="shared" si="27"/>
         <v>23.282999999999998</v>
       </c>
       <c r="Z90" s="76" t="e">
@@ -10302,7 +9832,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
         <v>320</v>
       </c>
@@ -10334,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="61" t="str">
-        <f>IF(ISEVEN(B91),(B91-1)&amp;"/"&amp;B91,B91&amp;"/"&amp;(B91+1))</f>
+        <f t="shared" si="21"/>
         <v>4007/4008</v>
       </c>
       <c r="L91" s="61" t="str">
@@ -10342,11 +9872,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M91" s="12">
-        <f t="shared" ref="M91:M92" si="2">I91-F91</f>
+        <f t="shared" ref="M91:M92" si="29">I91-F91</f>
         <v>2.8437500004656613E-2</v>
       </c>
       <c r="N91" s="13">
-        <f t="shared" ref="N91:N92" si="3">$M91*24*60</f>
+        <f t="shared" ref="N91" si="30">$M91*24*60</f>
         <v>40.950000006705523</v>
       </c>
       <c r="O91" s="13"/>
@@ -10354,27 +9884,27 @@
       <c r="Q91" s="62"/>
       <c r="R91" s="62"/>
       <c r="T91" s="75" t="str">
-        <f t="shared" ref="T91:T94" si="4">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E91-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I91+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B91&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T91:T94" si="31">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E91-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I91+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B91&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 14:22:37-0600',mode:absolute,to:'2016-05-10 15:07:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U91" s="75" t="str">
-        <f t="shared" ref="U91:U94" si="5">IF(Y91&lt;23,"Y","N")</f>
+        <f t="shared" ref="U91:U94" si="32">IF(Y91&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V91" s="75">
-        <f t="shared" ref="V91:V94" si="6">VALUE(LEFT(A91,3))-VALUE(LEFT(A90,3))</f>
+        <f t="shared" ref="V91:V94" si="33">VALUE(LEFT(A91,3))-VALUE(LEFT(A90,3))</f>
         <v>1</v>
       </c>
       <c r="W91" s="75">
-        <f t="shared" ref="W91:W94" si="7">RIGHT(D91,LEN(D91)-4)/10000</f>
+        <f t="shared" ref="W91:W94" si="34">RIGHT(D91,LEN(D91)-4)/10000</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="X91" s="75">
-        <f t="shared" ref="X91:X94" si="8">RIGHT(H91,LEN(H91)-4)/10000</f>
+        <f t="shared" ref="X91:X94" si="35">RIGHT(H91,LEN(H91)-4)/10000</f>
         <v>23.3293</v>
       </c>
       <c r="Y91" s="75">
-        <f t="shared" ref="Y91:Y94" si="9">ABS(X91-W91)</f>
+        <f t="shared" ref="Y91:Y94" si="36">ABS(X91-W91)</f>
         <v>23.281300000000002</v>
       </c>
       <c r="Z91" s="76" t="e">
@@ -10418,7 +9948,7 @@
         <v>2</v>
       </c>
       <c r="K92" s="61" t="str">
-        <f>IF(ISEVEN(B92),(B92-1)&amp;"/"&amp;B92,B92&amp;"/"&amp;(B92+1))</f>
+        <f t="shared" si="21"/>
         <v>4007/4008</v>
       </c>
       <c r="L92" s="61" t="str">
@@ -10426,7 +9956,7 @@
         <v>JACKSON</v>
       </c>
       <c r="M92" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="29"/>
         <v>1.5868055561440997E-2</v>
       </c>
       <c r="N92" s="13"/>
@@ -10434,32 +9964,34 @@
       <c r="P92" s="13">
         <v>23</v>
       </c>
-      <c r="Q92" s="62"/>
+      <c r="Q92" s="62" t="s">
+        <v>420</v>
+      </c>
       <c r="R92" s="62" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="T92" s="75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 15:13:50-0600',mode:absolute,to:'2016-05-10 15:41:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U92" s="75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="32"/>
         <v>Y</v>
       </c>
       <c r="V92" s="75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W92" s="75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>23.298500000000001</v>
       </c>
       <c r="X92" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="35"/>
         <v>12.7964</v>
       </c>
       <c r="Y92" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>10.5021</v>
       </c>
       <c r="Z92" s="76">
@@ -10471,7 +10003,7 @@
         <v>EQUIPMENT RESTRICTION</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
         <v>323</v>
       </c>
@@ -10503,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="61" t="str">
-        <f>IF(ISEVEN(B93),(B93-1)&amp;"/"&amp;B93,B93&amp;"/"&amp;(B93+1))</f>
+        <f t="shared" si="21"/>
         <v>4015/4016</v>
       </c>
       <c r="L93" s="61" t="str">
@@ -10511,11 +10043,11 @@
         <v>ADANE</v>
       </c>
       <c r="M93" s="12">
-        <f>I93-F93</f>
+        <f t="shared" ref="M93:M124" si="37">I93-F93</f>
         <v>2.7465277780720498E-2</v>
       </c>
       <c r="N93" s="13">
-        <f>$M93*24*60</f>
+        <f t="shared" ref="N93:N131" si="38">$M93*24*60</f>
         <v>39.550000004237518</v>
       </c>
       <c r="O93" s="13"/>
@@ -10523,27 +10055,27 @@
       <c r="Q93" s="62"/>
       <c r="R93" s="62"/>
       <c r="T93" s="75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 14:40:03-0600',mode:absolute,to:'2016-05-10 15:23:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U93" s="75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V93" s="75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W93" s="75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X93" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="35"/>
         <v>23.333400000000001</v>
       </c>
       <c r="Y93" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>23.289400000000001</v>
       </c>
       <c r="Z93" s="76" t="e">
@@ -10555,7 +10087,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
         <v>324</v>
       </c>
@@ -10587,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="61" t="str">
-        <f>IF(ISEVEN(B94),(B94-1)&amp;"/"&amp;B94,B94&amp;"/"&amp;(B94+1))</f>
+        <f t="shared" si="21"/>
         <v>4015/4016</v>
       </c>
       <c r="L94" s="61" t="str">
@@ -10595,11 +10127,11 @@
         <v>ADANE</v>
       </c>
       <c r="M94" s="12">
-        <f>I94-F94</f>
+        <f t="shared" si="37"/>
         <v>2.9131944444088731E-2</v>
       </c>
       <c r="N94" s="13">
-        <f>$M94*24*60</f>
+        <f t="shared" si="38"/>
         <v>41.949999999487773</v>
       </c>
       <c r="O94" s="13"/>
@@ -10607,27 +10139,27 @@
       <c r="Q94" s="62"/>
       <c r="R94" s="62"/>
       <c r="T94" s="75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="31"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 15:34:19-0600',mode:absolute,to:'2016-05-10 16:19:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U94" s="75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="32"/>
         <v>N</v>
       </c>
       <c r="V94" s="75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W94" s="75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="34"/>
         <v>23.3001</v>
       </c>
       <c r="X94" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="35"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y94" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="36"/>
         <v>23.284500000000001</v>
       </c>
       <c r="Z94" s="76" t="e">
@@ -10639,7 +10171,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
         <v>326</v>
       </c>
@@ -10671,7 +10203,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="61" t="str">
-        <f>IF(ISEVEN(B95),(B95-1)&amp;"/"&amp;B95,B95&amp;"/"&amp;(B95+1))</f>
+        <f t="shared" si="21"/>
         <v>4043/4044</v>
       </c>
       <c r="L95" s="61" t="str">
@@ -10679,11 +10211,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M95" s="12">
-        <f>I95-F95</f>
+        <f t="shared" si="37"/>
         <v>2.9328703698411118E-2</v>
       </c>
       <c r="N95" s="13">
-        <f>$M95*24*60</f>
+        <f t="shared" si="38"/>
         <v>42.23333332571201</v>
       </c>
       <c r="O95" s="13"/>
@@ -10691,27 +10223,27 @@
       <c r="Q95" s="62"/>
       <c r="R95" s="62"/>
       <c r="T95" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E95-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I95+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B95&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T95:T126" si="39">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E95-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I95+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B95&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 14:49:37-0600',mode:absolute,to:'2016-05-10 15:36:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U95" s="75" t="str">
-        <f>IF(Y95&lt;23,"Y","N")</f>
+        <f t="shared" ref="U95:U126" si="40">IF(Y95&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V95" s="75">
-        <f>VALUE(LEFT(A95,3))-VALUE(LEFT(A94,3))</f>
+        <f t="shared" ref="V95:V126" si="41">VALUE(LEFT(A95,3))-VALUE(LEFT(A94,3))</f>
         <v>1</v>
       </c>
       <c r="W95" s="75">
-        <f>RIGHT(D95,LEN(D95)-4)/10000</f>
+        <f t="shared" ref="W95:W126" si="42">RIGHT(D95,LEN(D95)-4)/10000</f>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="X95" s="75">
-        <f>RIGHT(H95,LEN(H95)-4)/10000</f>
+        <f t="shared" ref="X95:X126" si="43">RIGHT(H95,LEN(H95)-4)/10000</f>
         <v>23.3325</v>
       </c>
       <c r="Y95" s="75">
-        <f>ABS(X95-W95)</f>
+        <f t="shared" ref="Y95:Y126" si="44">ABS(X95-W95)</f>
         <v>23.285799999999998</v>
       </c>
       <c r="Z95" s="76" t="e">
@@ -10723,7 +10255,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
         <v>329</v>
       </c>
@@ -10755,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="K96" s="61" t="str">
-        <f>IF(ISEVEN(B96),(B96-1)&amp;"/"&amp;B96,B96&amp;"/"&amp;(B96+1))</f>
+        <f t="shared" si="21"/>
         <v>4043/4044</v>
       </c>
       <c r="L96" s="61" t="str">
@@ -10763,11 +10295,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M96" s="12">
-        <f>I96-F96</f>
+        <f t="shared" si="37"/>
         <v>3.2500000001164153E-2</v>
       </c>
       <c r="N96" s="13">
-        <f>$M96*24*60</f>
+        <f t="shared" si="38"/>
         <v>46.800000001676381</v>
       </c>
       <c r="O96" s="13"/>
@@ -10775,27 +10307,27 @@
       <c r="Q96" s="62"/>
       <c r="R96" s="62"/>
       <c r="T96" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E96-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I96+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B96&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 15:45:42-0600',mode:absolute,to:'2016-05-10 16:35:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U96" s="75" t="str">
-        <f>IF(Y96&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V96" s="75">
-        <f>VALUE(LEFT(A96,3))-VALUE(LEFT(A95,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W96" s="75">
-        <f>RIGHT(D96,LEN(D96)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X96" s="75">
-        <f>RIGHT(H96,LEN(H96)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.49E-2</v>
       </c>
       <c r="Y96" s="75">
-        <f>ABS(X96-W96)</f>
+        <f t="shared" si="44"/>
         <v>23.284399999999998</v>
       </c>
       <c r="Z96" s="76">
@@ -10807,7 +10339,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
         <v>330</v>
       </c>
@@ -10839,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="61" t="str">
-        <f>IF(ISEVEN(B97),(B97-1)&amp;"/"&amp;B97,B97&amp;"/"&amp;(B97+1))</f>
+        <f t="shared" si="21"/>
         <v>4009/4010</v>
       </c>
       <c r="L97" s="61" t="str">
@@ -10847,11 +10379,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M97" s="12">
-        <f>I97-F97</f>
+        <f t="shared" si="37"/>
         <v>3.1030092592118308E-2</v>
       </c>
       <c r="N97" s="13">
-        <f>$M97*24*60</f>
+        <f t="shared" si="38"/>
         <v>44.683333332650363</v>
       </c>
       <c r="O97" s="13"/>
@@ -10859,27 +10391,27 @@
       <c r="Q97" s="62"/>
       <c r="R97" s="62"/>
       <c r="T97" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E97-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I97+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B97&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 15:04:40-0600',mode:absolute,to:'2016-05-10 15:53:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U97" s="75" t="str">
-        <f>IF(Y97&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V97" s="75">
-        <f>VALUE(LEFT(A97,3))-VALUE(LEFT(A96,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W97" s="75">
-        <f>RIGHT(D97,LEN(D97)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X97" s="75">
-        <f>RIGHT(H97,LEN(H97)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.328399999999998</v>
       </c>
       <c r="Y97" s="75">
-        <f>ABS(X97-W97)</f>
+        <f t="shared" si="44"/>
         <v>23.2835</v>
       </c>
       <c r="Z97" s="76" t="e">
@@ -10891,7 +10423,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
         <v>331</v>
       </c>
@@ -10923,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="61" t="str">
-        <f>IF(ISEVEN(B98),(B98-1)&amp;"/"&amp;B98,B98&amp;"/"&amp;(B98+1))</f>
+        <f t="shared" si="21"/>
         <v>4009/4010</v>
       </c>
       <c r="L98" s="61" t="str">
@@ -10931,11 +10463,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M98" s="12">
-        <f>I98-F98</f>
+        <f t="shared" si="37"/>
         <v>3.1909722216369119E-2</v>
       </c>
       <c r="N98" s="13">
-        <f>$M98*24*60</f>
+        <f t="shared" si="38"/>
         <v>45.949999991571531</v>
       </c>
       <c r="O98" s="13"/>
@@ -10943,27 +10475,27 @@
       <c r="Q98" s="62"/>
       <c r="R98" s="62"/>
       <c r="T98" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E98-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I98+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B98&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 16:02:04-0600',mode:absolute,to:'2016-05-10 16:51:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U98" s="75" t="str">
-        <f>IF(Y98&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V98" s="75">
-        <f>VALUE(LEFT(A98,3))-VALUE(LEFT(A97,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W98" s="75">
-        <f>RIGHT(D98,LEN(D98)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.2959</v>
       </c>
       <c r="X98" s="75">
-        <f>RIGHT(H98,LEN(H98)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y98" s="75">
-        <f>ABS(X98-W98)</f>
+        <f t="shared" si="44"/>
         <v>23.280100000000001</v>
       </c>
       <c r="Z98" s="76" t="e">
@@ -10975,7 +10507,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
         <v>332</v>
       </c>
@@ -11007,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="61" t="str">
-        <f>IF(ISEVEN(B99),(B99-1)&amp;"/"&amp;B99,B99&amp;"/"&amp;(B99+1))</f>
+        <f t="shared" ref="K99:K130" si="45">IF(ISEVEN(B99),(B99-1)&amp;"/"&amp;B99,B99&amp;"/"&amp;(B99+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L99" s="61" t="str">
@@ -11015,11 +10547,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M99" s="12">
-        <f>I99-F99</f>
+        <f t="shared" si="37"/>
         <v>2.884259259008104E-2</v>
       </c>
       <c r="N99" s="13">
-        <f>$M99*24*60</f>
+        <f t="shared" si="38"/>
         <v>41.533333329716697</v>
       </c>
       <c r="O99" s="13"/>
@@ -11027,27 +10559,27 @@
       <c r="Q99" s="62"/>
       <c r="R99" s="62"/>
       <c r="T99" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E99-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I99+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B99&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 15:24:50-0600',mode:absolute,to:'2016-05-10 16:10:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U99" s="75" t="str">
-        <f>IF(Y99&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V99" s="75">
-        <f>VALUE(LEFT(A99,3))-VALUE(LEFT(A98,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W99" s="75">
-        <f>RIGHT(D99,LEN(D99)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="X99" s="75">
-        <f>RIGHT(H99,LEN(H99)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.331</v>
       </c>
       <c r="Y99" s="75">
-        <f>ABS(X99-W99)</f>
+        <f t="shared" si="44"/>
         <v>23.286799999999999</v>
       </c>
       <c r="Z99" s="76" t="e">
@@ -11059,7 +10591,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
         <v>334</v>
       </c>
@@ -11091,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="61" t="str">
-        <f>IF(ISEVEN(B100),(B100-1)&amp;"/"&amp;B100,B100&amp;"/"&amp;(B100+1))</f>
+        <f t="shared" si="45"/>
         <v>4019/4020</v>
       </c>
       <c r="L100" s="61" t="str">
@@ -11099,11 +10631,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M100" s="12">
-        <f>I100-F100</f>
+        <f t="shared" si="37"/>
         <v>2.8159722227428574E-2</v>
       </c>
       <c r="N100" s="13">
-        <f>$M100*24*60</f>
+        <f t="shared" si="38"/>
         <v>40.550000007497147</v>
       </c>
       <c r="O100" s="13"/>
@@ -11111,27 +10643,27 @@
       <c r="Q100" s="62"/>
       <c r="R100" s="62"/>
       <c r="T100" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E100-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I100+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B100&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 16:19:30-0600',mode:absolute,to:'2016-05-10 17:05:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U100" s="75" t="str">
-        <f>IF(Y100&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V100" s="75">
-        <f>VALUE(LEFT(A100,3))-VALUE(LEFT(A99,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W100" s="75">
-        <f>RIGHT(D100,LEN(D100)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X100" s="75">
-        <f>RIGHT(H100,LEN(H100)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y100" s="75">
-        <f>ABS(X100-W100)</f>
+        <f t="shared" si="44"/>
         <v>23.284799999999997</v>
       </c>
       <c r="Z100" s="76" t="e">
@@ -11143,7 +10675,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="61" t="s">
         <v>335</v>
       </c>
@@ -11175,7 +10707,7 @@
         <v>1</v>
       </c>
       <c r="K101" s="61" t="str">
-        <f>IF(ISEVEN(B101),(B101-1)&amp;"/"&amp;B101,B101&amp;"/"&amp;(B101+1))</f>
+        <f t="shared" si="45"/>
         <v>4011/4012</v>
       </c>
       <c r="L101" s="61" t="str">
@@ -11183,11 +10715,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M101" s="12">
-        <f>I101-F101</f>
+        <f t="shared" si="37"/>
         <v>3.0486111114441883E-2</v>
       </c>
       <c r="N101" s="13">
-        <f>$M101*24*60</f>
+        <f t="shared" si="38"/>
         <v>43.900000004796311</v>
       </c>
       <c r="O101" s="13"/>
@@ -11195,27 +10727,27 @@
       <c r="Q101" s="62"/>
       <c r="R101" s="62"/>
       <c r="T101" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E101-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I101+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B101&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 15:40:40-0600',mode:absolute,to:'2016-05-10 16:28:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U101" s="75" t="str">
-        <f>IF(Y101&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V101" s="75">
-        <f>VALUE(LEFT(A101,3))-VALUE(LEFT(A100,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W101" s="75">
-        <f>RIGHT(D101,LEN(D101)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="X101" s="75">
-        <f>RIGHT(H101,LEN(H101)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.323799999999999</v>
       </c>
       <c r="Y101" s="75">
-        <f>ABS(X101-W101)</f>
+        <f t="shared" si="44"/>
         <v>23.270099999999999</v>
       </c>
       <c r="Z101" s="76">
@@ -11227,7 +10759,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="102" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="61" t="s">
         <v>338</v>
       </c>
@@ -11259,7 +10791,7 @@
         <v>2</v>
       </c>
       <c r="K102" s="61" t="str">
-        <f>IF(ISEVEN(B102),(B102-1)&amp;"/"&amp;B102,B102&amp;"/"&amp;(B102+1))</f>
+        <f t="shared" si="45"/>
         <v>4011/4012</v>
       </c>
       <c r="L102" s="61" t="str">
@@ -11267,11 +10799,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M102" s="12">
-        <f>I102-F102</f>
+        <f t="shared" si="37"/>
         <v>3.4120370371965691E-2</v>
       </c>
       <c r="N102" s="13">
-        <f>$M102*24*60</f>
+        <f t="shared" si="38"/>
         <v>49.133333335630596</v>
       </c>
       <c r="O102" s="13"/>
@@ -11279,27 +10811,27 @@
       <c r="Q102" s="62"/>
       <c r="R102" s="62"/>
       <c r="T102" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E102-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I102+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B102&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 16:33:26-0600',mode:absolute,to:'2016-05-10 17:26:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U102" s="75" t="str">
-        <f>IF(Y102&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V102" s="75">
-        <f>VALUE(LEFT(A102,3))-VALUE(LEFT(A101,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W102" s="75">
-        <f>RIGHT(D102,LEN(D102)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.296700000000001</v>
       </c>
       <c r="X102" s="75">
-        <f>RIGHT(H102,LEN(H102)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="Y102" s="75">
-        <f>ABS(X102-W102)</f>
+        <f t="shared" si="44"/>
         <v>23.255200000000002</v>
       </c>
       <c r="Z102" s="76">
@@ -11311,7 +10843,7 @@
         <v>SWITCH UNKNOWN</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
         <v>341</v>
       </c>
@@ -11343,7 +10875,7 @@
         <v>1</v>
       </c>
       <c r="K103" s="61" t="str">
-        <f>IF(ISEVEN(B103),(B103-1)&amp;"/"&amp;B103,B103&amp;"/"&amp;(B103+1))</f>
+        <f t="shared" si="45"/>
         <v>4023/4024</v>
       </c>
       <c r="L103" s="61" t="str">
@@ -11351,11 +10883,11 @@
         <v>STORY</v>
       </c>
       <c r="M103" s="12">
-        <f>I103-F103</f>
+        <f t="shared" si="37"/>
         <v>3.0023148152395152E-2</v>
       </c>
       <c r="N103" s="13">
-        <f>$M103*24*60</f>
+        <f t="shared" si="38"/>
         <v>43.233333339449018</v>
       </c>
       <c r="O103" s="13"/>
@@ -11363,27 +10895,27 @@
       <c r="Q103" s="62"/>
       <c r="R103" s="62"/>
       <c r="T103" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E103-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I103+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B103&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 15:50:21-0600',mode:absolute,to:'2016-05-10 16:37:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U103" s="75" t="str">
-        <f>IF(Y103&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V103" s="75">
-        <f>VALUE(LEFT(A103,3))-VALUE(LEFT(A102,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W103" s="75">
-        <f>RIGHT(D103,LEN(D103)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X103" s="75">
-        <f>RIGHT(H103,LEN(H103)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.3217</v>
       </c>
       <c r="Y103" s="75">
-        <f>ABS(X103-W103)</f>
+        <f t="shared" si="44"/>
         <v>23.276</v>
       </c>
       <c r="Z103" s="76" t="e">
@@ -11395,7 +10927,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
         <v>343</v>
       </c>
@@ -11427,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="61" t="str">
-        <f>IF(ISEVEN(B104),(B104-1)&amp;"/"&amp;B104,B104&amp;"/"&amp;(B104+1))</f>
+        <f t="shared" si="45"/>
         <v>4023/4024</v>
       </c>
       <c r="L104" s="61" t="str">
@@ -11435,11 +10967,11 @@
         <v>STORY</v>
       </c>
       <c r="M104" s="12">
-        <f>I104-F104</f>
+        <f t="shared" si="37"/>
         <v>3.6539351851388346E-2</v>
       </c>
       <c r="N104" s="13">
-        <f>$M104*24*60</f>
+        <f t="shared" si="38"/>
         <v>52.616666665999219</v>
       </c>
       <c r="O104" s="13"/>
@@ -11447,27 +10979,27 @@
       <c r="Q104" s="62"/>
       <c r="R104" s="62"/>
       <c r="T104" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E104-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I104+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B104&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 16:39:15-0600',mode:absolute,to:'2016-05-10 17:35:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U104" s="75" t="str">
-        <f>IF(Y104&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V104" s="75">
-        <f>VALUE(LEFT(A104,3))-VALUE(LEFT(A103,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W104" s="75">
-        <f>RIGHT(D104,LEN(D104)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.290199999999999</v>
       </c>
       <c r="X104" s="75">
-        <f>RIGHT(H104,LEN(H104)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="Y104" s="75">
-        <f>ABS(X104-W104)</f>
+        <f t="shared" si="44"/>
         <v>23.276599999999998</v>
       </c>
       <c r="Z104" s="76" t="e">
@@ -11479,7 +11011,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
         <v>345</v>
       </c>
@@ -11511,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="61" t="str">
-        <f>IF(ISEVEN(B105),(B105-1)&amp;"/"&amp;B105,B105&amp;"/"&amp;(B105+1))</f>
+        <f t="shared" si="45"/>
         <v>4015/4016</v>
       </c>
       <c r="L105" s="61" t="str">
@@ -11519,11 +11051,11 @@
         <v>ADANE</v>
       </c>
       <c r="M105" s="12">
-        <f>I105-F105</f>
+        <f t="shared" si="37"/>
         <v>2.8865740743640345E-2</v>
       </c>
       <c r="N105" s="13">
-        <f>$M105*24*60</f>
+        <f t="shared" si="38"/>
         <v>41.566666670842096</v>
       </c>
       <c r="O105" s="13"/>
@@ -11531,27 +11063,27 @@
       <c r="Q105" s="62"/>
       <c r="R105" s="62"/>
       <c r="T105" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E105-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I105+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B105&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 16:22:16-0600',mode:absolute,to:'2016-05-10 17:07:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U105" s="75" t="str">
-        <f>IF(Y105&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V105" s="75">
-        <f>VALUE(LEFT(A105,3))-VALUE(LEFT(A104,3))</f>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="W105" s="75">
-        <f>RIGHT(D105,LEN(D105)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X105" s="75">
-        <f>RIGHT(H105,LEN(H105)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.334199999999999</v>
       </c>
       <c r="Y105" s="75">
-        <f>ABS(X105-W105)</f>
+        <f t="shared" si="44"/>
         <v>23.288699999999999</v>
       </c>
       <c r="Z105" s="76" t="e">
@@ -11563,7 +11095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
         <v>346</v>
       </c>
@@ -11595,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="61" t="str">
-        <f>IF(ISEVEN(B106),(B106-1)&amp;"/"&amp;B106,B106&amp;"/"&amp;(B106+1))</f>
+        <f t="shared" si="45"/>
         <v>4015/4016</v>
       </c>
       <c r="L106" s="61" t="str">
@@ -11603,11 +11135,11 @@
         <v>ADANE</v>
       </c>
       <c r="M106" s="12">
-        <f>I106-F106</f>
+        <f t="shared" si="37"/>
         <v>3.2060185185400769E-2</v>
       </c>
       <c r="N106" s="13">
-        <f>$M106*24*60</f>
+        <f t="shared" si="38"/>
         <v>46.166666666977108</v>
       </c>
       <c r="O106" s="13"/>
@@ -11615,27 +11147,27 @@
       <c r="Q106" s="62"/>
       <c r="R106" s="62"/>
       <c r="T106" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E106-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I106+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B106&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 17:17:34-0600',mode:absolute,to:'2016-05-10 18:07:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U106" s="75" t="str">
-        <f>IF(Y106&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V106" s="75">
-        <f>VALUE(LEFT(A106,3))-VALUE(LEFT(A105,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W106" s="75">
-        <f>RIGHT(D106,LEN(D106)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.303599999999999</v>
       </c>
       <c r="X106" s="75">
-        <f>RIGHT(H106,LEN(H106)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.43E-2</v>
       </c>
       <c r="Y106" s="75">
-        <f>ABS(X106-W106)</f>
+        <f t="shared" si="44"/>
         <v>23.289300000000001</v>
       </c>
       <c r="Z106" s="76" t="e">
@@ -11647,7 +11179,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
         <v>348</v>
       </c>
@@ -11679,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="K107" s="61" t="str">
-        <f>IF(ISEVEN(B107),(B107-1)&amp;"/"&amp;B107,B107&amp;"/"&amp;(B107+1))</f>
+        <f t="shared" si="45"/>
         <v>4043/4044</v>
       </c>
       <c r="L107" s="61" t="str">
@@ -11687,11 +11219,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M107" s="12">
-        <f>I107-F107</f>
+        <f t="shared" si="37"/>
         <v>3.0243055553000886E-2</v>
       </c>
       <c r="N107" s="13">
-        <f>$M107*24*60</f>
+        <f t="shared" si="38"/>
         <v>43.549999996321276</v>
       </c>
       <c r="O107" s="13"/>
@@ -11699,27 +11231,27 @@
       <c r="Q107" s="62"/>
       <c r="R107" s="62"/>
       <c r="T107" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E107-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I107+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B107&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 16:35:48-0600',mode:absolute,to:'2016-05-10 17:22:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U107" s="75" t="str">
-        <f>IF(Y107&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V107" s="75">
-        <f>VALUE(LEFT(A107,3))-VALUE(LEFT(A106,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W107" s="75">
-        <f>RIGHT(D107,LEN(D107)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.53E-2</v>
       </c>
       <c r="X107" s="75">
-        <f>RIGHT(H107,LEN(H107)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.327000000000002</v>
       </c>
       <c r="Y107" s="75">
-        <f>ABS(X107-W107)</f>
+        <f t="shared" si="44"/>
         <v>23.281700000000001</v>
       </c>
       <c r="Z107" s="76" t="e">
@@ -11731,7 +11263,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
         <v>350</v>
       </c>
@@ -11763,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="61" t="str">
-        <f>IF(ISEVEN(B108),(B108-1)&amp;"/"&amp;B108,B108&amp;"/"&amp;(B108+1))</f>
+        <f t="shared" si="45"/>
         <v>4043/4044</v>
       </c>
       <c r="L108" s="61" t="str">
@@ -11771,11 +11303,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M108" s="12">
-        <f>I108-F108</f>
+        <f t="shared" si="37"/>
         <v>3.2048611108621117E-2</v>
       </c>
       <c r="N108" s="13">
-        <f>$M108*24*60</f>
+        <f t="shared" si="38"/>
         <v>46.149999996414408</v>
       </c>
       <c r="O108" s="13"/>
@@ -11783,27 +11315,27 @@
       <c r="Q108" s="62"/>
       <c r="R108" s="62"/>
       <c r="T108" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E108-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I108+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B108&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 17:33:13-0600',mode:absolute,to:'2016-05-10 18:23:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U108" s="75" t="str">
-        <f>IF(Y108&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V108" s="75">
-        <f>VALUE(LEFT(A108,3))-VALUE(LEFT(A107,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W108" s="75">
-        <f>RIGHT(D108,LEN(D108)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.2959</v>
       </c>
       <c r="X108" s="75">
-        <f>RIGHT(H108,LEN(H108)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y108" s="75">
-        <f>ABS(X108-W108)</f>
+        <f t="shared" si="44"/>
         <v>23.2803</v>
       </c>
       <c r="Z108" s="76" t="e">
@@ -11815,7 +11347,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="61" t="s">
         <v>351</v>
       </c>
@@ -11847,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="61" t="str">
-        <f>IF(ISEVEN(B109),(B109-1)&amp;"/"&amp;B109,B109&amp;"/"&amp;(B109+1))</f>
+        <f t="shared" si="45"/>
         <v>4009/4010</v>
       </c>
       <c r="L109" s="61" t="str">
@@ -11855,11 +11387,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M109" s="12">
-        <f>I109-F109</f>
+        <f t="shared" si="37"/>
         <v>2.8437499997380655E-2</v>
       </c>
       <c r="N109" s="13">
-        <f>$M109*24*60</f>
+        <f t="shared" si="38"/>
         <v>40.949999996228144</v>
       </c>
       <c r="O109" s="13"/>
@@ -11867,27 +11399,27 @@
       <c r="Q109" s="62"/>
       <c r="R109" s="62"/>
       <c r="T109" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E109-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I109+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B109&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 16:53:46-0600',mode:absolute,to:'2016-05-10 17:38:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U109" s="75" t="str">
-        <f>IF(Y109&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V109" s="75">
-        <f>VALUE(LEFT(A109,3))-VALUE(LEFT(A108,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W109" s="75">
-        <f>RIGHT(D109,LEN(D109)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X109" s="75">
-        <f>RIGHT(H109,LEN(H109)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.328499999999998</v>
       </c>
       <c r="Y109" s="75">
-        <f>ABS(X109-W109)</f>
+        <f t="shared" si="44"/>
         <v>23.282799999999998</v>
       </c>
       <c r="Z109" s="76" t="e">
@@ -11899,7 +11431,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
         <v>353</v>
       </c>
@@ -11931,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="K110" s="61" t="str">
-        <f>IF(ISEVEN(B110),(B110-1)&amp;"/"&amp;B110,B110&amp;"/"&amp;(B110+1))</f>
+        <f t="shared" si="45"/>
         <v>4009/4010</v>
       </c>
       <c r="L110" s="61" t="str">
@@ -11939,11 +11471,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M110" s="12">
-        <f>I110-F110</f>
+        <f t="shared" si="37"/>
         <v>2.8379629635310266E-2</v>
       </c>
       <c r="N110" s="13">
-        <f>$M110*24*60</f>
+        <f t="shared" si="38"/>
         <v>40.866666674846783</v>
       </c>
       <c r="O110" s="13"/>
@@ -11951,27 +11483,27 @@
       <c r="Q110" s="62"/>
       <c r="R110" s="62"/>
       <c r="T110" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E110-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I110+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B110&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 17:50:05-0600',mode:absolute,to:'2016-05-10 18:34:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U110" s="75" t="str">
-        <f>IF(Y110&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V110" s="75">
-        <f>VALUE(LEFT(A110,3))-VALUE(LEFT(A109,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W110" s="75">
-        <f>RIGHT(D110,LEN(D110)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.297599999999999</v>
       </c>
       <c r="X110" s="75">
-        <f>RIGHT(H110,LEN(H110)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.67E-2</v>
       </c>
       <c r="Y110" s="75">
-        <f>ABS(X110-W110)</f>
+        <f t="shared" si="44"/>
         <v>23.280899999999999</v>
       </c>
       <c r="Z110" s="76" t="e">
@@ -11983,7 +11515,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
         <v>354</v>
       </c>
@@ -12015,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="61" t="str">
-        <f>IF(ISEVEN(B111),(B111-1)&amp;"/"&amp;B111,B111&amp;"/"&amp;(B111+1))</f>
+        <f t="shared" si="45"/>
         <v>4019/4020</v>
       </c>
       <c r="L111" s="61" t="str">
@@ -12023,11 +11555,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M111" s="12">
-        <f>I111-F111</f>
+        <f t="shared" si="37"/>
         <v>2.658564814919373E-2</v>
       </c>
       <c r="N111" s="13">
-        <f>$M111*24*60</f>
+        <f t="shared" si="38"/>
         <v>38.283333334838971</v>
       </c>
       <c r="O111" s="13"/>
@@ -12035,27 +11567,27 @@
       <c r="Q111" s="62"/>
       <c r="R111" s="62"/>
       <c r="T111" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E111-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I111+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B111&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 17:11:11-0600',mode:absolute,to:'2016-05-10 17:53:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U111" s="75" t="str">
-        <f>IF(Y111&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V111" s="75">
-        <f>VALUE(LEFT(A111,3))-VALUE(LEFT(A110,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W111" s="75">
-        <f>RIGHT(D111,LEN(D111)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X111" s="75">
-        <f>RIGHT(H111,LEN(H111)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.3264</v>
       </c>
       <c r="Y111" s="75">
-        <f>ABS(X111-W111)</f>
+        <f t="shared" si="44"/>
         <v>23.2804</v>
       </c>
       <c r="Z111" s="76" t="e">
@@ -12067,7 +11599,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="61" t="s">
         <v>356</v>
       </c>
@@ -12099,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="61" t="str">
-        <f>IF(ISEVEN(B112),(B112-1)&amp;"/"&amp;B112,B112&amp;"/"&amp;(B112+1))</f>
+        <f t="shared" si="45"/>
         <v>4019/4020</v>
       </c>
       <c r="L112" s="61" t="str">
@@ -12107,11 +11639,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M112" s="12">
-        <f>I112-F112</f>
+        <f t="shared" si="37"/>
         <v>3.3773148148611654E-2</v>
       </c>
       <c r="N112" s="13">
-        <f>$M112*24*60</f>
+        <f t="shared" si="38"/>
         <v>48.633333334000781</v>
       </c>
       <c r="O112" s="13"/>
@@ -12119,27 +11651,27 @@
       <c r="Q112" s="62"/>
       <c r="R112" s="62"/>
       <c r="T112" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E112-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I112+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B112&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 17:59:03-0600',mode:absolute,to:'2016-05-10 18:51:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U112" s="75" t="str">
-        <f>IF(Y112&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V112" s="75">
-        <f>VALUE(LEFT(A112,3))-VALUE(LEFT(A111,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W112" s="75">
-        <f>RIGHT(D112,LEN(D112)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.294599999999999</v>
       </c>
       <c r="X112" s="75">
-        <f>RIGHT(H112,LEN(H112)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y112" s="75">
-        <f>ABS(X112-W112)</f>
+        <f t="shared" si="44"/>
         <v>23.2788</v>
       </c>
       <c r="Z112" s="76" t="e">
@@ -12151,7 +11683,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
         <v>358</v>
       </c>
@@ -12183,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="61" t="str">
-        <f>IF(ISEVEN(B113),(B113-1)&amp;"/"&amp;B113,B113&amp;"/"&amp;(B113+1))</f>
+        <f t="shared" si="45"/>
         <v>4011/4012</v>
       </c>
       <c r="L113" s="61" t="str">
@@ -12191,11 +11723,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M113" s="12">
-        <f>I113-F113</f>
+        <f t="shared" si="37"/>
         <v>2.6481481480004732E-2</v>
       </c>
       <c r="N113" s="13">
-        <f>$M113*24*60</f>
+        <f t="shared" si="38"/>
         <v>38.133333331206813</v>
       </c>
       <c r="O113" s="13"/>
@@ -12203,27 +11735,27 @@
       <c r="Q113" s="62"/>
       <c r="R113" s="62"/>
       <c r="T113" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E113-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I113+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B113&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 17:27:26-0600',mode:absolute,to:'2016-05-10 18:08:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U113" s="75" t="str">
-        <f>IF(Y113&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V113" s="75">
-        <f>VALUE(LEFT(A113,3))-VALUE(LEFT(A112,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W113" s="75">
-        <f>RIGHT(D113,LEN(D113)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>5.57E-2</v>
       </c>
       <c r="X113" s="75">
-        <f>RIGHT(H113,LEN(H113)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.3308</v>
       </c>
       <c r="Y113" s="75">
-        <f>ABS(X113-W113)</f>
+        <f t="shared" si="44"/>
         <v>23.275099999999998</v>
       </c>
       <c r="Z113" s="76" t="e">
@@ -12235,7 +11767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="61" t="s">
         <v>360</v>
       </c>
@@ -12267,7 +11799,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="61" t="str">
-        <f>IF(ISEVEN(B114),(B114-1)&amp;"/"&amp;B114,B114&amp;"/"&amp;(B114+1))</f>
+        <f t="shared" si="45"/>
         <v>4011/4012</v>
       </c>
       <c r="L114" s="61" t="str">
@@ -12275,11 +11807,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M114" s="12">
-        <f>I114-F114</f>
+        <f t="shared" si="37"/>
         <v>3.7303240736946464E-2</v>
       </c>
       <c r="N114" s="13">
-        <f>$M114*24*60</f>
+        <f t="shared" si="38"/>
         <v>53.716666661202908</v>
       </c>
       <c r="O114" s="13"/>
@@ -12287,27 +11819,27 @@
       <c r="Q114" s="62"/>
       <c r="R114" s="62"/>
       <c r="T114" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E114-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I114+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B114&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 18:11:12-0600',mode:absolute,to:'2016-05-10 19:08:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U114" s="75" t="str">
-        <f>IF(Y114&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V114" s="75">
-        <f>VALUE(LEFT(A114,3))-VALUE(LEFT(A113,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W114" s="75">
-        <f>RIGHT(D114,LEN(D114)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.2989</v>
       </c>
       <c r="X114" s="75">
-        <f>RIGHT(H114,LEN(H114)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>3.8899999999999997E-2</v>
       </c>
       <c r="Y114" s="75">
-        <f>ABS(X114-W114)</f>
+        <f t="shared" si="44"/>
         <v>23.259999999999998</v>
       </c>
       <c r="Z114" s="76" t="e">
@@ -12319,7 +11851,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="61" t="s">
         <v>362</v>
       </c>
@@ -12351,7 +11883,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="61" t="str">
-        <f>IF(ISEVEN(B115),(B115-1)&amp;"/"&amp;B115,B115&amp;"/"&amp;(B115+1))</f>
+        <f t="shared" si="45"/>
         <v>4023/4024</v>
       </c>
       <c r="L115" s="61" t="str">
@@ -12359,11 +11891,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M115" s="12">
-        <f>I115-F115</f>
+        <f t="shared" si="37"/>
         <v>2.8749999997671694E-2</v>
       </c>
       <c r="N115" s="13">
-        <f>$M115*24*60</f>
+        <f t="shared" si="38"/>
         <v>41.399999996647239</v>
       </c>
       <c r="O115" s="13"/>
@@ -12371,27 +11903,27 @@
       <c r="Q115" s="62"/>
       <c r="R115" s="62"/>
       <c r="T115" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E115-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I115+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B115&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 17:37:08-0600',mode:absolute,to:'2016-05-10 18:21:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U115" s="75" t="str">
-        <f>IF(Y115&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V115" s="75">
-        <f>VALUE(LEFT(A115,3))-VALUE(LEFT(A114,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W115" s="75">
-        <f>RIGHT(D115,LEN(D115)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="X115" s="75">
-        <f>RIGHT(H115,LEN(H115)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.328800000000001</v>
       </c>
       <c r="Y115" s="75">
-        <f>ABS(X115-W115)</f>
+        <f t="shared" si="44"/>
         <v>23.286799999999999</v>
       </c>
       <c r="Z115" s="76" t="e">
@@ -12403,7 +11935,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="61" t="s">
         <v>363</v>
       </c>
@@ -12435,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="61" t="str">
-        <f>IF(ISEVEN(B116),(B116-1)&amp;"/"&amp;B116,B116&amp;"/"&amp;(B116+1))</f>
+        <f t="shared" si="45"/>
         <v>4023/4024</v>
       </c>
       <c r="L116" s="61" t="str">
@@ -12443,11 +11975,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M116" s="12">
-        <f>I116-F116</f>
+        <f t="shared" si="37"/>
         <v>3.1099537038244307E-2</v>
       </c>
       <c r="N116" s="13">
-        <f>$M116*24*60</f>
+        <f t="shared" si="38"/>
         <v>44.783333335071802</v>
       </c>
       <c r="O116" s="13"/>
@@ -12455,27 +11987,27 @@
       <c r="Q116" s="62"/>
       <c r="R116" s="62"/>
       <c r="T116" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E116-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I116+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B116&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 18:33:59-0600',mode:absolute,to:'2016-05-10 19:22:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U116" s="75" t="str">
-        <f>IF(Y116&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V116" s="75">
-        <f>VALUE(LEFT(A116,3))-VALUE(LEFT(A115,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W116" s="75">
-        <f>RIGHT(D116,LEN(D116)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.298400000000001</v>
       </c>
       <c r="X116" s="75">
-        <f>RIGHT(H116,LEN(H116)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y116" s="75">
-        <f>ABS(X116-W116)</f>
+        <f t="shared" si="44"/>
         <v>23.2837</v>
       </c>
       <c r="Z116" s="76" t="e">
@@ -12487,7 +12019,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="61" t="s">
         <v>364</v>
       </c>
@@ -12519,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="61" t="str">
-        <f>IF(ISEVEN(B117),(B117-1)&amp;"/"&amp;B117,B117&amp;"/"&amp;(B117+1))</f>
+        <f t="shared" si="45"/>
         <v>4007/4008</v>
       </c>
       <c r="L117" s="61" t="str">
@@ -12527,11 +12059,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M117" s="12">
-        <f>I117-F117</f>
+        <f t="shared" si="37"/>
         <v>3.2592592593573499E-2</v>
       </c>
       <c r="N117" s="13">
-        <f>$M117*24*60</f>
+        <f t="shared" si="38"/>
         <v>46.933333334745839</v>
       </c>
       <c r="O117" s="13"/>
@@ -12539,27 +12071,27 @@
       <c r="Q117" s="62"/>
       <c r="R117" s="62"/>
       <c r="T117" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E117-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I117+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B117&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 17:59:13-0600',mode:absolute,to:'2016-05-10 18:49:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U117" s="75" t="str">
-        <f>IF(Y117&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V117" s="75">
-        <f>VALUE(LEFT(A117,3))-VALUE(LEFT(A116,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W117" s="75">
-        <f>RIGHT(D117,LEN(D117)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X117" s="75">
-        <f>RIGHT(H117,LEN(H117)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.330400000000001</v>
       </c>
       <c r="Y117" s="75">
-        <f>ABS(X117-W117)</f>
+        <f t="shared" si="44"/>
         <v>23.2849</v>
       </c>
       <c r="Z117" s="76" t="e">
@@ -12571,7 +12103,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="61" t="s">
         <v>365</v>
       </c>
@@ -12603,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="61" t="str">
-        <f>IF(ISEVEN(B118),(B118-1)&amp;"/"&amp;B118,B118&amp;"/"&amp;(B118+1))</f>
+        <f t="shared" si="45"/>
         <v>4007/4008</v>
       </c>
       <c r="L118" s="61" t="str">
@@ -12611,11 +12143,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M118" s="12">
-        <f>I118-F118</f>
+        <f t="shared" si="37"/>
         <v>2.8877314813144039E-2</v>
       </c>
       <c r="N118" s="13">
-        <f>$M118*24*60</f>
+        <f t="shared" si="38"/>
         <v>41.583333330927417</v>
       </c>
       <c r="O118" s="13"/>
@@ -12623,27 +12155,27 @@
       <c r="Q118" s="62"/>
       <c r="R118" s="62"/>
       <c r="T118" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E118-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I118+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B118&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 18:55:14-0600',mode:absolute,to:'2016-05-10 19:40:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U118" s="75" t="str">
-        <f>IF(Y118&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V118" s="75">
-        <f>VALUE(LEFT(A118,3))-VALUE(LEFT(A117,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W118" s="75">
-        <f>RIGHT(D118,LEN(D118)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.298100000000002</v>
       </c>
       <c r="X118" s="75">
-        <f>RIGHT(H118,LEN(H118)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.67E-2</v>
       </c>
       <c r="Y118" s="75">
-        <f>ABS(X118-W118)</f>
+        <f t="shared" si="44"/>
         <v>23.281400000000001</v>
       </c>
       <c r="Z118" s="76" t="e">
@@ -12655,7 +12187,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="61" t="s">
         <v>366</v>
       </c>
@@ -12687,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="61" t="str">
-        <f>IF(ISEVEN(B119),(B119-1)&amp;"/"&amp;B119,B119&amp;"/"&amp;(B119+1))</f>
+        <f t="shared" si="45"/>
         <v>4015/4016</v>
       </c>
       <c r="L119" s="61" t="str">
@@ -12695,11 +12227,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M119" s="12">
-        <f>I119-F119</f>
+        <f t="shared" si="37"/>
         <v>2.9340277782466728E-2</v>
       </c>
       <c r="N119" s="13">
-        <f>$M119*24*60</f>
+        <f t="shared" si="38"/>
         <v>42.250000006752089</v>
       </c>
       <c r="O119" s="13"/>
@@ -12707,27 +12239,27 @@
       <c r="Q119" s="62"/>
       <c r="R119" s="62"/>
       <c r="T119" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E119-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I119+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B119&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 18:10:27-0600',mode:absolute,to:'2016-05-10 18:56:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U119" s="75" t="str">
-        <f>IF(Y119&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V119" s="75">
-        <f>VALUE(LEFT(A119,3))-VALUE(LEFT(A118,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W119" s="75">
-        <f>RIGHT(D119,LEN(D119)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X119" s="75">
-        <f>RIGHT(H119,LEN(H119)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.328600000000002</v>
       </c>
       <c r="Y119" s="75">
-        <f>ABS(X119-W119)</f>
+        <f t="shared" si="44"/>
         <v>23.283700000000003</v>
       </c>
       <c r="Z119" s="76" t="e">
@@ -12739,7 +12271,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="61" t="s">
         <v>367</v>
       </c>
@@ -12771,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="61" t="str">
-        <f>IF(ISEVEN(B120),(B120-1)&amp;"/"&amp;B120,B120&amp;"/"&amp;(B120+1))</f>
+        <f t="shared" si="45"/>
         <v>4015/4016</v>
       </c>
       <c r="L120" s="61" t="str">
@@ -12779,11 +12311,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M120" s="12">
-        <f>I120-F120</f>
+        <f t="shared" si="37"/>
         <v>3.3923611110367347E-2</v>
       </c>
       <c r="N120" s="13">
-        <f>$M120*24*60</f>
+        <f t="shared" si="38"/>
         <v>48.849999998928979</v>
       </c>
       <c r="O120" s="13"/>
@@ -12791,27 +12323,27 @@
       <c r="Q120" s="62"/>
       <c r="R120" s="62"/>
       <c r="T120" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E120-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I120+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B120&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 18:56:51-0600',mode:absolute,to:'2016-05-10 19:49:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U120" s="75" t="str">
-        <f>IF(Y120&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V120" s="75">
-        <f>VALUE(LEFT(A120,3))-VALUE(LEFT(A119,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W120" s="75">
-        <f>RIGHT(D120,LEN(D120)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X120" s="75">
-        <f>RIGHT(H120,LEN(H120)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y120" s="75">
-        <f>ABS(X120-W120)</f>
+        <f t="shared" si="44"/>
         <v>23.282999999999998</v>
       </c>
       <c r="Z120" s="76" t="e">
@@ -12823,7 +12355,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="61" t="s">
         <v>368</v>
       </c>
@@ -12855,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="61" t="str">
-        <f>IF(ISEVEN(B121),(B121-1)&amp;"/"&amp;B121,B121&amp;"/"&amp;(B121+1))</f>
+        <f t="shared" si="45"/>
         <v>4043/4044</v>
       </c>
       <c r="L121" s="61" t="str">
@@ -12863,11 +12395,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M121" s="12">
-        <f>I121-F121</f>
+        <f t="shared" si="37"/>
         <v>2.6087962964083999E-2</v>
       </c>
       <c r="N121" s="13">
-        <f>$M121*24*60</f>
+        <f t="shared" si="38"/>
         <v>37.566666668280959</v>
       </c>
       <c r="O121" s="13"/>
@@ -12875,27 +12407,27 @@
       <c r="Q121" s="62"/>
       <c r="R121" s="62"/>
       <c r="T121" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E121-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I121+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B121&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 18:26:45-0600',mode:absolute,to:'2016-05-10 19:07:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U121" s="75" t="str">
-        <f>IF(Y121&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V121" s="75">
-        <f>VALUE(LEFT(A121,3))-VALUE(LEFT(A120,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W121" s="75">
-        <f>RIGHT(D121,LEN(D121)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="X121" s="75">
-        <f>RIGHT(H121,LEN(H121)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.331199999999999</v>
       </c>
       <c r="Y121" s="75">
-        <f>ABS(X121-W121)</f>
+        <f t="shared" si="44"/>
         <v>23.288999999999998</v>
       </c>
       <c r="Z121" s="76" t="e">
@@ -12907,7 +12439,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="61" t="s">
         <v>370</v>
       </c>
@@ -12939,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="61" t="str">
-        <f>IF(ISEVEN(B122),(B122-1)&amp;"/"&amp;B122,B122&amp;"/"&amp;(B122+1))</f>
+        <f t="shared" si="45"/>
         <v>4043/4044</v>
       </c>
       <c r="L122" s="61" t="str">
@@ -12947,11 +12479,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M122" s="12">
-        <f>I122-F122</f>
+        <f t="shared" si="37"/>
         <v>2.9571759259852115E-2</v>
       </c>
       <c r="N122" s="13">
-        <f>$M122*24*60</f>
+        <f t="shared" si="38"/>
         <v>42.583333334187046</v>
       </c>
       <c r="O122" s="13"/>
@@ -12959,27 +12491,27 @@
       <c r="Q122" s="62"/>
       <c r="R122" s="62"/>
       <c r="T122" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E122-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I122+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B122&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 19:18:14-0600',mode:absolute,to:'2016-05-10 20:04:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U122" s="75" t="str">
-        <f>IF(Y122&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V122" s="75">
-        <f>VALUE(LEFT(A122,3))-VALUE(LEFT(A121,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W122" s="75">
-        <f>RIGHT(D122,LEN(D122)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.299399999999999</v>
       </c>
       <c r="X122" s="75">
-        <f>RIGHT(H122,LEN(H122)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y122" s="75">
-        <f>ABS(X122-W122)</f>
+        <f t="shared" si="44"/>
         <v>23.2836</v>
       </c>
       <c r="Z122" s="76" t="e">
@@ -12991,7 +12523,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="61" t="s">
         <v>371</v>
       </c>
@@ -13023,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="61" t="str">
-        <f>IF(ISEVEN(B123),(B123-1)&amp;"/"&amp;B123,B123&amp;"/"&amp;(B123+1))</f>
+        <f t="shared" si="45"/>
         <v>4019/4020</v>
       </c>
       <c r="L123" s="61" t="str">
@@ -13031,11 +12563,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M123" s="12">
-        <f>I123-F123</f>
+        <f t="shared" si="37"/>
         <v>2.9409722228592727E-2</v>
       </c>
       <c r="N123" s="13">
-        <f>$M123*24*60</f>
+        <f t="shared" si="38"/>
         <v>42.350000009173527</v>
       </c>
       <c r="O123" s="13"/>
@@ -13043,27 +12575,27 @@
       <c r="Q123" s="62"/>
       <c r="R123" s="62"/>
       <c r="T123" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E123-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I123+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B123&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 18:51:59-0600',mode:absolute,to:'2016-05-10 19:37:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U123" s="75" t="str">
-        <f>IF(Y123&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V123" s="75">
-        <f>VALUE(LEFT(A123,3))-VALUE(LEFT(A122,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W123" s="75">
-        <f>RIGHT(D123,LEN(D123)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X123" s="75">
-        <f>RIGHT(H123,LEN(H123)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.328499999999998</v>
       </c>
       <c r="Y123" s="75">
-        <f>ABS(X123-W123)</f>
+        <f t="shared" si="44"/>
         <v>23.2821</v>
       </c>
       <c r="Z123" s="76" t="e">
@@ -13075,7 +12607,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
         <v>372</v>
       </c>
@@ -13107,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="61" t="str">
-        <f>IF(ISEVEN(B124),(B124-1)&amp;"/"&amp;B124,B124&amp;"/"&amp;(B124+1))</f>
+        <f t="shared" si="45"/>
         <v>4019/4020</v>
       </c>
       <c r="L124" s="61" t="str">
@@ -13115,11 +12647,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M124" s="12">
-        <f>I124-F124</f>
+        <f t="shared" si="37"/>
         <v>3.407407407212304E-2</v>
       </c>
       <c r="N124" s="13">
-        <f>$M124*24*60</f>
+        <f t="shared" si="38"/>
         <v>49.066666663857177</v>
       </c>
       <c r="O124" s="13"/>
@@ -13127,27 +12659,27 @@
       <c r="Q124" s="62"/>
       <c r="R124" s="62"/>
       <c r="T124" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E124-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I124+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B124&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 19:42:50-0600',mode:absolute,to:'2016-05-10 20:35:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U124" s="75" t="str">
-        <f>IF(Y124&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V124" s="75">
-        <f>VALUE(LEFT(A124,3))-VALUE(LEFT(A123,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W124" s="75">
-        <f>RIGHT(D124,LEN(D124)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.295999999999999</v>
       </c>
       <c r="X124" s="75">
-        <f>RIGHT(H124,LEN(H124)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y124" s="75">
-        <f>ABS(X124-W124)</f>
+        <f t="shared" si="44"/>
         <v>23.279699999999998</v>
       </c>
       <c r="Z124" s="76" t="e">
@@ -13159,7 +12691,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="61" t="s">
         <v>374</v>
       </c>
@@ -13191,7 +12723,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="61" t="str">
-        <f>IF(ISEVEN(B125),(B125-1)&amp;"/"&amp;B125,B125&amp;"/"&amp;(B125+1))</f>
+        <f t="shared" si="45"/>
         <v>4023/4024</v>
       </c>
       <c r="L125" s="61" t="str">
@@ -13199,11 +12731,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M125" s="12">
-        <f>I125-F125</f>
+        <f t="shared" ref="M125:M146" si="46">I125-F125</f>
         <v>2.5393518517375924E-2</v>
       </c>
       <c r="N125" s="13">
-        <f>$M125*24*60</f>
+        <f t="shared" si="38"/>
         <v>36.56666666502133</v>
       </c>
       <c r="O125" s="13"/>
@@ -13211,27 +12743,27 @@
       <c r="Q125" s="62"/>
       <c r="R125" s="62"/>
       <c r="T125" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E125-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I125+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B125&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 19:23:53-0600',mode:absolute,to:'2016-05-10 20:07:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U125" s="75" t="str">
-        <f>IF(Y125&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V125" s="75">
-        <f>VALUE(LEFT(A125,3))-VALUE(LEFT(A124,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W125" s="75">
-        <f>RIGHT(D125,LEN(D125)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X125" s="75">
-        <f>RIGHT(H125,LEN(H125)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>23.329499999999999</v>
       </c>
       <c r="Y125" s="75">
-        <f>ABS(X125-W125)</f>
+        <f t="shared" si="44"/>
         <v>23.283799999999999</v>
       </c>
       <c r="Z125" s="76" t="e">
@@ -13243,7 +12775,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="61" t="s">
         <v>375</v>
       </c>
@@ -13275,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="61" t="str">
-        <f>IF(ISEVEN(B126),(B126-1)&amp;"/"&amp;B126,B126&amp;"/"&amp;(B126+1))</f>
+        <f t="shared" si="45"/>
         <v>4023/4024</v>
       </c>
       <c r="L126" s="61" t="str">
@@ -13283,11 +12815,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M126" s="12">
-        <f>I126-F126</f>
+        <f t="shared" si="46"/>
         <v>2.8541666666569654E-2</v>
       </c>
       <c r="N126" s="13">
-        <f>$M126*24*60</f>
+        <f t="shared" si="38"/>
         <v>41.099999999860302</v>
       </c>
       <c r="O126" s="13"/>
@@ -13295,27 +12827,27 @@
       <c r="Q126" s="62"/>
       <c r="R126" s="62"/>
       <c r="T126" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E126-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I126+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B126&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 20:20:15-0600',mode:absolute,to:'2016-05-10 21:04:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U126" s="75" t="str">
-        <f>IF(Y126&lt;23,"Y","N")</f>
+        <f t="shared" si="40"/>
         <v>N</v>
       </c>
       <c r="V126" s="75">
-        <f>VALUE(LEFT(A126,3))-VALUE(LEFT(A125,3))</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="W126" s="75">
-        <f>RIGHT(D126,LEN(D126)-4)/10000</f>
+        <f t="shared" si="42"/>
         <v>23.296800000000001</v>
       </c>
       <c r="X126" s="75">
-        <f>RIGHT(H126,LEN(H126)-4)/10000</f>
+        <f t="shared" si="43"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y126" s="75">
-        <f>ABS(X126-W126)</f>
+        <f t="shared" si="44"/>
         <v>23.282700000000002</v>
       </c>
       <c r="Z126" s="76" t="e">
@@ -13327,7 +12859,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="61" t="s">
         <v>377</v>
       </c>
@@ -13359,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="K127" s="61" t="str">
-        <f>IF(ISEVEN(B127),(B127-1)&amp;"/"&amp;B127,B127&amp;"/"&amp;(B127+1))</f>
+        <f t="shared" si="45"/>
         <v>4015/4016</v>
       </c>
       <c r="L127" s="61" t="str">
@@ -13367,11 +12899,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M127" s="12">
-        <f>I127-F127</f>
+        <f t="shared" si="46"/>
         <v>3.085648147680331E-2</v>
       </c>
       <c r="N127" s="13">
-        <f>$M127*24*60</f>
+        <f t="shared" si="38"/>
         <v>44.433333326596767</v>
       </c>
       <c r="O127" s="13"/>
@@ -13379,27 +12911,27 @@
       <c r="Q127" s="62"/>
       <c r="R127" s="62"/>
       <c r="T127" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E127-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I127+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B127&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T127:T146" si="47">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E127-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I127+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B127&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 19:49:17-0600',mode:absolute,to:'2016-05-10 20:37:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U127" s="75" t="str">
-        <f>IF(Y127&lt;23,"Y","N")</f>
+        <f t="shared" ref="U127:U146" si="48">IF(Y127&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V127" s="75">
-        <f>VALUE(LEFT(A127,3))-VALUE(LEFT(A126,3))</f>
+        <f t="shared" ref="V127:V146" si="49">VALUE(LEFT(A127,3))-VALUE(LEFT(A126,3))</f>
         <v>1</v>
       </c>
       <c r="W127" s="75">
-        <f>RIGHT(D127,LEN(D127)-4)/10000</f>
+        <f t="shared" ref="W127:W146" si="50">RIGHT(D127,LEN(D127)-4)/10000</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X127" s="75">
-        <f>RIGHT(H127,LEN(H127)-4)/10000</f>
+        <f t="shared" ref="X127:X146" si="51">RIGHT(H127,LEN(H127)-4)/10000</f>
         <v>23.330400000000001</v>
       </c>
       <c r="Y127" s="75">
-        <f>ABS(X127-W127)</f>
+        <f t="shared" ref="Y127:Y158" si="52">ABS(X127-W127)</f>
         <v>23.2849</v>
       </c>
       <c r="Z127" s="76" t="e">
@@ -13411,7 +12943,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="61" t="s">
         <v>378</v>
       </c>
@@ -13443,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="61" t="str">
-        <f>IF(ISEVEN(B128),(B128-1)&amp;"/"&amp;B128,B128&amp;"/"&amp;(B128+1))</f>
+        <f t="shared" si="45"/>
         <v>4015/4016</v>
       </c>
       <c r="L128" s="61" t="str">
@@ -13451,11 +12983,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M128" s="12">
-        <f>I128-F128</f>
+        <f t="shared" si="46"/>
         <v>3.6770833336049691E-2</v>
       </c>
       <c r="N128" s="13">
-        <f>$M128*24*60</f>
+        <f t="shared" si="38"/>
         <v>52.950000003911555</v>
       </c>
       <c r="O128" s="13"/>
@@ -13463,27 +12995,27 @@
       <c r="Q128" s="62"/>
       <c r="R128" s="62"/>
       <c r="T128" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E128-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I128+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B128&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 20:38:22-0600',mode:absolute,to:'2016-05-10 21:34:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U128" s="75" t="str">
-        <f>IF(Y128&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V128" s="75">
-        <f>VALUE(LEFT(A128,3))-VALUE(LEFT(A127,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W128" s="75">
-        <f>RIGHT(D128,LEN(D128)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>23.3</v>
       </c>
       <c r="X128" s="75">
-        <f>RIGHT(H128,LEN(H128)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y128" s="75">
-        <f>ABS(X128-W128)</f>
+        <f t="shared" si="52"/>
         <v>23.285900000000002</v>
       </c>
       <c r="Z128" s="76" t="e">
@@ -13495,7 +13027,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="61" t="s">
         <v>379</v>
       </c>
@@ -13527,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="61" t="str">
-        <f>IF(ISEVEN(B129),(B129-1)&amp;"/"&amp;B129,B129&amp;"/"&amp;(B129+1))</f>
+        <f t="shared" si="45"/>
         <v>4043/4044</v>
       </c>
       <c r="L129" s="61" t="str">
@@ -13535,11 +13067,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M129" s="12">
-        <f>I129-F129</f>
+        <f t="shared" si="46"/>
         <v>3.7893518514465541E-2</v>
       </c>
       <c r="N129" s="13">
-        <f>$M129*24*60</f>
+        <f t="shared" si="38"/>
         <v>54.566666660830379</v>
       </c>
       <c r="O129" s="13"/>
@@ -13547,27 +13079,27 @@
       <c r="Q129" s="62"/>
       <c r="R129" s="62"/>
       <c r="T129" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E129-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I129+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B129&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 20:07:06-0600',mode:absolute,to:'2016-05-10 21:08:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U129" s="75" t="str">
-        <f>IF(Y129&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V129" s="75">
-        <f>VALUE(LEFT(A129,3))-VALUE(LEFT(A128,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W129" s="75">
-        <f>RIGHT(D129,LEN(D129)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X129" s="75">
-        <f>RIGHT(H129,LEN(H129)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y129" s="75">
-        <f>ABS(X129-W129)</f>
+        <f t="shared" si="52"/>
         <v>23.287399999999998</v>
       </c>
       <c r="Z129" s="76" t="e">
@@ -13579,7 +13111,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="61" t="s">
         <v>380</v>
       </c>
@@ -13611,7 +13143,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="61" t="str">
-        <f>IF(ISEVEN(B130),(B130-1)&amp;"/"&amp;B130,B130&amp;"/"&amp;(B130+1))</f>
+        <f t="shared" si="45"/>
         <v>4043/4044</v>
       </c>
       <c r="L130" s="61" t="str">
@@ -13619,11 +13151,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M130" s="12">
-        <f>I130-F130</f>
+        <f t="shared" si="46"/>
         <v>2.9143518520868383E-2</v>
       </c>
       <c r="N130" s="13">
-        <f>$M130*24*60</f>
+        <f t="shared" si="38"/>
         <v>41.966666670050472</v>
       </c>
       <c r="O130" s="13"/>
@@ -13631,27 +13163,27 @@
       <c r="Q130" s="62"/>
       <c r="R130" s="62"/>
       <c r="T130" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E130-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I130+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B130&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 21:19:42-0600',mode:absolute,to:'2016-05-10 22:05:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U130" s="75" t="str">
-        <f>IF(Y130&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V130" s="75">
-        <f>VALUE(LEFT(A130,3))-VALUE(LEFT(A129,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W130" s="75">
-        <f>RIGHT(D130,LEN(D130)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>23.3002</v>
       </c>
       <c r="X130" s="75">
-        <f>RIGHT(H130,LEN(H130)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y130" s="75">
-        <f>ABS(X130-W130)</f>
+        <f t="shared" si="52"/>
         <v>23.285499999999999</v>
       </c>
       <c r="Z130" s="76" t="e">
@@ -13663,7 +13195,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="61" t="s">
         <v>381</v>
       </c>
@@ -13695,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="61" t="str">
-        <f>IF(ISEVEN(B131),(B131-1)&amp;"/"&amp;B131,B131&amp;"/"&amp;(B131+1))</f>
+        <f t="shared" ref="K131:K146" si="53">IF(ISEVEN(B131),(B131-1)&amp;"/"&amp;B131,B131&amp;"/"&amp;(B131+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L131" s="61" t="str">
@@ -13703,11 +13235,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M131" s="12">
-        <f>I131-F131</f>
+        <f t="shared" si="46"/>
         <v>3.6365740743349306E-2</v>
       </c>
       <c r="N131" s="13">
-        <f>$M131*24*60</f>
+        <f t="shared" si="38"/>
         <v>52.366666670423001</v>
       </c>
       <c r="O131" s="13"/>
@@ -13715,27 +13247,27 @@
       <c r="Q131" s="62"/>
       <c r="R131" s="62"/>
       <c r="T131" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E131-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I131+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B131&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 20:42:49-0600',mode:absolute,to:'2016-05-10 21:38:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U131" s="75" t="str">
-        <f>IF(Y131&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V131" s="75">
-        <f>VALUE(LEFT(A131,3))-VALUE(LEFT(A130,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W131" s="75">
-        <f>RIGHT(D131,LEN(D131)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="X131" s="75">
-        <f>RIGHT(H131,LEN(H131)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>23.328499999999998</v>
       </c>
       <c r="Y131" s="75">
-        <f>ABS(X131-W131)</f>
+        <f t="shared" si="52"/>
         <v>23.279899999999998</v>
       </c>
       <c r="Z131" s="76" t="e">
@@ -13779,7 +13311,7 @@
         <v>1</v>
       </c>
       <c r="K132" s="61" t="str">
-        <f>IF(ISEVEN(B132),(B132-1)&amp;"/"&amp;B132,B132&amp;"/"&amp;(B132+1))</f>
+        <f t="shared" si="53"/>
         <v>4019/4020</v>
       </c>
       <c r="L132" s="61" t="str">
@@ -13787,7 +13319,7 @@
         <v>LEVERE</v>
       </c>
       <c r="M132" s="12">
-        <f>I132-F132</f>
+        <f t="shared" si="46"/>
         <v>3.1157407407590654E-2</v>
       </c>
       <c r="N132" s="13"/>
@@ -13796,33 +13328,33 @@
         <v>45</v>
       </c>
       <c r="Q132" s="62" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="R132" s="62" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="T132" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E132-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I132+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B132&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 21:46:08-0600',mode:absolute,to:'2016-05-10 22:34:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U132" s="75" t="str">
-        <f>IF(Y132&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>Y</v>
       </c>
       <c r="V132" s="75">
-        <f>VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W132" s="75">
-        <f>RIGHT(D132,LEN(D132)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>23.295999999999999</v>
       </c>
       <c r="X132" s="75">
-        <f>RIGHT(H132,LEN(H132)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>0.48930000000000001</v>
       </c>
       <c r="Y132" s="75">
-        <f>ABS(X132-W132)</f>
+        <f t="shared" si="52"/>
         <v>22.806699999999999</v>
       </c>
       <c r="Z132" s="76">
@@ -13834,7 +13366,7 @@
         <v>SIGNAL</v>
       </c>
     </row>
-    <row r="133" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="61" t="s">
         <v>385</v>
       </c>
@@ -13866,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="61" t="str">
-        <f>IF(ISEVEN(B133),(B133-1)&amp;"/"&amp;B133,B133&amp;"/"&amp;(B133+1))</f>
+        <f t="shared" si="53"/>
         <v>4023/4024</v>
       </c>
       <c r="L133" s="61" t="str">
@@ -13874,11 +13406,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M133" s="12">
-        <f>I133-F133</f>
+        <f t="shared" si="46"/>
         <v>3.0370370368473232E-2</v>
       </c>
       <c r="N133" s="13">
-        <f>$M133*24*60</f>
+        <f t="shared" ref="N133:N145" si="54">$M133*24*60</f>
         <v>43.733333330601454</v>
       </c>
       <c r="O133" s="13"/>
@@ -13886,27 +13418,27 @@
       <c r="Q133" s="62"/>
       <c r="R133" s="62"/>
       <c r="T133" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E133-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I133+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B133&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 21:20:50-0600',mode:absolute,to:'2016-05-10 22:08:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U133" s="75" t="str">
-        <f>IF(Y133&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V133" s="75">
-        <f>VALUE(LEFT(A133,3))-VALUE(LEFT(A132,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W133" s="75">
-        <f>RIGHT(D133,LEN(D133)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X133" s="75">
-        <f>RIGHT(H133,LEN(H133)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>23.327000000000002</v>
       </c>
       <c r="Y133" s="75">
-        <f>ABS(X133-W133)</f>
+        <f t="shared" si="52"/>
         <v>23.282100000000003</v>
       </c>
       <c r="Z133" s="76" t="e">
@@ -13918,7 +13450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="61" t="s">
         <v>386</v>
       </c>
@@ -13950,7 +13482,7 @@
         <v>2</v>
       </c>
       <c r="K134" s="61" t="str">
-        <f>IF(ISEVEN(B134),(B134-1)&amp;"/"&amp;B134,B134&amp;"/"&amp;(B134+1))</f>
+        <f t="shared" si="53"/>
         <v>4023/4024</v>
       </c>
       <c r="L134" s="61" t="str">
@@ -13958,11 +13490,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M134" s="12">
-        <f>I134-F134</f>
+        <f t="shared" si="46"/>
         <v>3.1180555561149959E-2</v>
       </c>
       <c r="N134" s="13">
-        <f>$M134*24*60</f>
+        <f t="shared" si="54"/>
         <v>44.90000000805594</v>
       </c>
       <c r="O134" s="13"/>
@@ -13970,27 +13502,27 @@
       <c r="Q134" s="62"/>
       <c r="R134" s="62"/>
       <c r="T134" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E134-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I134+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B134&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 22:19:33-0600',mode:absolute,to:'2016-05-10 23:08:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U134" s="75" t="str">
-        <f>IF(Y134&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V134" s="75">
-        <f>VALUE(LEFT(A134,3))-VALUE(LEFT(A133,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W134" s="75">
-        <f>RIGHT(D134,LEN(D134)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X134" s="75">
-        <f>RIGHT(H134,LEN(H134)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y134" s="75">
-        <f>ABS(X134-W134)</f>
+        <f t="shared" si="52"/>
         <v>23.2819</v>
       </c>
       <c r="Z134" s="76">
@@ -14002,7 +13534,7 @@
         <v>GRADE CROSSING</v>
       </c>
     </row>
-    <row r="135" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="61" t="s">
         <v>387</v>
       </c>
@@ -14034,7 +13566,7 @@
         <v>1</v>
       </c>
       <c r="K135" s="61" t="str">
-        <f>IF(ISEVEN(B135),(B135-1)&amp;"/"&amp;B135,B135&amp;"/"&amp;(B135+1))</f>
+        <f t="shared" si="53"/>
         <v>4015/4016</v>
       </c>
       <c r="L135" s="61" t="str">
@@ -14042,11 +13574,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M135" s="12">
-        <f>I135-F135</f>
+        <f t="shared" si="46"/>
         <v>4.0775462963210884E-2</v>
       </c>
       <c r="N135" s="13">
-        <f>$M135*24*60</f>
+        <f t="shared" si="54"/>
         <v>58.716666667023674</v>
       </c>
       <c r="O135" s="13"/>
@@ -14054,27 +13586,27 @@
       <c r="Q135" s="62"/>
       <c r="R135" s="62"/>
       <c r="T135" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E135-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I135+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B135&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 21:35:33-0600',mode:absolute,to:'2016-05-10 22:37:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U135" s="75" t="str">
-        <f>IF(Y135&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V135" s="75">
-        <f>VALUE(LEFT(A135,3))-VALUE(LEFT(A134,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W135" s="75">
-        <f>RIGHT(D135,LEN(D135)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X135" s="75">
-        <f>RIGHT(H135,LEN(H135)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>23.331</v>
       </c>
       <c r="Y135" s="75">
-        <f>ABS(X135-W135)</f>
+        <f t="shared" si="52"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z135" s="76" t="e">
@@ -14086,7 +13618,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="61" t="s">
         <v>388</v>
       </c>
@@ -14118,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="61" t="str">
-        <f>IF(ISEVEN(B136),(B136-1)&amp;"/"&amp;B136,B136&amp;"/"&amp;(B136+1))</f>
+        <f t="shared" si="53"/>
         <v>4015/4016</v>
       </c>
       <c r="L136" s="61" t="str">
@@ -14126,11 +13658,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M136" s="12">
-        <f>I136-F136</f>
+        <f t="shared" si="46"/>
         <v>3.6388888889632653E-2</v>
       </c>
       <c r="N136" s="13">
-        <f>$M136*24*60</f>
+        <f t="shared" si="54"/>
         <v>52.400000001071021</v>
       </c>
       <c r="O136" s="13"/>
@@ -14138,27 +13670,27 @@
       <c r="Q136" s="62"/>
       <c r="R136" s="62"/>
       <c r="T136" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E136-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I136+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B136&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 22:38:58-0600',mode:absolute,to:'2016-05-10 23:34:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U136" s="75" t="str">
-        <f>IF(Y136&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V136" s="75">
-        <f>VALUE(LEFT(A136,3))-VALUE(LEFT(A135,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W136" s="75">
-        <f>RIGHT(D136,LEN(D136)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>23.298500000000001</v>
       </c>
       <c r="X136" s="75">
-        <f>RIGHT(H136,LEN(H136)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>1.34E-2</v>
       </c>
       <c r="Y136" s="75">
-        <f>ABS(X136-W136)</f>
+        <f t="shared" si="52"/>
         <v>23.2851</v>
       </c>
       <c r="Z136" s="76" t="e">
@@ -14170,7 +13702,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="61" t="s">
         <v>389</v>
       </c>
@@ -14202,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="61" t="str">
-        <f>IF(ISEVEN(B137),(B137-1)&amp;"/"&amp;B137,B137&amp;"/"&amp;(B137+1))</f>
+        <f t="shared" si="53"/>
         <v>4043/4044</v>
       </c>
       <c r="L137" s="61" t="str">
@@ -14210,11 +13742,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M137" s="12">
-        <f>I137-F137</f>
+        <f t="shared" si="46"/>
         <v>3.9548611115606036E-2</v>
       </c>
       <c r="N137" s="13">
-        <f>$M137*24*60</f>
+        <f t="shared" si="54"/>
         <v>56.950000006472692</v>
       </c>
       <c r="O137" s="13"/>
@@ -14222,27 +13754,27 @@
       <c r="Q137" s="62"/>
       <c r="R137" s="62"/>
       <c r="T137" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E137-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I137+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B137&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 22:06:41-0600',mode:absolute,to:'2016-05-10 23:07:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U137" s="75" t="str">
-        <f>IF(Y137&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V137" s="75">
-        <f>VALUE(LEFT(A137,3))-VALUE(LEFT(A136,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W137" s="75">
-        <f>RIGHT(D137,LEN(D137)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X137" s="75">
-        <f>RIGHT(H137,LEN(H137)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>23.331700000000001</v>
       </c>
       <c r="Y137" s="75">
-        <f>ABS(X137-W137)</f>
+        <f t="shared" si="52"/>
         <v>23.2866</v>
       </c>
       <c r="Z137" s="76" t="e">
@@ -14254,7 +13786,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="61" t="s">
         <v>390</v>
       </c>
@@ -14286,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="61" t="str">
-        <f>IF(ISEVEN(B138),(B138-1)&amp;"/"&amp;B138,B138&amp;"/"&amp;(B138+1))</f>
+        <f t="shared" si="53"/>
         <v>4043/4044</v>
       </c>
       <c r="L138" s="61" t="str">
@@ -14294,11 +13826,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M138" s="12">
-        <f>I138-F138</f>
+        <f t="shared" si="46"/>
         <v>3.3171296301588882E-2</v>
       </c>
       <c r="N138" s="13">
-        <f>$M138*24*60</f>
+        <f t="shared" si="54"/>
         <v>47.76666667428799</v>
       </c>
       <c r="O138" s="13"/>
@@ -14306,27 +13838,27 @@
       <c r="Q138" s="62"/>
       <c r="R138" s="62"/>
       <c r="T138" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E138-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I138+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B138&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 23:14:38-0600',mode:absolute,to:'2016-05-11 00:06:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U138" s="75" t="str">
-        <f>IF(Y138&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V138" s="75">
-        <f>VALUE(LEFT(A138,3))-VALUE(LEFT(A137,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W138" s="75">
-        <f>RIGHT(D138,LEN(D138)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>23.299800000000001</v>
       </c>
       <c r="X138" s="75">
-        <f>RIGHT(H138,LEN(H138)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y138" s="75">
-        <f>ABS(X138-W138)</f>
+        <f t="shared" si="52"/>
         <v>23.284000000000002</v>
       </c>
       <c r="Z138" s="76" t="e">
@@ -14338,7 +13870,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="61" t="s">
         <v>391</v>
       </c>
@@ -14370,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="K139" s="61" t="str">
-        <f>IF(ISEVEN(B139),(B139-1)&amp;"/"&amp;B139,B139&amp;"/"&amp;(B139+1))</f>
+        <f t="shared" si="53"/>
         <v>4019/4020</v>
       </c>
       <c r="L139" s="61" t="str">
@@ -14378,11 +13910,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M139" s="12">
-        <f>I139-F139</f>
+        <f t="shared" si="46"/>
         <v>3.6585648143955041E-2</v>
       </c>
       <c r="N139" s="13">
-        <f>$M139*24*60</f>
+        <f t="shared" si="54"/>
         <v>52.683333327295259</v>
       </c>
       <c r="O139" s="13"/>
@@ -14390,27 +13922,27 @@
       <c r="Q139" s="62"/>
       <c r="R139" s="62"/>
       <c r="T139" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E139-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I139+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B139&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 22:44:13-0600',mode:absolute,to:'2016-05-10 23:40:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U139" s="75" t="str">
-        <f>IF(Y139&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V139" s="75">
-        <f>VALUE(LEFT(A139,3))-VALUE(LEFT(A138,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W139" s="75">
-        <f>RIGHT(D139,LEN(D139)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X139" s="75">
-        <f>RIGHT(H139,LEN(H139)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>23.3278</v>
       </c>
       <c r="Y139" s="75">
-        <f>ABS(X139-W139)</f>
+        <f t="shared" si="52"/>
         <v>23.283100000000001</v>
       </c>
       <c r="Z139" s="76" t="e">
@@ -14422,7 +13954,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="61" t="s">
         <v>393</v>
       </c>
@@ -14454,7 +13986,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="61" t="str">
-        <f>IF(ISEVEN(B140),(B140-1)&amp;"/"&amp;B140,B140&amp;"/"&amp;(B140+1))</f>
+        <f t="shared" si="53"/>
         <v>4019/4020</v>
       </c>
       <c r="L140" s="61" t="str">
@@ -14462,11 +13994,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M140" s="12">
-        <f>I140-F140</f>
+        <f t="shared" si="46"/>
         <v>3.6516203697829042E-2</v>
       </c>
       <c r="N140" s="13">
-        <f>$M140*24*60</f>
+        <f t="shared" si="54"/>
         <v>52.58333332487382</v>
       </c>
       <c r="O140" s="13"/>
@@ -14474,27 +14006,27 @@
       <c r="Q140" s="62"/>
       <c r="R140" s="62"/>
       <c r="T140" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E140-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I140+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B140&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 23:46:51-0600',mode:absolute,to:'2016-05-11 00:42:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U140" s="75" t="str">
-        <f>IF(Y140&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V140" s="75">
-        <f>VALUE(LEFT(A140,3))-VALUE(LEFT(A139,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W140" s="75">
-        <f>RIGHT(D140,LEN(D140)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>23.295500000000001</v>
       </c>
       <c r="X140" s="75">
-        <f>RIGHT(H140,LEN(H140)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>2.07E-2</v>
       </c>
       <c r="Y140" s="75">
-        <f>ABS(X140-W140)</f>
+        <f t="shared" si="52"/>
         <v>23.274799999999999</v>
       </c>
       <c r="Z140" s="76" t="e">
@@ -14506,7 +14038,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="61" t="s">
         <v>396</v>
       </c>
@@ -14538,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="K141" s="61" t="str">
-        <f>IF(ISEVEN(B141),(B141-1)&amp;"/"&amp;B141,B141&amp;"/"&amp;(B141+1))</f>
+        <f t="shared" si="53"/>
         <v>4023/4024</v>
       </c>
       <c r="L141" s="61" t="str">
@@ -14546,11 +14078,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M141" s="12">
-        <f>I141-F141</f>
+        <f t="shared" si="46"/>
         <v>2.8032407404680271E-2</v>
       </c>
       <c r="N141" s="13">
-        <f>$M141*24*60</f>
+        <f t="shared" si="54"/>
         <v>40.36666666273959</v>
       </c>
       <c r="O141" s="13"/>
@@ -14558,27 +14090,27 @@
       <c r="Q141" s="62"/>
       <c r="R141" s="62"/>
       <c r="T141" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E141-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I141+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B141&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 23:22:54-0600',mode:absolute,to:'2016-05-11 00:06:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U141" s="75" t="str">
-        <f>IF(Y141&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V141" s="75">
-        <f>VALUE(LEFT(A141,3))-VALUE(LEFT(A140,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W141" s="75">
-        <f>RIGHT(D141,LEN(D141)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X141" s="75">
-        <f>RIGHT(H141,LEN(H141)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>23.33</v>
       </c>
       <c r="Y141" s="75">
-        <f>ABS(X141-W141)</f>
+        <f t="shared" si="52"/>
         <v>23.283399999999997</v>
       </c>
       <c r="Z141" s="76" t="e">
@@ -14590,7 +14122,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="61" t="s">
         <v>397</v>
       </c>
@@ -14622,7 +14154,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="61" t="str">
-        <f>IF(ISEVEN(B142),(B142-1)&amp;"/"&amp;B142,B142&amp;"/"&amp;(B142+1))</f>
+        <f t="shared" si="53"/>
         <v>4023/4024</v>
       </c>
       <c r="L142" s="61" t="str">
@@ -14630,11 +14162,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M142" s="12">
-        <f>I142-F142</f>
+        <f t="shared" si="46"/>
         <v>2.7013888888177462E-2</v>
       </c>
       <c r="N142" s="13">
-        <f>$M142*24*60</f>
+        <f t="shared" si="54"/>
         <v>38.899999998975545</v>
       </c>
       <c r="O142" s="13"/>
@@ -14642,27 +14174,27 @@
       <c r="Q142" s="62"/>
       <c r="R142" s="62"/>
       <c r="T142" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E142-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I142+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B142&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-11 00:22:27-0600',mode:absolute,to:'2016-05-11 01:04:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U142" s="75" t="str">
-        <f>IF(Y142&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V142" s="75">
-        <f>VALUE(LEFT(A142,3))-VALUE(LEFT(A141,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W142" s="75">
-        <f>RIGHT(D142,LEN(D142)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>23.298100000000002</v>
       </c>
       <c r="X142" s="75">
-        <f>RIGHT(H142,LEN(H142)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y142" s="75">
-        <f>ABS(X142-W142)</f>
+        <f t="shared" si="52"/>
         <v>23.283100000000001</v>
       </c>
       <c r="Z142" s="76" t="e">
@@ -14674,7 +14206,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="61" t="s">
         <v>398</v>
       </c>
@@ -14706,7 +14238,7 @@
         <v>1</v>
       </c>
       <c r="K143" s="61" t="str">
-        <f>IF(ISEVEN(B143),(B143-1)&amp;"/"&amp;B143,B143&amp;"/"&amp;(B143+1))</f>
+        <f t="shared" si="53"/>
         <v>4015/4016</v>
       </c>
       <c r="L143" s="61" t="str">
@@ -14714,11 +14246,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M143" s="12">
-        <f>I143-F143</f>
+        <f t="shared" si="46"/>
         <v>3.5046296296059154E-2</v>
       </c>
       <c r="N143" s="13">
-        <f>$M143*24*60</f>
+        <f t="shared" si="54"/>
         <v>50.466666666325182</v>
       </c>
       <c r="O143" s="13"/>
@@ -14726,27 +14258,27 @@
       <c r="Q143" s="62"/>
       <c r="R143" s="62"/>
       <c r="T143" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E143-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I143+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B143&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 23:43:32-0600',mode:absolute,to:'2016-05-11 00:37:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U143" s="75" t="str">
-        <f>IF(Y143&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V143" s="75">
-        <f>VALUE(LEFT(A143,3))-VALUE(LEFT(A142,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W143" s="75">
-        <f>RIGHT(D143,LEN(D143)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="X143" s="75">
-        <f>RIGHT(H143,LEN(H143)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>23.331900000000001</v>
       </c>
       <c r="Y143" s="75">
-        <f>ABS(X143-W143)</f>
+        <f t="shared" si="52"/>
         <v>23.288600000000002</v>
       </c>
       <c r="Z143" s="76" t="e">
@@ -14758,7 +14290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="61" t="s">
         <v>399</v>
       </c>
@@ -14790,7 +14322,7 @@
         <v>0</v>
       </c>
       <c r="K144" s="61" t="str">
-        <f>IF(ISEVEN(B144),(B144-1)&amp;"/"&amp;B144,B144&amp;"/"&amp;(B144+1))</f>
+        <f t="shared" si="53"/>
         <v>4015/4016</v>
       </c>
       <c r="L144" s="61" t="str">
@@ -14798,11 +14330,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M144" s="12">
-        <f>I144-F144</f>
+        <f t="shared" si="46"/>
         <v>3.4004629633272998E-2</v>
       </c>
       <c r="N144" s="13">
-        <f>$M144*24*60</f>
+        <f t="shared" si="54"/>
         <v>48.966666671913117</v>
       </c>
       <c r="O144" s="13"/>
@@ -14810,27 +14342,27 @@
       <c r="Q144" s="62"/>
       <c r="R144" s="62"/>
       <c r="T144" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E144-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I144+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B144&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-11 00:41:14-0600',mode:absolute,to:'2016-05-11 01:33:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U144" s="75" t="str">
-        <f>IF(Y144&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V144" s="75">
-        <f>VALUE(LEFT(A144,3))-VALUE(LEFT(A143,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W144" s="75">
-        <f>RIGHT(D144,LEN(D144)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>23.299099999999999</v>
       </c>
       <c r="X144" s="75">
-        <f>RIGHT(H144,LEN(H144)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>1.7600000000000001E-2</v>
       </c>
       <c r="Y144" s="75">
-        <f>ABS(X144-W144)</f>
+        <f t="shared" si="52"/>
         <v>23.281499999999998</v>
       </c>
       <c r="Z144" s="76" t="e">
@@ -14842,7 +14374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="61" t="s">
         <v>401</v>
       </c>
@@ -14874,7 +14406,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="61" t="str">
-        <f>IF(ISEVEN(B145),(B145-1)&amp;"/"&amp;B145,B145&amp;"/"&amp;(B145+1))</f>
+        <f t="shared" si="53"/>
         <v>4043/4044</v>
       </c>
       <c r="L145" s="61" t="str">
@@ -14882,11 +14414,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M145" s="12">
-        <f>I145-F145</f>
+        <f t="shared" si="46"/>
         <v>3.684027778217569E-2</v>
       </c>
       <c r="N145" s="13">
-        <f>$M145*24*60</f>
+        <f t="shared" si="54"/>
         <v>53.050000006332994</v>
       </c>
       <c r="O145" s="13"/>
@@ -14894,27 +14426,27 @@
       <c r="Q145" s="62"/>
       <c r="R145" s="62"/>
       <c r="T145" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E145-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I145+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B145&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-11 00:21:37-0600',mode:absolute,to:'2016-05-11 01:18:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U145" s="75" t="str">
-        <f>IF(Y145&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>N</v>
       </c>
       <c r="V145" s="75">
-        <f>VALUE(LEFT(A145,3))-VALUE(LEFT(A144,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W145" s="75">
-        <f>RIGHT(D145,LEN(D145)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X145" s="75">
-        <f>RIGHT(H145,LEN(H145)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>23.328800000000001</v>
       </c>
       <c r="Y145" s="75">
-        <f>ABS(X145-W145)</f>
+        <f t="shared" si="52"/>
         <v>23.282400000000003</v>
       </c>
       <c r="Z145" s="76" t="e">
@@ -14958,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="K146" s="61" t="str">
-        <f>IF(ISEVEN(B146),(B146-1)&amp;"/"&amp;B146,B146&amp;"/"&amp;(B146+1))</f>
+        <f t="shared" si="53"/>
         <v>4043/4044</v>
       </c>
       <c r="L146" s="61" t="str">
@@ -14966,7 +14498,7 @@
         <v>BARTLETT</v>
       </c>
       <c r="M146" s="12">
-        <f>I146-F146</f>
+        <f t="shared" si="46"/>
         <v>2.8171296296932269E-2</v>
       </c>
       <c r="N146" s="13"/>
@@ -14975,33 +14507,33 @@
         <v>41</v>
       </c>
       <c r="Q146" s="62" t="s">
+        <v>418</v>
+      </c>
+      <c r="R146" s="62" t="s">
         <v>417</v>
       </c>
-      <c r="R146" s="62" t="s">
-        <v>423</v>
-      </c>
       <c r="T146" s="75" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E146-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I146+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B146&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="47"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-11 01:19:42-0600',mode:absolute,to:'2016-05-11 02:03:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U146" s="75" t="str">
-        <f>IF(Y146&lt;23,"Y","N")</f>
+        <f t="shared" si="48"/>
         <v>Y</v>
       </c>
       <c r="V146" s="75">
-        <f>VALUE(LEFT(A146,3))-VALUE(LEFT(A145,3))</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W146" s="75">
-        <f>RIGHT(D146,LEN(D146)-4)/10000</f>
+        <f t="shared" si="50"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X146" s="75">
-        <f>RIGHT(H146,LEN(H146)-4)/10000</f>
+        <f t="shared" si="51"/>
         <v>0.3705</v>
       </c>
       <c r="Y146" s="75">
-        <f>ABS(X146-W146)</f>
+        <f t="shared" si="52"/>
         <v>22.927299999999999</v>
       </c>
       <c r="Z146" s="76" t="e">
@@ -15486,16 +15018,7 @@
       <c r="AA163" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AA146">
-    <filterColumn colId="15">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A3:AA147">
-      <sortCondition ref="A2:A147"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A2:AA146"/>
   <sortState ref="A3:Y144">
     <sortCondition ref="A3:A144"/>
   </sortState>
@@ -15506,28 +15029,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:P147 A3:R146">
-    <cfRule type="expression" dxfId="63" priority="34">
+    <cfRule type="expression" dxfId="19" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="35">
+    <cfRule type="expression" dxfId="18" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q147:R147">
-    <cfRule type="expression" dxfId="61" priority="76">
+    <cfRule type="expression" dxfId="17" priority="76">
       <formula>$P147&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="77">
+    <cfRule type="expression" dxfId="16" priority="77">
       <formula>$O166&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18341,17 +17864,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:N65 B3:N26 B27:L28 N27:N28 B46:L62 N46:N62 M27:M62">
-    <cfRule type="expression" dxfId="57" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:L45 N29:N45">
-    <cfRule type="expression" dxfId="55" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-05-10.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-10.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="428">
   <si>
     <t>Train ID</t>
   </si>
@@ -1335,6 +1335,9 @@
   </si>
   <si>
     <t>Train didn't fully stop at Station, onboard flashed prompts. Train was probably cut out to avoid confusion.</t>
+  </si>
+  <si>
+    <t>Train was not soft cut out at end of run</t>
   </si>
 </sst>
 </file>
@@ -1824,91 +1827,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2270,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R154" sqref="R154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,7 +2633,7 @@
         <v>140</v>
       </c>
       <c r="I6" s="30">
-        <v>42500.307696759257</v>
+        <v>42500.222372685188</v>
       </c>
       <c r="J6" s="61">
         <v>5</v>
@@ -2729,19 +2648,21 @@
       </c>
       <c r="M6" s="12">
         <f t="shared" si="1"/>
-        <v>0.11630787036847323</v>
+        <v>3.0983796299551614E-2</v>
       </c>
       <c r="N6" s="13">
         <f t="shared" ref="N6:N40" si="3">$M6*24*60</f>
-        <v>167.48333333060145</v>
+        <v>44.616666671354324</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
+      <c r="R6" s="62" t="s">
+        <v>427</v>
+      </c>
       <c r="T6" s="75" t="str">
         <f t="shared" ref="T6:T37" si="4">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E6-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I6+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B6&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 04:33:02-0600',mode:absolute,to:'2016-05-10 07:24:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-10 04:33:02-0600',mode:absolute,to:'2016-05-10 05:21:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U6" s="75" t="str">
         <f t="shared" ref="U6:U37" si="5">IF(Y6&lt;23,"Y","N")</f>
@@ -8133,7 +8054,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="Y70" s="75">
-        <f t="shared" ref="Y70:Y101" si="27">ABS(X70-W70)</f>
+        <f t="shared" ref="Y70:Y90" si="27">ABS(X70-W70)</f>
         <v>23.279700000000002</v>
       </c>
       <c r="Z70" s="76" t="e">
@@ -12931,7 +12852,7 @@
         <v>23.330400000000001</v>
       </c>
       <c r="Y127" s="75">
-        <f t="shared" ref="Y127:Y158" si="52">ABS(X127-W127)</f>
+        <f t="shared" ref="Y127:Y146" si="52">ABS(X127-W127)</f>
         <v>23.2849</v>
       </c>
       <c r="Z127" s="76" t="e">
@@ -14679,7 +14600,7 @@
       <c r="L151" s="3"/>
       <c r="M151" s="72">
         <f>AVERAGE(N3:N146)</f>
-        <v>44.718671679291944</v>
+        <v>43.794862155538205</v>
       </c>
       <c r="N151" s="6">
         <f>MIN(N3:N146)</f>
@@ -14687,7 +14608,7 @@
       </c>
       <c r="O151" s="7">
         <f>MAX(N3:N146)</f>
-        <v>167.48333333060145</v>
+        <v>58.716666667023674</v>
       </c>
       <c r="P151" s="5"/>
       <c r="T151" s="57"/>
@@ -14796,7 +14717,7 @@
       <c r="L154" s="3"/>
       <c r="M154" s="72">
         <f>AVERAGE(N3:P146)</f>
-        <v>44.007511737022853</v>
+        <v>43.142253521112664</v>
       </c>
       <c r="N154" s="6">
         <f>MIN(N3:O146)</f>
@@ -14804,7 +14725,7 @@
       </c>
       <c r="O154" s="7">
         <f>MAX(N3:O146)</f>
-        <v>167.48333333060145</v>
+        <v>58.716666667023674</v>
       </c>
       <c r="P154" s="5"/>
       <c r="T154" s="57"/>
@@ -15029,28 +14950,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:P147 A3:R146">
-    <cfRule type="expression" dxfId="19" priority="34">
+    <cfRule type="expression" dxfId="7" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="35">
+    <cfRule type="expression" dxfId="6" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q147:R147">
-    <cfRule type="expression" dxfId="17" priority="76">
+    <cfRule type="expression" dxfId="5" priority="76">
       <formula>$P147&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="77">
+    <cfRule type="expression" dxfId="4" priority="77">
       <formula>$O166&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17864,17 +17785,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:N65 B3:N26 B27:L28 N27:N28 B46:L62 N46:N62 M27:M62">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:L45 N29:N45">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-05-10.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-10.xlsx
@@ -2189,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R154" sqref="R154"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J150" sqref="J150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,7 +2225,7 @@
     <row r="1" spans="1:89" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(Variables!A2,"yyyy-mm-dd")</f>
-        <v>Eagle P3 System Performance - 2016-05-09</v>
+        <v>Eagle P3 System Performance - 2016-05-10</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -14501,7 +14501,7 @@
       <c r="H148" s="31"/>
       <c r="I148" s="78">
         <f>Variables!A2</f>
-        <v>42499</v>
+        <v>42500</v>
       </c>
       <c r="J148" s="79"/>
       <c r="K148" s="77"/>
@@ -15028,7 +15028,7 @@
     <row r="1" spans="1:14" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="str">
         <f>"Eagle P3 Braking Events - "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
-        <v>Eagle P3 Braking Events - 2016-05-09</v>
+        <v>Eagle P3 Braking Events - 2016-05-10</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -17817,7 +17817,7 @@
     <row r="1" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="str">
         <f>"Trips that did not appear in PTC Data "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
-        <v>Trips that did not appear in PTC Data 2016-05-09</v>
+        <v>Trips that did not appear in PTC Data 2016-05-10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -20594,7 +20594,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29">
-        <v>42499</v>
+        <v>42500</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="37">

--- a/EC/Train Runs and Enforcements 2016-05-10.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="433">
   <si>
     <t>Train ID</t>
   </si>
@@ -1304,9 +1304,6 @@
     <t>202-10</t>
   </si>
   <si>
-    <t>TMC Entered Failed State</t>
-  </si>
-  <si>
     <t>Poor GPS signal caused navigation issues as train approached DUS</t>
   </si>
   <si>
@@ -1322,22 +1319,40 @@
     <t>Premature downgrade at signal EC1981RH 191-1T 1N</t>
   </si>
   <si>
-    <t>Poor GPS signal prevented track selection</t>
-  </si>
-  <si>
-    <t>TMC Entered Failed State because Departure Test was canceled (3 times)</t>
-  </si>
-  <si>
     <t>Premature signal downgrade EC2174RH (CP 78TH AVENUE) Signal 2N</t>
   </si>
   <si>
-    <t>Emergency Braking Event, spent remainder of trip in ATC</t>
-  </si>
-  <si>
-    <t>Train didn't fully stop at Station, onboard flashed prompts. Train was probably cut out to avoid confusion.</t>
-  </si>
-  <si>
     <t>Train was not soft cut out at end of run</t>
+  </si>
+  <si>
+    <t>In-route failure because Departure Test was canceled (3 times)</t>
+  </si>
+  <si>
+    <t>Wayside communication equipment failure at Sable</t>
+  </si>
+  <si>
+    <t>Poor GPS signal prevented track selection at DUS</t>
+  </si>
+  <si>
+    <t>In-route failure</t>
+  </si>
+  <si>
+    <t>SB Quebec crossing didn't respond</t>
+  </si>
+  <si>
+    <t>Early Arrival</t>
+  </si>
+  <si>
+    <t>Routing @ 40th</t>
+  </si>
+  <si>
+    <t>Premature downgrade from 270 to 0 at EC1981RH 191-1T 1N</t>
+  </si>
+  <si>
+    <t>Comparator Issue caused temporary comm outage</t>
+  </si>
+  <si>
+    <t>Wi-MAX outage</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1842,56 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2189,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J150" sqref="J150"/>
+    <sheetView showGridLines="0" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R132" sqref="R132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,7 +2654,7 @@
         <v>0.1</v>
       </c>
       <c r="Q5" s="62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="R5" s="62" t="s">
         <v>423</v>
@@ -2658,7 +2722,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="62"/>
       <c r="R6" s="62" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="T6" s="75" t="str">
         <f t="shared" ref="T6:T37" si="4">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E6-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I6+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B6&amp;"%22')),sort:!(Time,asc))"</f>
@@ -5597,10 +5661,10 @@
         <v>43</v>
       </c>
       <c r="Q41" s="62" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R41" s="62" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="T41" s="75" t="str">
         <f t="shared" si="13"/>
@@ -7188,10 +7252,10 @@
         <v>42.033333320869133</v>
       </c>
       <c r="Q60" s="62" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R60" s="62" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T60" s="75" t="str">
         <f t="shared" si="13"/>
@@ -7441,10 +7505,10 @@
         <v>39.183333325199783</v>
       </c>
       <c r="Q63" s="62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="R63" s="62" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T63" s="75" t="str">
         <f t="shared" si="13"/>
@@ -8284,10 +8348,10 @@
         <v>32.133333332603797</v>
       </c>
       <c r="Q73" s="62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="R73" s="62" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="T73" s="75" t="str">
         <f t="shared" si="23"/>
@@ -9463,10 +9527,10 @@
         <v>36.033333332743496</v>
       </c>
       <c r="Q87" s="62" t="s">
+        <v>419</v>
+      </c>
+      <c r="R87" s="62" t="s">
         <v>420</v>
-      </c>
-      <c r="R87" s="62" t="s">
-        <v>421</v>
       </c>
       <c r="T87" s="75" t="str">
         <f t="shared" si="23"/>
@@ -9886,10 +9950,10 @@
         <v>23</v>
       </c>
       <c r="Q92" s="62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="R92" s="62" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="T92" s="75" t="str">
         <f t="shared" si="31"/>
@@ -13249,10 +13313,10 @@
         <v>45</v>
       </c>
       <c r="Q132" s="62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="R132" s="62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T132" s="75" t="str">
         <f t="shared" si="47"/>
@@ -14428,10 +14492,10 @@
         <v>41</v>
       </c>
       <c r="Q146" s="62" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R146" s="62" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T146" s="75" t="str">
         <f t="shared" si="47"/>
@@ -14950,28 +15014,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:P147 A3:R146">
-    <cfRule type="expression" dxfId="7" priority="34">
+    <cfRule type="expression" dxfId="14" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="35">
+    <cfRule type="expression" dxfId="13" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q147:R147">
-    <cfRule type="expression" dxfId="5" priority="76">
+    <cfRule type="expression" dxfId="12" priority="76">
       <formula>$P147&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="77">
+    <cfRule type="expression" dxfId="11" priority="77">
       <formula>$O166&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15003,8 +15067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15129,7 +15193,9 @@
       <c r="M3" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="21" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="4" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
@@ -15172,7 +15238,9 @@
       <c r="M4" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="21" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="5" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
@@ -15256,9 +15324,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="N6" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="7" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
@@ -15774,7 +15844,9 @@
       <c r="M18" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="21"/>
+      <c r="N18" s="21" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="19" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
@@ -15817,7 +15889,9 @@
       <c r="M19" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N19" s="21"/>
+      <c r="N19" s="21" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="20" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
@@ -15858,9 +15932,11 @@
         <v>COOLAHAN</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="N20" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="21" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
@@ -15903,7 +15979,9 @@
       <c r="M21" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N21" s="21"/>
+      <c r="N21" s="21" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="22" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
@@ -15944,9 +16022,11 @@
         <v>JACKSON</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="N22" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="23" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
@@ -15989,7 +16069,9 @@
       <c r="M23" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="21"/>
+      <c r="N23" s="21" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="24" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
@@ -16032,7 +16114,9 @@
       <c r="M24" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N24" s="21"/>
+      <c r="N24" s="21" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="25" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
@@ -16075,7 +16159,9 @@
       <c r="M25" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="21"/>
+      <c r="N25" s="21" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="26" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
@@ -17759,7 +17845,7 @@
       <c r="L66" s="53"/>
       <c r="M66" s="17">
         <f>COUNTIF(M3:M63,"=Y")</f>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17769,7 +17855,7 @@
       <c r="L67" s="54"/>
       <c r="M67" s="15">
         <f>COUNTA(M3:M63)-M66</f>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -17785,17 +17871,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:N65 B3:N26 B27:L28 N27:N28 B46:L62 N46:N62 M27:M62">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <conditionalFormatting sqref="B63:N65 B27:L28 N27:N28 B46:L62 N46:N62 M27:M62 B3:N26">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:L45 N29:N45">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-05-10.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="432">
   <si>
     <t>Train ID</t>
   </si>
@@ -1305,9 +1305,6 @@
   </si>
   <si>
     <t>Poor GPS signal caused navigation issues as train approached DUS</t>
-  </si>
-  <si>
-    <t>Ticket Needed</t>
   </si>
   <si>
     <t>Premature downgrade, DUS Signal 20S</t>
@@ -1842,56 +1839,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2253,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK163"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R132" sqref="R132"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I146" sqref="I146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,10 +2602,10 @@
         <v>0.1</v>
       </c>
       <c r="Q5" s="62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R5" s="62" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T5" s="75"/>
       <c r="U5" s="75"/>
@@ -2722,7 +2670,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="62"/>
       <c r="R6" s="62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T6" s="75" t="str">
         <f t="shared" ref="T6:T37" si="4">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E6-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I6+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B6&amp;"%22')),sort:!(Time,asc))"</f>
@@ -5661,10 +5609,10 @@
         <v>43</v>
       </c>
       <c r="Q41" s="62" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="R41" s="62" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T41" s="75" t="str">
         <f t="shared" si="13"/>
@@ -7252,10 +7200,10 @@
         <v>42.033333320869133</v>
       </c>
       <c r="Q60" s="62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R60" s="62" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T60" s="75" t="str">
         <f t="shared" si="13"/>
@@ -7505,10 +7453,10 @@
         <v>39.183333325199783</v>
       </c>
       <c r="Q63" s="62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R63" s="62" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T63" s="75" t="str">
         <f t="shared" si="13"/>
@@ -8348,10 +8296,10 @@
         <v>32.133333332603797</v>
       </c>
       <c r="Q73" s="62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R73" s="62" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T73" s="75" t="str">
         <f t="shared" si="23"/>
@@ -9527,10 +9475,10 @@
         <v>36.033333332743496</v>
       </c>
       <c r="Q87" s="62" t="s">
+        <v>418</v>
+      </c>
+      <c r="R87" s="62" t="s">
         <v>419</v>
-      </c>
-      <c r="R87" s="62" t="s">
-        <v>420</v>
       </c>
       <c r="T87" s="75" t="str">
         <f t="shared" si="23"/>
@@ -9950,10 +9898,10 @@
         <v>23</v>
       </c>
       <c r="Q92" s="62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R92" s="62" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T92" s="75" t="str">
         <f t="shared" si="31"/>
@@ -13313,10 +13261,10 @@
         <v>45</v>
       </c>
       <c r="Q132" s="62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R132" s="62" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T132" s="75" t="str">
         <f t="shared" si="47"/>
@@ -14492,7 +14440,7 @@
         <v>41</v>
       </c>
       <c r="Q146" s="62" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="R146" s="62" t="s">
         <v>416</v>
@@ -15014,28 +14962,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:P147 A3:R146">
-    <cfRule type="expression" dxfId="14" priority="34">
+    <cfRule type="expression" dxfId="7" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="35">
+    <cfRule type="expression" dxfId="6" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q147:R147">
-    <cfRule type="expression" dxfId="12" priority="76">
+    <cfRule type="expression" dxfId="5" priority="76">
       <formula>$P147&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="77">
+    <cfRule type="expression" dxfId="4" priority="77">
       <formula>$O166&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15067,7 +15015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -15194,7 +15142,7 @@
         <v>117</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15239,7 +15187,7 @@
         <v>117</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15327,7 +15275,7 @@
         <v>118</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15845,7 +15793,7 @@
         <v>117</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15890,7 +15838,7 @@
         <v>117</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15935,7 +15883,7 @@
         <v>118</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15980,7 +15928,7 @@
         <v>117</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16025,7 +15973,7 @@
         <v>118</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16070,7 +16018,7 @@
         <v>117</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16115,7 +16063,7 @@
         <v>117</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16160,7 +16108,7 @@
         <v>117</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -17871,17 +17819,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:N65 B27:L28 N27:N28 B46:L62 N46:N62 M27:M62 B3:N26">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:L45 N29:N45">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>
